--- a/lab1/xlsx1.xlsx
+++ b/lab1/xlsx1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabela 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabela 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wykres" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabela 3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Symulacja" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Tabela 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabela 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wykres" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Tabela 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Symulacja" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -8683,13 +8683,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A203:A302"/>
     <mergeCell ref="A303:C303"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A103:A202"/>
     <mergeCell ref="A3:A102"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A203:A302"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -8967,6 +8967,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A6:A8"/>
@@ -8974,19 +8987,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -9208,7 +9208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A2"/>
@@ -9511,6 +9511,3184 @@
       <c r="F28" s="13" t="n"/>
       <c r="G28" s="2" t="n"/>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.8409496109340183</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.990973426933204</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.008988871854754</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20.61559874578514</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.681899221868037</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.981955012813959</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.01793223069065</v>
+      </c>
+      <c r="F31" t="n">
+        <v>21.21497078522772</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6.138438739555893</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.934277328351711</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.064701500066186</v>
+      </c>
+      <c r="F32" t="n">
+        <v>24.18554305467275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10.59497825724375</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.886828881651292</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.110244265390404</v>
+      </c>
+      <c r="F33" t="n">
+        <v>26.77948894712974</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>15.05151777493161</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.839609672695234</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.154606711230207</v>
+      </c>
+      <c r="F34" t="n">
+        <v>29.05924503862631</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>23.25043070066528</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.753337010503995</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.233265825521134</v>
+      </c>
+      <c r="F35" t="n">
+        <v>32.57481462292541</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31.44934362639895</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.667840243664756</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.308317558944887</v>
+      </c>
+      <c r="F36" t="n">
+        <v>35.43226977351459</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39.64825655213262</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.583119372177674</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.379963986616424</v>
+      </c>
+      <c r="F37" t="n">
+        <v>37.78041256840326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>47.8471694778663</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.499174396042751</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.448389993028215</v>
+      </c>
+      <c r="F38" t="n">
+        <v>39.73145092360551</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63.23029040911011</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.343767114736372</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.568641446110442</v>
+      </c>
+      <c r="F39" t="n">
+        <v>42.58510232443351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>78.61341134035393</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.191091196985923</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.679076875261241</v>
+      </c>
+      <c r="F40" t="n">
+        <v>44.69364603630402</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>93.99653227159776</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.041146642791404</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.78049266121987</v>
+      </c>
+      <c r="F41" t="n">
+        <v>46.27897507399852</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>109.3796532028416</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.893933452152814</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.873571162791235</v>
+      </c>
+      <c r="F42" t="n">
+        <v>47.48502357313741</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>135.988419677524</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.645741606578731</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.016571327430198</v>
+      </c>
+      <c r="F43" t="n">
+        <v>48.93693341754182</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>162.5971861522063</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.405721981694168</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.138974398736305</v>
+      </c>
+      <c r="F44" t="n">
+        <v>49.85348552880124</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>189.2059526268887</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.173874577499124</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.242916600102465</v>
+      </c>
+      <c r="F45" t="n">
+        <v>50.40754371361011</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>215.8147191015711</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.950199393993599</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.330199094642493</v>
+      </c>
+      <c r="F46" t="n">
+        <v>50.70589017822629</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>265.1137255800245</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.557385021233341</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.452908530036138</v>
+      </c>
+      <c r="F47" t="n">
+        <v>50.79223992938875</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>314.4127320584781</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2.192622849091156</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.53179751191838</v>
+      </c>
+      <c r="F48" t="n">
+        <v>50.48484457181061</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>363.7117385369316</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.855912877567042</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.573379503960412</v>
+      </c>
+      <c r="F49" t="n">
+        <v>49.89992912511838</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>413.0107450153851</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.547255106661001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.583038064231167</v>
+      </c>
+      <c r="F50" t="n">
+        <v>49.10226925862712</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>489.4013437290549</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.124390191874911</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.545273747950348</v>
+      </c>
+      <c r="F51" t="n">
+        <v>47.5236786977437</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>565.7919424427247</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7688803684775081</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.455755697601226</v>
+      </c>
+      <c r="F52" t="n">
+        <v>45.57574218933235</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>642.1825411563944</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4807256364687917</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.325912892115686</v>
+      </c>
+      <c r="F53" t="n">
+        <v>43.25187358407284</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>718.5731398700642</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.2599259958487622</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.165342696690067</v>
+      </c>
+      <c r="F54" t="n">
+        <v>40.51539138154926</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>815.4942815487397</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0767257197711264</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.930125105389745</v>
+      </c>
+      <c r="F55" t="n">
+        <v>36.34243504936676</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>912.4154232274151</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.001949997739607566</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.673010612872435</v>
+      </c>
+      <c r="F56" t="n">
+        <v>31.18211732331628</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>924.0257683243552</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0002646169178788894</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.641344163218475</v>
+      </c>
+      <c r="F57" t="n">
+        <v>30.48346914143776</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>926.7932305953824</v>
+      </c>
+      <c r="B58" t="n">
+        <v>9.251993950891056e-05</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.633776507409074</v>
+      </c>
+      <c r="F58" t="n">
+        <v>30.31399193217312</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>929.5606928664096</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8.823318307108465e-06</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.626202410827826</v>
+      </c>
+      <c r="F59" t="n">
+        <v>30.14339056975994</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>931.0087457901423</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.622238599573341</v>
+      </c>
+      <c r="F60" t="n">
+        <v>30.05373880521003</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>931.8413762210101</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.619963659982799</v>
+      </c>
+      <c r="F61" t="n">
+        <v>30.00223310325888</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>932.674006651878</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.617696149360047</v>
+      </c>
+      <c r="F62" t="n">
+        <v>29.95091955846906</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>934.3392675136138</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.613183310276759</v>
+      </c>
+      <c r="F63" t="n">
+        <v>29.84886775460587</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>936.0045283753495</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.608699946000214</v>
+      </c>
+      <c r="F64" t="n">
+        <v>29.74758181402031</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>937.6697892370853</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.604245913068919</v>
+      </c>
+      <c r="F65" t="n">
+        <v>29.64706002933218</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>954.3223978544432</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.561260045561274</v>
+      </c>
+      <c r="F66" t="n">
+        <v>28.68309162418475</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>970.9750064718012</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.521031051250995</v>
+      </c>
+      <c r="F67" t="n">
+        <v>27.79296785892389</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>987.6276150891591</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.483424140687124</v>
+      </c>
+      <c r="F68" t="n">
+        <v>26.97429839343554</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1032.529293812926</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.393591686246383</v>
+      </c>
+      <c r="F69" t="n">
+        <v>25.09055693741076</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1077.430972536692</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.319178787219805</v>
+      </c>
+      <c r="F70" t="n">
+        <v>23.63729059269827</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1122.332651260458</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.257962899489375</v>
+      </c>
+      <c r="F71" t="n">
+        <v>22.54498471222026</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1175.132499389958</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.200732593002563</v>
+      </c>
+      <c r="F72" t="n">
+        <v>21.64927631939791</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1227.932347519458</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.15610272267665</v>
+      </c>
+      <c r="F73" t="n">
+        <v>21.06044446584271</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1280.732195648958</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.121169483021601</v>
+      </c>
+      <c r="F74" t="n">
+        <v>20.67700907453198</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1333.532043778459</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.093851576993558</v>
+      </c>
+      <c r="F75" t="n">
+        <v>20.42917990752407</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1397.691061216219</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.068557886693013</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20.2420298959766</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1461.850078653979</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.049817879879377</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20.12627287573982</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1526.009096091739</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.036096084665677</v>
+      </c>
+      <c r="F78" t="n">
+        <v>20.05811722001047</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1590.168113529499</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.026166163507127</v>
+      </c>
+      <c r="F79" t="n">
+        <v>20.0233960572308</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1654.32713096726</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.01900245320147</v>
+      </c>
+      <c r="F80" t="n">
+        <v>20.00936793818201</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1759.309323818305</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.011348987752823</v>
+      </c>
+      <c r="F81" t="n">
+        <v>20.00481135501986</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1864.29151666935</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.006883068552752</v>
+      </c>
+      <c r="F82" t="n">
+        <v>20.00498853800849</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1969.273709520395</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.004225572338174</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20.0038232812892</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.003629473403333</v>
+      </c>
+      <c r="F84" t="n">
+        <v>20.00287452690102</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.7040605092122287</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.990973188475365</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.0089952248353</v>
+      </c>
+      <c r="G86" t="n">
+        <v>20.61643205223884</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.408121018424457</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4.981954536329653</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.017950973557585</v>
+      </c>
+      <c r="G87" t="n">
+        <v>21.21740353947919</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5.248989300959902</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.932876461940912</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.066231717139993</v>
+      </c>
+      <c r="G88" t="n">
+        <v>24.28797587611156</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>9.089857583495347</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.884041323848334</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.113381639443674</v>
+      </c>
+      <c r="G89" t="n">
+        <v>26.97760057561999</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>12.93072586603079</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.835449122033961</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.159440024494873</v>
+      </c>
+      <c r="G90" t="n">
+        <v>29.34877767279139</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>20.02067214020377</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.746389784664664</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.241701698941221</v>
+      </c>
+      <c r="G91" t="n">
+        <v>33.03283177199027</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>27.11061841437675</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.658158235881324</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.320577096909909</v>
+      </c>
+      <c r="G92" t="n">
+        <v>36.04197093819862</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34.20056468854973</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.570754475684123</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.396240462008395</v>
+      </c>
+      <c r="G93" t="n">
+        <v>38.52761214737951</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>41.29051096272271</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.48417850407306</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.46885137475062</v>
+      </c>
+      <c r="G94" t="n">
+        <v>40.60408094956132</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>54.59850634551076</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4.323908504263896</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.597384149028239</v>
+      </c>
+      <c r="G95" t="n">
+        <v>43.66679530618101</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>67.90650172829881</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.166554983285687</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.716479913256534</v>
+      </c>
+      <c r="G96" t="n">
+        <v>45.95503115875653</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>81.21449711108686</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.012117941138433</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.82683115973265</v>
+      </c>
+      <c r="G97" t="n">
+        <v>47.69696681064725</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>94.52249249387491</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.860597377822134</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.929032955874411</v>
+      </c>
+      <c r="G98" t="n">
+        <v>49.04100249200736</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>117.5688505825856</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.605097563847151</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.088221880903537</v>
+      </c>
+      <c r="G99" t="n">
+        <v>50.69791791429962</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>140.6152086712962</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.358344327532605</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.226794936963042</v>
+      </c>
+      <c r="G100" t="n">
+        <v>51.78407559572383</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>163.6615667600069</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.120337668878497</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.346646156797184</v>
+      </c>
+      <c r="G101" t="n">
+        <v>52.48127052656233</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>186.7079248487176</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.891077587884825</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.449382039666804</v>
+      </c>
+      <c r="G102" t="n">
+        <v>52.90213202348667</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>229.2992202925666</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.490407308784474</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.598696748932874</v>
+      </c>
+      <c r="G103" t="n">
+        <v>53.1728377507107</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>271.8905157364155</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.119609782461609</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.701546430906982</v>
+      </c>
+      <c r="G104" t="n">
+        <v>53.01021051775407</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>314.4818111802645</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.77868500891623</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.763875837782854</v>
+      </c>
+      <c r="G105" t="n">
+        <v>52.54067764489479</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>357.0731066241135</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.467632988148339</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.790672186807475</v>
+      </c>
+      <c r="G106" t="n">
+        <v>51.83447098112721</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>432.070559210105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9925261167017473</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.764070836658549</v>
+      </c>
+      <c r="G107" t="n">
+        <v>50.11849728173874</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>507.0680117960965</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.6100438930643046</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.660064319008417</v>
+      </c>
+      <c r="G108" t="n">
+        <v>47.8641184795082</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>582.065464382088</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.320186317236011</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.49480988590047</v>
+      </c>
+      <c r="G109" t="n">
+        <v>45.03852634211164</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>657.0629169680794</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.1229533892168662</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.282180927631024</v>
+      </c>
+      <c r="G110" t="n">
+        <v>41.54440093051095</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>757.6282345804367</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.003853663361529903</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.943944803996858</v>
+      </c>
+      <c r="G111" t="n">
+        <v>35.49088340633159</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>769.6751215860731</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0007567832472101146</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.900495148117068</v>
+      </c>
+      <c r="G112" t="n">
+        <v>34.6355562019282</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>773.1976434267085</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0003028268524379104</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.887695340181717</v>
+      </c>
+      <c r="G113" t="n">
+        <v>34.37904710012738</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>776.7201652673439</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5.320459777020324e-05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.874855537716146</v>
+      </c>
+      <c r="G114" t="n">
+        <v>34.1196262606023</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>778.4981156847103</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.806494061134312e-06</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.868359920399894</v>
+      </c>
+      <c r="G115" t="n">
+        <v>33.9875680148053</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>779.5204371746975</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.864622669364391</v>
+      </c>
+      <c r="G116" t="n">
+        <v>33.9113564480005</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>780.1082720314416</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.862476381301416</v>
+      </c>
+      <c r="G117" t="n">
+        <v>33.86754378796945</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>780.6961068881858</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.860334710659296</v>
+      </c>
+      <c r="G118" t="n">
+        <v>33.82381888657395</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>781.8717766016741</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.856065182479298</v>
+      </c>
+      <c r="G119" t="n">
+        <v>33.73663256847377</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>783.0474463151625</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.851814032969632</v>
+      </c>
+      <c r="G120" t="n">
+        <v>33.64979772896609</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>784.2231160286508</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.847581206423329</v>
+      </c>
+      <c r="G121" t="n">
+        <v>33.56331456944214</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>795.9798131635337</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.806237891852934</v>
+      </c>
+      <c r="G122" t="n">
+        <v>32.71789524666208</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>807.7365102984165</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.766658229169221</v>
+      </c>
+      <c r="G123" t="n">
+        <v>31.90779786627821</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>819.4932074332994</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.728789017567959</v>
+      </c>
+      <c r="G124" t="n">
+        <v>31.13302744500537</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>866.2317817063876</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.594089755285326</v>
+      </c>
+      <c r="G125" t="n">
+        <v>28.39664531394641</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>912.9703559794757</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.482243145883026</v>
+      </c>
+      <c r="G126" t="n">
+        <v>26.18885930302902</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>959.7089302525638</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.389938915830544</v>
+      </c>
+      <c r="G127" t="n">
+        <v>24.46248039931705</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1006.447504525652</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.314218290255254</v>
+      </c>
+      <c r="G128" t="n">
+        <v>23.15317218081231</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1067.372491388598</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.236073506278062</v>
+      </c>
+      <c r="G129" t="n">
+        <v>21.95399374128389</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1128.297478251543</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.176533338572229</v>
+      </c>
+      <c r="G130" t="n">
+        <v>21.18687221183398</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1189.222465114489</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.131515926610314</v>
+      </c>
+      <c r="G131" t="n">
+        <v>20.71035848982725</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1250.147451977434</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.097717600886194</v>
+      </c>
+      <c r="G132" t="n">
+        <v>20.41791354638254</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1311.07243884038</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.072470658669341</v>
+      </c>
+      <c r="G133" t="n">
+        <v>20.23937801893575</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1416.508648649915</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.042996361094964</v>
+      </c>
+      <c r="G134" t="n">
+        <v>20.07752359345021</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1501.837258895744</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.028099016804895</v>
+      </c>
+      <c r="G135" t="n">
+        <v>20.03032934073487</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1587.165869141573</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.018345646868113</v>
+      </c>
+      <c r="G136" t="n">
+        <v>20.01673064216677</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1672.494479387402</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.011976171337302</v>
+      </c>
+      <c r="G137" t="n">
+        <v>20.01043166950718</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1757.823089633232</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.007814336299505</v>
+      </c>
+      <c r="G138" t="n">
+        <v>20.0038695439935</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1843.151699879061</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.005093445657038</v>
+      </c>
+      <c r="G139" t="n">
+        <v>20.00007003322718</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1960.57737584673</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.002772943369805</v>
+      </c>
+      <c r="G140" t="n">
+        <v>19.99625446503842</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.002272111606147</v>
+      </c>
+      <c r="G141" t="n">
+        <v>19.99676977441182</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.8934086268539385</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.990973529516955</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.008986428409915</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20.61527927900455</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.786817253707877</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.98195521779589</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.017925034805639</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21.21403936730948</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>6.4708773240163</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.934785215864527</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.064146625704287</v>
+      </c>
+      <c r="F145" t="n">
+        <v>24.14833589842135</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>11.15493739432472</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.887839584214432</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.109108211136645</v>
+      </c>
+      <c r="F146" t="n">
+        <v>26.70760299792155</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>15.83899746463315</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.841118322828315</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.152858549367046</v>
+      </c>
+      <c r="F147" t="n">
+        <v>28.95425541614319</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>24.44581435397607</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.755854342968057</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.230224134686863</v>
+      </c>
+      <c r="F148" t="n">
+        <v>32.40907744579356</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>33.05263124331899</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.671347903009186</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.303907868041796</v>
+      </c>
+      <c r="F149" t="n">
+        <v>35.21196050214482</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>41.65944813266191</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.587599002951852</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.37412199590739</v>
+      </c>
+      <c r="F150" t="n">
+        <v>37.51074894351068</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>50.26626502200484</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.504607642796057</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.441060630776547</v>
+      </c>
+      <c r="F151" t="n">
+        <v>39.41687370350397</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>66.4129427430198</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.350956728964897</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.558387960638926</v>
+      </c>
+      <c r="F152" t="n">
+        <v>42.19607895107126</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>82.55962046403475</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.199971978399749</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.665781738413662</v>
+      </c>
+      <c r="F153" t="n">
+        <v>44.24094204774179</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>98.7062981850497</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.051653391100613</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.764075779342636</v>
+      </c>
+      <c r="F154" t="n">
+        <v>45.77106969521412</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>114.8529759060647</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3.906000967067488</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.853983690327267</v>
+      </c>
+      <c r="F155" t="n">
+        <v>46.92876860725654</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>142.7716026062278</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3.660449159411821</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.991409213956905</v>
+      </c>
+      <c r="F156" t="n">
+        <v>48.30962291766775</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>170.6902293063908</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3.422868272482402</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.10829550618599</v>
+      </c>
+      <c r="F157" t="n">
+        <v>49.16814402828486</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>198.6088560065539</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3.19325830627923</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.206862347596608</v>
+      </c>
+      <c r="F158" t="n">
+        <v>49.67394052168504</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>226.527482706717</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2.971619260802305</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.288976860512224</v>
+      </c>
+      <c r="F159" t="n">
+        <v>49.93166769363287</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>278.3137287052485</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2.58160632253567</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.402932849133522</v>
+      </c>
+      <c r="F160" t="n">
+        <v>49.958429679403</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>330.0999747037799</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2.219018549093735</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.474110879426628</v>
+      </c>
+      <c r="F161" t="n">
+        <v>49.60633588353573</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>381.8862207023114</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.883855940476501</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.509202549015848</v>
+      </c>
+      <c r="F162" t="n">
+        <v>48.98790535692064</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>433.6724667008428</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.576118496683968</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.513704981871316</v>
+      </c>
+      <c r="F163" t="n">
+        <v>48.16598791162765</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>510.3528247356186</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.170818075589587</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2.473768906843886</v>
+      </c>
+      <c r="F164" t="n">
+        <v>46.64565219119208</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>587.0331827703943</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.8256473009538371</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.389202662083144</v>
+      </c>
+      <c r="F165" t="n">
+        <v>44.80523492154396</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>663.7135408051701</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.5406061727767182</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.270034420329485</v>
+      </c>
+      <c r="F166" t="n">
+        <v>42.64324265138597</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>740.3938988399458</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.3156946910582302</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2.124625128245727</v>
+      </c>
+      <c r="F167" t="n">
+        <v>40.13514835027565</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>836.0102829035267</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.1194782664430722</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.917159802750123</v>
+      </c>
+      <c r="F168" t="n">
+        <v>36.45109387623037</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>931.6266669671076</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.01675611680734353</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.691485203327936</v>
+      </c>
+      <c r="F169" t="n">
+        <v>32.01661086844891</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>955.5307629830028</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.005684059863947176</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.633400745200772</v>
+      </c>
+      <c r="F170" t="n">
+        <v>30.76819211098516</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>979.434858998898</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.0004553951067651519</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.574912690873139</v>
+      </c>
+      <c r="F171" t="n">
+        <v>29.45510440328091</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>981.7256682004213</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.0002611435478686314</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.569292104276514</v>
+      </c>
+      <c r="F172" t="n">
+        <v>29.32575741650716</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>984.0164774019446</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.0001205578651267511</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.563669257465051</v>
+      </c>
+      <c r="F173" t="n">
+        <v>29.19577809928246</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>986.3072866034679</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3.363805853951241e-05</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.558044258884469</v>
+      </c>
+      <c r="F174" t="n">
+        <v>29.06516167572948</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>988.2476918195783</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.994098511632555e-06</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.553278062335216</v>
+      </c>
+      <c r="F175" t="n">
+        <v>28.95402292343112</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>989.3634248188418</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.550539657169765</v>
+      </c>
+      <c r="F176" t="n">
+        <v>28.89001890986394</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>990.4791578181054</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.547809938204079</v>
+      </c>
+      <c r="F177" t="n">
+        <v>28.82622189235188</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>991.5948908173689</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.545092432035145</v>
+      </c>
+      <c r="F178" t="n">
+        <v>28.76277154518727</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>993.8263568158959</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.539693816846688</v>
+      </c>
+      <c r="F179" t="n">
+        <v>28.63690655401047</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>996.0578228144229</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.534343497905942</v>
+      </c>
+      <c r="F180" t="n">
+        <v>28.51241822621817</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>998.28928881295</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.529041145469674</v>
+      </c>
+      <c r="F181" t="n">
+        <v>28.38930042499004</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1020.60394879822</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.478522401471743</v>
+      </c>
+      <c r="F182" t="n">
+        <v>27.23080805619834</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1042.91860878349</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.432401495177042</v>
+      </c>
+      <c r="F183" t="n">
+        <v>26.20063591879184</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1065.23326876876</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.390377427840503</v>
+      </c>
+      <c r="F184" t="n">
+        <v>25.29105072347254</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1109.934359106011</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.317449450254635</v>
+      </c>
+      <c r="F185" t="n">
+        <v>23.79919556593513</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1154.635449443261</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.257566444322465</v>
+      </c>
+      <c r="F186" t="n">
+        <v>22.68457789126532</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1199.336539780512</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.208504753081407</v>
+      </c>
+      <c r="F187" t="n">
+        <v>21.86955605606778</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1244.037630117763</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.168438478455136</v>
+      </c>
+      <c r="F188" t="n">
+        <v>21.28562466440017</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1313.497386989929</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.1204571182762</v>
+      </c>
+      <c r="F189" t="n">
+        <v>20.70391108876871</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1382.957143862096</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.08570208630203</v>
+      </c>
+      <c r="F190" t="n">
+        <v>20.37407141291423</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1452.416900734262</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.0607611132368</v>
+      </c>
+      <c r="F191" t="n">
+        <v>20.19181651258813</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1521.876657606429</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.043029214033629</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20.09488329058409</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1591.336414478595</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.030471736322768</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20.04564204694942</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1673.540568874452</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.020234361943284</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20.01718476449281</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1755.74472327031</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.013396036461929</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20.00437239052743</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1837.948877666167</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.008834956260129</v>
+      </c>
+      <c r="F196" t="n">
+        <v>19.9990755369973</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1920.153032062024</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.005812560217769</v>
+      </c>
+      <c r="F197" t="n">
+        <v>19.99774064158896</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.003872635386206</v>
+      </c>
+      <c r="F198" t="n">
+        <v>19.99817462623767</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.7040605092122287</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4.990973188475365</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.0089952248353</v>
+      </c>
+      <c r="G200" t="n">
+        <v>20.61643205223884</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.408121018424457</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.981954536329653</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.017950973557585</v>
+      </c>
+      <c r="G201" t="n">
+        <v>21.21740353947919</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>5.248989300959902</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.932876461940912</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.066231717139993</v>
+      </c>
+      <c r="G202" t="n">
+        <v>24.28797587611156</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>9.089857583495347</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.884041323848334</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.113381639443674</v>
+      </c>
+      <c r="G203" t="n">
+        <v>26.97760057561999</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>12.93072586603079</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.835449122033961</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.159440024494873</v>
+      </c>
+      <c r="G204" t="n">
+        <v>29.34877767279139</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>20.02067214020377</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.746389784664664</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.241701698941221</v>
+      </c>
+      <c r="G205" t="n">
+        <v>33.03283177199027</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>27.11061841437675</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.658158235881324</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.320577096909909</v>
+      </c>
+      <c r="G206" t="n">
+        <v>36.04197093819862</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>34.20056468854973</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.570754475684123</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.396240462008395</v>
+      </c>
+      <c r="G207" t="n">
+        <v>38.52761214737951</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>41.29051096272271</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.48417850407306</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.46885137475062</v>
+      </c>
+      <c r="G208" t="n">
+        <v>40.60408094956132</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>54.59850634551076</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.323908504263896</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.597384149028239</v>
+      </c>
+      <c r="G209" t="n">
+        <v>43.66679530618101</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>67.90650172829881</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.166554983285687</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.716479913256534</v>
+      </c>
+      <c r="G210" t="n">
+        <v>45.95503115875653</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>81.21449711108686</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.012117941138433</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.82683115973265</v>
+      </c>
+      <c r="G211" t="n">
+        <v>47.69696681064725</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>94.52249249387491</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.860597377822134</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.929032955874411</v>
+      </c>
+      <c r="G212" t="n">
+        <v>49.04100249200736</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>117.5688505825856</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.605097563847151</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.088221880903537</v>
+      </c>
+      <c r="G213" t="n">
+        <v>50.69791791429962</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>140.6152086712962</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.358344327532605</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.226794936963042</v>
+      </c>
+      <c r="G214" t="n">
+        <v>51.78407559572383</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>163.6615667600069</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.120337668878497</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.346646156797184</v>
+      </c>
+      <c r="G215" t="n">
+        <v>52.48127052656233</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>186.7079248487176</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.891077587884825</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.449382039666804</v>
+      </c>
+      <c r="G216" t="n">
+        <v>52.90213202348667</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>229.2992202925666</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.490407308784474</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.598696748932874</v>
+      </c>
+      <c r="G217" t="n">
+        <v>53.1728377507107</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>271.8905157364155</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.119609782461609</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.701546430906982</v>
+      </c>
+      <c r="G218" t="n">
+        <v>53.01021051775407</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>314.4818111802645</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.77868500891623</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2.763875837782854</v>
+      </c>
+      <c r="G219" t="n">
+        <v>52.54067764489479</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>357.0731066241135</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.467632988148339</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.790672186807475</v>
+      </c>
+      <c r="G220" t="n">
+        <v>51.83447098112721</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>432.070559210105</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.9925261167017473</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.764070836658549</v>
+      </c>
+      <c r="G221" t="n">
+        <v>50.11849728173874</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>507.0680117960965</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.6100438930643046</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2.660064319008417</v>
+      </c>
+      <c r="G222" t="n">
+        <v>47.8641184795082</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>582.065464382088</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.320186317236011</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2.49480988590047</v>
+      </c>
+      <c r="G223" t="n">
+        <v>45.03852634211164</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>657.0629169680794</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1229533892168662</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2.282180927631024</v>
+      </c>
+      <c r="G224" t="n">
+        <v>41.54440093051095</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>757.6282345804367</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.003853663361529903</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.943944803996858</v>
+      </c>
+      <c r="G225" t="n">
+        <v>35.49088340633159</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>769.6751215860731</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.0007567832472101146</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.900495148117068</v>
+      </c>
+      <c r="G226" t="n">
+        <v>34.6355562019282</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>773.1976434267085</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.0003028268524379104</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.887695340181717</v>
+      </c>
+      <c r="G227" t="n">
+        <v>34.37904710012738</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>776.7201652673439</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5.320459777020324e-05</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.874855537716146</v>
+      </c>
+      <c r="G228" t="n">
+        <v>34.1196262606023</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>778.4981156847103</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4.806494061134312e-06</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.868359920399894</v>
+      </c>
+      <c r="G229" t="n">
+        <v>33.9875680148053</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>779.5204371746975</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.864622669364391</v>
+      </c>
+      <c r="G230" t="n">
+        <v>33.9113564480005</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>780.1082720314416</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.862476381301416</v>
+      </c>
+      <c r="G231" t="n">
+        <v>33.86754378796945</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>780.6961068881858</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.860334710659296</v>
+      </c>
+      <c r="G232" t="n">
+        <v>33.82381888657395</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>781.8717766016741</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.856065182479298</v>
+      </c>
+      <c r="G233" t="n">
+        <v>33.73663256847377</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>783.0474463151625</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.851814032969632</v>
+      </c>
+      <c r="G234" t="n">
+        <v>33.64979772896609</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>784.2231160286508</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.847581206423329</v>
+      </c>
+      <c r="G235" t="n">
+        <v>33.56331456944214</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>795.9798131635337</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.806237891852934</v>
+      </c>
+      <c r="G236" t="n">
+        <v>32.71789524666208</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>807.7365102984165</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.766658229169221</v>
+      </c>
+      <c r="G237" t="n">
+        <v>31.90779786627821</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>819.4932074332994</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.728789017567959</v>
+      </c>
+      <c r="G238" t="n">
+        <v>31.13302744500537</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>866.2317817063876</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.594089755285326</v>
+      </c>
+      <c r="G239" t="n">
+        <v>28.39664531394641</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>912.9703559794757</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.482243145883026</v>
+      </c>
+      <c r="G240" t="n">
+        <v>26.18885930302902</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>959.7089302525638</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.389938915830544</v>
+      </c>
+      <c r="G241" t="n">
+        <v>24.46248039931705</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1006.447504525652</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.314218290255254</v>
+      </c>
+      <c r="G242" t="n">
+        <v>23.15317218081231</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1067.372491388598</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.236073506278062</v>
+      </c>
+      <c r="G243" t="n">
+        <v>21.95399374128389</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1128.297478251543</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.176533338572229</v>
+      </c>
+      <c r="G244" t="n">
+        <v>21.18687221183398</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1189.222465114489</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.131515926610314</v>
+      </c>
+      <c r="G245" t="n">
+        <v>20.71035848982725</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1250.147451977434</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.097717600886194</v>
+      </c>
+      <c r="G246" t="n">
+        <v>20.41791354638254</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1311.07243884038</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.072470658669341</v>
+      </c>
+      <c r="G247" t="n">
+        <v>20.23937801893575</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1416.508648649915</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.042996361094964</v>
+      </c>
+      <c r="G248" t="n">
+        <v>20.07752359345021</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1501.837258895744</v>
+      </c>
+      <c r="C249" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.028099016804895</v>
+      </c>
+      <c r="G249" t="n">
+        <v>20.03032934073487</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1587.165869141573</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.018345646868113</v>
+      </c>
+      <c r="G250" t="n">
+        <v>20.01673064216677</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1672.494479387402</v>
+      </c>
+      <c r="C251" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.011976171337302</v>
+      </c>
+      <c r="G251" t="n">
+        <v>20.01043166950718</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1757.823089633232</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.007814336299505</v>
+      </c>
+      <c r="G252" t="n">
+        <v>20.0038695439935</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1843.151699879061</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.005093445657038</v>
+      </c>
+      <c r="G253" t="n">
+        <v>20.00007003322718</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1960.57737584673</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.002772943369805</v>
+      </c>
+      <c r="G254" t="n">
+        <v>19.99625446503842</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.002272111606147</v>
+      </c>
+      <c r="G255" t="n">
+        <v>19.99676977441182</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>

--- a/lab1/xlsx1.xlsx
+++ b/lab1/xlsx1.xlsx
@@ -9208,7 +9208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A2"/>
@@ -12689,6 +12689,3198 @@
         <v>19.99676977441182</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0</v>
+      </c>
+      <c r="B256" t="n">
+        <v>5</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.8934086268539385</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4.990973529516955</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.008986428409915</v>
+      </c>
+      <c r="F257" t="n">
+        <v>20.61527927900455</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1.786817253707877</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4.98195521779589</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.017925034805639</v>
+      </c>
+      <c r="F258" t="n">
+        <v>21.21403936730948</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>6.4708773240163</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4.934785215864527</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.064146625704287</v>
+      </c>
+      <c r="F259" t="n">
+        <v>24.14833589842135</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>11.15493739432472</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4.887839584214432</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.109108211136645</v>
+      </c>
+      <c r="F260" t="n">
+        <v>26.70760299792155</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>15.83899746463315</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4.841118322828315</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.152858549367046</v>
+      </c>
+      <c r="F261" t="n">
+        <v>28.95425541614319</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>24.44581435397607</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4.755854342968057</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.230224134686863</v>
+      </c>
+      <c r="F262" t="n">
+        <v>32.40907744579356</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>33.05263124331899</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4.671347903009186</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.303907868041796</v>
+      </c>
+      <c r="F263" t="n">
+        <v>35.21196050214482</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>41.65944813266191</v>
+      </c>
+      <c r="B264" t="n">
+        <v>4.587599002951852</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.37412199590739</v>
+      </c>
+      <c r="F264" t="n">
+        <v>37.51074894351068</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>50.26626502200484</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4.504607642796057</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.441060630776547</v>
+      </c>
+      <c r="F265" t="n">
+        <v>39.41687370350397</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>66.4129427430198</v>
+      </c>
+      <c r="B266" t="n">
+        <v>4.350956728964897</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.558387960638926</v>
+      </c>
+      <c r="F266" t="n">
+        <v>42.19607895107126</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>82.55962046403475</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4.199971978399749</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.665781738413662</v>
+      </c>
+      <c r="F267" t="n">
+        <v>44.24094204774179</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>98.7062981850497</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.051653391100613</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.764075779342636</v>
+      </c>
+      <c r="F268" t="n">
+        <v>45.77106969521412</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>114.8529759060647</v>
+      </c>
+      <c r="B269" t="n">
+        <v>3.906000967067488</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.853983690327267</v>
+      </c>
+      <c r="F269" t="n">
+        <v>46.92876860725654</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>142.7716026062278</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.660449159411821</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.991409213956905</v>
+      </c>
+      <c r="F270" t="n">
+        <v>48.30962291766775</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>170.6902293063908</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.422868272482402</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2.10829550618599</v>
+      </c>
+      <c r="F271" t="n">
+        <v>49.16814402828486</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>198.6088560065539</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.19325830627923</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2.206862347596608</v>
+      </c>
+      <c r="F272" t="n">
+        <v>49.67394052168504</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>226.527482706717</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2.971619260802305</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2.288976860512224</v>
+      </c>
+      <c r="F273" t="n">
+        <v>49.93166769363287</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>278.3137287052485</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2.58160632253567</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2.402932849133522</v>
+      </c>
+      <c r="F274" t="n">
+        <v>49.958429679403</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>330.0999747037799</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2.219018549093735</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2.474110879426628</v>
+      </c>
+      <c r="F275" t="n">
+        <v>49.60633588353573</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>381.8862207023114</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1.883855940476501</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.509202549015848</v>
+      </c>
+      <c r="F276" t="n">
+        <v>48.98790535692064</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>433.6724667008428</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1.576118496683968</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2.513704981871316</v>
+      </c>
+      <c r="F277" t="n">
+        <v>48.16598791162765</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>510.3528247356186</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1.170818075589587</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2.473768906843886</v>
+      </c>
+      <c r="F278" t="n">
+        <v>46.64565219119208</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>587.0331827703943</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.8256473009538371</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2.389202662083144</v>
+      </c>
+      <c r="F279" t="n">
+        <v>44.80523492154396</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>663.7135408051701</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.5406061727767182</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2.270034420329485</v>
+      </c>
+      <c r="F280" t="n">
+        <v>42.64324265138597</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>740.3938988399458</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.3156946910582302</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2.124625128245727</v>
+      </c>
+      <c r="F281" t="n">
+        <v>40.13514835027565</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>836.0102829035267</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.1194782664430722</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.917159802750123</v>
+      </c>
+      <c r="F282" t="n">
+        <v>36.45109387623037</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>931.6266669671076</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.01675611680734353</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.691485203327936</v>
+      </c>
+      <c r="F283" t="n">
+        <v>32.01661086844891</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>955.5307629830028</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.005684059863947176</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.633400745200772</v>
+      </c>
+      <c r="F284" t="n">
+        <v>30.76819211098516</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>979.434858998898</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.0004553951067651519</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.574912690873139</v>
+      </c>
+      <c r="F285" t="n">
+        <v>29.45510440328091</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>981.7256682004213</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.0002611435478686314</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.569292104276514</v>
+      </c>
+      <c r="F286" t="n">
+        <v>29.32575741650716</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>984.0164774019446</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.0001205578651267511</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.563669257465051</v>
+      </c>
+      <c r="F287" t="n">
+        <v>29.19577809928246</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>986.3072866034679</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3.363805853951241e-05</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.558044258884469</v>
+      </c>
+      <c r="F288" t="n">
+        <v>29.06516167572948</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>988.2476918195783</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1.994098511632555e-06</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.553278062335216</v>
+      </c>
+      <c r="F289" t="n">
+        <v>28.95402292343112</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>989.3634248188418</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.550539657169765</v>
+      </c>
+      <c r="F290" t="n">
+        <v>28.89001890986394</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>990.4791578181054</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.547809938204079</v>
+      </c>
+      <c r="F291" t="n">
+        <v>28.82622189235188</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>991.5948908173689</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.545092432035145</v>
+      </c>
+      <c r="F292" t="n">
+        <v>28.76277154518727</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>993.8263568158959</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1.539693816846688</v>
+      </c>
+      <c r="F293" t="n">
+        <v>28.63690655401047</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>996.0578228144229</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.534343497905942</v>
+      </c>
+      <c r="F294" t="n">
+        <v>28.51241822621817</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>998.28928881295</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1.529041145469674</v>
+      </c>
+      <c r="F295" t="n">
+        <v>28.38930042499004</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1020.60394879822</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1.478522401471743</v>
+      </c>
+      <c r="F296" t="n">
+        <v>27.23080805619834</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1042.91860878349</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.432401495177042</v>
+      </c>
+      <c r="F297" t="n">
+        <v>26.20063591879184</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1065.23326876876</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.390377427840503</v>
+      </c>
+      <c r="F298" t="n">
+        <v>25.29105072347254</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1109.934359106011</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.317449450254635</v>
+      </c>
+      <c r="F299" t="n">
+        <v>23.79919556593513</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1154.635449443261</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.257566444322465</v>
+      </c>
+      <c r="F300" t="n">
+        <v>22.68457789126532</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1199.336539780512</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1.208504753081407</v>
+      </c>
+      <c r="F301" t="n">
+        <v>21.86955605606778</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1244.037630117763</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1.168438478455136</v>
+      </c>
+      <c r="F302" t="n">
+        <v>21.28562466440017</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1313.497386989929</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1.1204571182762</v>
+      </c>
+      <c r="F303" t="n">
+        <v>20.70391108876871</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1382.957143862096</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.08570208630203</v>
+      </c>
+      <c r="F304" t="n">
+        <v>20.37407141291423</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1452.416900734262</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1.0607611132368</v>
+      </c>
+      <c r="F305" t="n">
+        <v>20.19181651258813</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1521.876657606429</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.043029214033629</v>
+      </c>
+      <c r="F306" t="n">
+        <v>20.09488329058409</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1591.336414478595</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.030471736322768</v>
+      </c>
+      <c r="F307" t="n">
+        <v>20.04564204694942</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1673.540568874452</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.020234361943284</v>
+      </c>
+      <c r="F308" t="n">
+        <v>20.01718476449281</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1755.74472327031</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.013396036461929</v>
+      </c>
+      <c r="F309" t="n">
+        <v>20.00437239052743</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1837.948877666167</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.008834956260129</v>
+      </c>
+      <c r="F310" t="n">
+        <v>19.9990755369973</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1920.153032062024</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1.005812560217769</v>
+      </c>
+      <c r="F311" t="n">
+        <v>19.99774064158896</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1.003872635386206</v>
+      </c>
+      <c r="F312" t="n">
+        <v>19.99817462623767</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>5</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+      <c r="G313" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.7040605092122287</v>
+      </c>
+      <c r="C314" t="n">
+        <v>4.990973188475365</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1.0089952248353</v>
+      </c>
+      <c r="G314" t="n">
+        <v>20.61643205223884</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1.408121018424457</v>
+      </c>
+      <c r="C315" t="n">
+        <v>4.981954536329653</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1.017950973557585</v>
+      </c>
+      <c r="G315" t="n">
+        <v>21.21740353947919</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>5.248989300959902</v>
+      </c>
+      <c r="C316" t="n">
+        <v>4.932876461940912</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1.066231717139993</v>
+      </c>
+      <c r="G316" t="n">
+        <v>24.28797587611156</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>9.089857583495347</v>
+      </c>
+      <c r="C317" t="n">
+        <v>4.884041323848334</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1.113381639443674</v>
+      </c>
+      <c r="G317" t="n">
+        <v>26.97760057561999</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>12.93072586603079</v>
+      </c>
+      <c r="C318" t="n">
+        <v>4.835449122033961</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1.159440024494873</v>
+      </c>
+      <c r="G318" t="n">
+        <v>29.34877767279139</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>20.02067214020377</v>
+      </c>
+      <c r="C319" t="n">
+        <v>4.746389784664664</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1.241701698941221</v>
+      </c>
+      <c r="G319" t="n">
+        <v>33.03283177199027</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>27.11061841437675</v>
+      </c>
+      <c r="C320" t="n">
+        <v>4.658158235881324</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.320577096909909</v>
+      </c>
+      <c r="G320" t="n">
+        <v>36.04197093819862</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>34.20056468854973</v>
+      </c>
+      <c r="C321" t="n">
+        <v>4.570754475684123</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1.396240462008395</v>
+      </c>
+      <c r="G321" t="n">
+        <v>38.52761214737951</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>41.29051096272271</v>
+      </c>
+      <c r="C322" t="n">
+        <v>4.48417850407306</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1.46885137475062</v>
+      </c>
+      <c r="G322" t="n">
+        <v>40.60408094956132</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>54.59850634551076</v>
+      </c>
+      <c r="C323" t="n">
+        <v>4.323908504263896</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1.597384149028239</v>
+      </c>
+      <c r="G323" t="n">
+        <v>43.66679530618101</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>67.90650172829881</v>
+      </c>
+      <c r="C324" t="n">
+        <v>4.166554983285687</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1.716479913256534</v>
+      </c>
+      <c r="G324" t="n">
+        <v>45.95503115875653</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>81.21449711108686</v>
+      </c>
+      <c r="C325" t="n">
+        <v>4.012117941138433</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1.82683115973265</v>
+      </c>
+      <c r="G325" t="n">
+        <v>47.69696681064725</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>94.52249249387491</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3.860597377822134</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1.929032955874411</v>
+      </c>
+      <c r="G326" t="n">
+        <v>49.04100249200736</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>117.5688505825856</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.605097563847151</v>
+      </c>
+      <c r="E327" t="n">
+        <v>2.088221880903537</v>
+      </c>
+      <c r="G327" t="n">
+        <v>50.69791791429962</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>140.6152086712962</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.358344327532605</v>
+      </c>
+      <c r="E328" t="n">
+        <v>2.226794936963042</v>
+      </c>
+      <c r="G328" t="n">
+        <v>51.78407559572383</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>163.6615667600069</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3.120337668878497</v>
+      </c>
+      <c r="E329" t="n">
+        <v>2.346646156797184</v>
+      </c>
+      <c r="G329" t="n">
+        <v>52.48127052656233</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>186.7079248487176</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2.891077587884825</v>
+      </c>
+      <c r="E330" t="n">
+        <v>2.449382039666804</v>
+      </c>
+      <c r="G330" t="n">
+        <v>52.90213202348667</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>229.2992202925666</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2.490407308784474</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2.598696748932874</v>
+      </c>
+      <c r="G331" t="n">
+        <v>53.1728377507107</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>271.8905157364155</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2.119609782461609</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2.701546430906982</v>
+      </c>
+      <c r="G332" t="n">
+        <v>53.01021051775407</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>314.4818111802645</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1.77868500891623</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2.763875837782854</v>
+      </c>
+      <c r="G333" t="n">
+        <v>52.54067764489479</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>357.0731066241135</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1.467632988148339</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2.790672186807475</v>
+      </c>
+      <c r="G334" t="n">
+        <v>51.83447098112721</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>432.070559210105</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.9925261167017473</v>
+      </c>
+      <c r="E335" t="n">
+        <v>2.764070836658549</v>
+      </c>
+      <c r="G335" t="n">
+        <v>50.11849728173874</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>507.0680117960965</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.6100438930643046</v>
+      </c>
+      <c r="E336" t="n">
+        <v>2.660064319008417</v>
+      </c>
+      <c r="G336" t="n">
+        <v>47.8641184795082</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>582.065464382088</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.320186317236011</v>
+      </c>
+      <c r="E337" t="n">
+        <v>2.49480988590047</v>
+      </c>
+      <c r="G337" t="n">
+        <v>45.03852634211164</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>657.0629169680794</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1229533892168662</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2.282180927631024</v>
+      </c>
+      <c r="G338" t="n">
+        <v>41.54440093051095</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>757.6282345804367</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.003853663361529903</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1.943944803996858</v>
+      </c>
+      <c r="G339" t="n">
+        <v>35.49088340633159</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>769.6751215860731</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.0007567832472101146</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1.900495148117068</v>
+      </c>
+      <c r="G340" t="n">
+        <v>34.6355562019282</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>773.1976434267085</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.0003028268524379104</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1.887695340181717</v>
+      </c>
+      <c r="G341" t="n">
+        <v>34.37904710012738</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>776.7201652673439</v>
+      </c>
+      <c r="C342" t="n">
+        <v>5.320459777020324e-05</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1.874855537716146</v>
+      </c>
+      <c r="G342" t="n">
+        <v>34.1196262606023</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>778.4981156847103</v>
+      </c>
+      <c r="C343" t="n">
+        <v>4.806494061134312e-06</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1.868359920399894</v>
+      </c>
+      <c r="G343" t="n">
+        <v>33.9875680148053</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>779.5204371746975</v>
+      </c>
+      <c r="C344" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1.864622669364391</v>
+      </c>
+      <c r="G344" t="n">
+        <v>33.9113564480005</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>780.1082720314416</v>
+      </c>
+      <c r="C345" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1.862476381301416</v>
+      </c>
+      <c r="G345" t="n">
+        <v>33.86754378796945</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>780.6961068881858</v>
+      </c>
+      <c r="C346" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1.860334710659296</v>
+      </c>
+      <c r="G346" t="n">
+        <v>33.82381888657395</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>781.8717766016741</v>
+      </c>
+      <c r="C347" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1.856065182479298</v>
+      </c>
+      <c r="G347" t="n">
+        <v>33.73663256847377</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>783.0474463151625</v>
+      </c>
+      <c r="C348" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1.851814032969632</v>
+      </c>
+      <c r="G348" t="n">
+        <v>33.64979772896609</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>784.2231160286508</v>
+      </c>
+      <c r="C349" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1.847581206423329</v>
+      </c>
+      <c r="G349" t="n">
+        <v>33.56331456944214</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>795.9798131635337</v>
+      </c>
+      <c r="C350" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1.806237891852934</v>
+      </c>
+      <c r="G350" t="n">
+        <v>32.71789524666208</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>807.7365102984165</v>
+      </c>
+      <c r="C351" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1.766658229169221</v>
+      </c>
+      <c r="G351" t="n">
+        <v>31.90779786627821</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>819.4932074332994</v>
+      </c>
+      <c r="C352" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1.728789017567959</v>
+      </c>
+      <c r="G352" t="n">
+        <v>31.13302744500537</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>866.2317817063876</v>
+      </c>
+      <c r="C353" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.594089755285326</v>
+      </c>
+      <c r="G353" t="n">
+        <v>28.39664531394641</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>912.9703559794757</v>
+      </c>
+      <c r="C354" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1.482243145883026</v>
+      </c>
+      <c r="G354" t="n">
+        <v>26.18885930302902</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>959.7089302525638</v>
+      </c>
+      <c r="C355" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1.389938915830544</v>
+      </c>
+      <c r="G355" t="n">
+        <v>24.46248039931705</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1006.447504525652</v>
+      </c>
+      <c r="C356" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1.314218290255254</v>
+      </c>
+      <c r="G356" t="n">
+        <v>23.15317218081231</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1067.372491388598</v>
+      </c>
+      <c r="C357" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1.236073506278062</v>
+      </c>
+      <c r="G357" t="n">
+        <v>21.95399374128389</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1128.297478251543</v>
+      </c>
+      <c r="C358" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1.176533338572229</v>
+      </c>
+      <c r="G358" t="n">
+        <v>21.18687221183398</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1189.222465114489</v>
+      </c>
+      <c r="C359" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1.131515926610314</v>
+      </c>
+      <c r="G359" t="n">
+        <v>20.71035848982725</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1250.147451977434</v>
+      </c>
+      <c r="C360" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1.097717600886194</v>
+      </c>
+      <c r="G360" t="n">
+        <v>20.41791354638254</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1311.07243884038</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1.072470658669341</v>
+      </c>
+      <c r="G361" t="n">
+        <v>20.23937801893575</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1416.508648649915</v>
+      </c>
+      <c r="C362" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1.042996361094964</v>
+      </c>
+      <c r="G362" t="n">
+        <v>20.07752359345021</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1501.837258895744</v>
+      </c>
+      <c r="C363" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1.028099016804895</v>
+      </c>
+      <c r="G363" t="n">
+        <v>20.03032934073487</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>1587.165869141573</v>
+      </c>
+      <c r="C364" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1.018345646868113</v>
+      </c>
+      <c r="G364" t="n">
+        <v>20.01673064216677</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1672.494479387402</v>
+      </c>
+      <c r="C365" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E365" t="n">
+        <v>1.011976171337302</v>
+      </c>
+      <c r="G365" t="n">
+        <v>20.01043166950718</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>1757.823089633232</v>
+      </c>
+      <c r="C366" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1.007814336299505</v>
+      </c>
+      <c r="G366" t="n">
+        <v>20.0038695439935</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>1843.151699879061</v>
+      </c>
+      <c r="C367" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1.005093445657038</v>
+      </c>
+      <c r="G367" t="n">
+        <v>20.00007003322718</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>1960.57737584673</v>
+      </c>
+      <c r="C368" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1.002772943369805</v>
+      </c>
+      <c r="G368" t="n">
+        <v>19.99625446503842</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C369" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1.002272111606147</v>
+      </c>
+      <c r="G369" t="n">
+        <v>19.99676977441182</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0</v>
+      </c>
+      <c r="B370" t="n">
+        <v>5</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
+      <c r="F370" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.8934086268539385</v>
+      </c>
+      <c r="B371" t="n">
+        <v>4.990973529516955</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1.008986428409915</v>
+      </c>
+      <c r="F371" t="n">
+        <v>20.61527927900455</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>1.786817253707877</v>
+      </c>
+      <c r="B372" t="n">
+        <v>4.98195521779589</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1.017925034805639</v>
+      </c>
+      <c r="F372" t="n">
+        <v>21.21403936730948</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>6.4708773240163</v>
+      </c>
+      <c r="B373" t="n">
+        <v>4.934785215864527</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1.064146625704287</v>
+      </c>
+      <c r="F373" t="n">
+        <v>24.14833589842135</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>11.15493739432472</v>
+      </c>
+      <c r="B374" t="n">
+        <v>4.887839584214432</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1.109108211136645</v>
+      </c>
+      <c r="F374" t="n">
+        <v>26.70760299792155</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>15.83899746463315</v>
+      </c>
+      <c r="B375" t="n">
+        <v>4.841118322828315</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1.152858549367046</v>
+      </c>
+      <c r="F375" t="n">
+        <v>28.95425541614319</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>24.44581435397607</v>
+      </c>
+      <c r="B376" t="n">
+        <v>4.755854342968057</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1.230224134686863</v>
+      </c>
+      <c r="F376" t="n">
+        <v>32.40907744579356</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>33.05263124331899</v>
+      </c>
+      <c r="B377" t="n">
+        <v>4.671347903009186</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1.303907868041796</v>
+      </c>
+      <c r="F377" t="n">
+        <v>35.21196050214482</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>41.65944813266191</v>
+      </c>
+      <c r="B378" t="n">
+        <v>4.587599002951852</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1.37412199590739</v>
+      </c>
+      <c r="F378" t="n">
+        <v>37.51074894351068</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>50.26626502200484</v>
+      </c>
+      <c r="B379" t="n">
+        <v>4.504607642796057</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1.441060630776547</v>
+      </c>
+      <c r="F379" t="n">
+        <v>39.41687370350397</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>66.4129427430198</v>
+      </c>
+      <c r="B380" t="n">
+        <v>4.350956728964897</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1.558387960638926</v>
+      </c>
+      <c r="F380" t="n">
+        <v>42.19607895107126</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>82.55962046403475</v>
+      </c>
+      <c r="B381" t="n">
+        <v>4.199971978399749</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1.665781738413662</v>
+      </c>
+      <c r="F381" t="n">
+        <v>44.24094204774179</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>98.7062981850497</v>
+      </c>
+      <c r="B382" t="n">
+        <v>4.051653391100613</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1.764075779342636</v>
+      </c>
+      <c r="F382" t="n">
+        <v>45.77106969521412</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>114.8529759060647</v>
+      </c>
+      <c r="B383" t="n">
+        <v>3.906000967067488</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1.853983690327267</v>
+      </c>
+      <c r="F383" t="n">
+        <v>46.92876860725654</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>142.7716026062278</v>
+      </c>
+      <c r="B384" t="n">
+        <v>3.660449159411821</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1.991409213956905</v>
+      </c>
+      <c r="F384" t="n">
+        <v>48.30962291766775</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>170.6902293063908</v>
+      </c>
+      <c r="B385" t="n">
+        <v>3.422868272482402</v>
+      </c>
+      <c r="D385" t="n">
+        <v>2.10829550618599</v>
+      </c>
+      <c r="F385" t="n">
+        <v>49.16814402828486</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>198.6088560065539</v>
+      </c>
+      <c r="B386" t="n">
+        <v>3.19325830627923</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2.206862347596608</v>
+      </c>
+      <c r="F386" t="n">
+        <v>49.67394052168504</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>226.527482706717</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2.971619260802305</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2.288976860512224</v>
+      </c>
+      <c r="F387" t="n">
+        <v>49.93166769363287</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>278.3137287052485</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2.58160632253567</v>
+      </c>
+      <c r="D388" t="n">
+        <v>2.402932849133522</v>
+      </c>
+      <c r="F388" t="n">
+        <v>49.958429679403</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>330.0999747037799</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2.219018549093735</v>
+      </c>
+      <c r="D389" t="n">
+        <v>2.474110879426628</v>
+      </c>
+      <c r="F389" t="n">
+        <v>49.60633588353573</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>381.8862207023114</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1.883855940476501</v>
+      </c>
+      <c r="D390" t="n">
+        <v>2.509202549015848</v>
+      </c>
+      <c r="F390" t="n">
+        <v>48.98790535692064</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>433.6724667008428</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1.576118496683968</v>
+      </c>
+      <c r="D391" t="n">
+        <v>2.513704981871316</v>
+      </c>
+      <c r="F391" t="n">
+        <v>48.16598791162765</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>510.3528247356186</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1.170818075589587</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2.473768906843886</v>
+      </c>
+      <c r="F392" t="n">
+        <v>46.64565219119208</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>587.0331827703943</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.8256473009538371</v>
+      </c>
+      <c r="D393" t="n">
+        <v>2.389202662083144</v>
+      </c>
+      <c r="F393" t="n">
+        <v>44.80523492154396</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>663.7135408051701</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.5406061727767182</v>
+      </c>
+      <c r="D394" t="n">
+        <v>2.270034420329485</v>
+      </c>
+      <c r="F394" t="n">
+        <v>42.64324265138597</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>740.3938988399458</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.3156946910582302</v>
+      </c>
+      <c r="D395" t="n">
+        <v>2.124625128245727</v>
+      </c>
+      <c r="F395" t="n">
+        <v>40.13514835027565</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>836.0102829035267</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.1194782664430722</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1.917159802750123</v>
+      </c>
+      <c r="F396" t="n">
+        <v>36.45109387623037</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>931.6266669671076</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.01675611680734353</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1.691485203327936</v>
+      </c>
+      <c r="F397" t="n">
+        <v>32.01661086844891</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>955.5307629830028</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.005684059863947176</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1.633400745200772</v>
+      </c>
+      <c r="F398" t="n">
+        <v>30.76819211098516</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>979.434858998898</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.0004553951067651519</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1.574912690873139</v>
+      </c>
+      <c r="F399" t="n">
+        <v>29.45510440328091</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>981.7256682004213</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.0002611435478686314</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1.569292104276514</v>
+      </c>
+      <c r="F400" t="n">
+        <v>29.32575741650716</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>984.0164774019446</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.0001205578651267511</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1.563669257465051</v>
+      </c>
+      <c r="F401" t="n">
+        <v>29.19577809928246</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>986.3072866034679</v>
+      </c>
+      <c r="B402" t="n">
+        <v>3.363805853951241e-05</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1.558044258884469</v>
+      </c>
+      <c r="F402" t="n">
+        <v>29.06516167572948</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>988.2476918195783</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1.994098511632555e-06</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1.553278062335216</v>
+      </c>
+      <c r="F403" t="n">
+        <v>28.95402292343112</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>989.3634248188418</v>
+      </c>
+      <c r="B404" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1.550539657169765</v>
+      </c>
+      <c r="F404" t="n">
+        <v>28.89001890986394</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>990.4791578181054</v>
+      </c>
+      <c r="B405" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1.547809938204079</v>
+      </c>
+      <c r="F405" t="n">
+        <v>28.82622189235188</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>991.5948908173689</v>
+      </c>
+      <c r="B406" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1.545092432035145</v>
+      </c>
+      <c r="F406" t="n">
+        <v>28.76277154518727</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>993.8263568158959</v>
+      </c>
+      <c r="B407" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1.539693816846688</v>
+      </c>
+      <c r="F407" t="n">
+        <v>28.63690655401047</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>996.0578228144229</v>
+      </c>
+      <c r="B408" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1.534343497905942</v>
+      </c>
+      <c r="F408" t="n">
+        <v>28.51241822621817</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>998.28928881295</v>
+      </c>
+      <c r="B409" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D409" t="n">
+        <v>1.529041145469674</v>
+      </c>
+      <c r="F409" t="n">
+        <v>28.38930042499004</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>1020.60394879822</v>
+      </c>
+      <c r="B410" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D410" t="n">
+        <v>1.478522401471743</v>
+      </c>
+      <c r="F410" t="n">
+        <v>27.23080805619834</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>1042.91860878349</v>
+      </c>
+      <c r="B411" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D411" t="n">
+        <v>1.432401495177042</v>
+      </c>
+      <c r="F411" t="n">
+        <v>26.20063591879184</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>1065.23326876876</v>
+      </c>
+      <c r="B412" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D412" t="n">
+        <v>1.390377427840503</v>
+      </c>
+      <c r="F412" t="n">
+        <v>25.29105072347254</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>1109.934359106011</v>
+      </c>
+      <c r="B413" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1.317449450254635</v>
+      </c>
+      <c r="F413" t="n">
+        <v>23.79919556593513</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>1154.635449443261</v>
+      </c>
+      <c r="B414" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1.257566444322465</v>
+      </c>
+      <c r="F414" t="n">
+        <v>22.68457789126532</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>1199.336539780512</v>
+      </c>
+      <c r="B415" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D415" t="n">
+        <v>1.208504753081407</v>
+      </c>
+      <c r="F415" t="n">
+        <v>21.86955605606778</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>1244.037630117763</v>
+      </c>
+      <c r="B416" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1.168438478455136</v>
+      </c>
+      <c r="F416" t="n">
+        <v>21.28562466440017</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>1313.497386989929</v>
+      </c>
+      <c r="B417" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D417" t="n">
+        <v>1.1204571182762</v>
+      </c>
+      <c r="F417" t="n">
+        <v>20.70391108876871</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>1382.957143862096</v>
+      </c>
+      <c r="B418" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1.08570208630203</v>
+      </c>
+      <c r="F418" t="n">
+        <v>20.37407141291423</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1452.416900734262</v>
+      </c>
+      <c r="B419" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D419" t="n">
+        <v>1.0607611132368</v>
+      </c>
+      <c r="F419" t="n">
+        <v>20.19181651258813</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>1521.876657606429</v>
+      </c>
+      <c r="B420" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1.043029214033629</v>
+      </c>
+      <c r="F420" t="n">
+        <v>20.09488329058409</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1591.336414478595</v>
+      </c>
+      <c r="B421" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D421" t="n">
+        <v>1.030471736322768</v>
+      </c>
+      <c r="F421" t="n">
+        <v>20.04564204694942</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1673.540568874452</v>
+      </c>
+      <c r="B422" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D422" t="n">
+        <v>1.020234361943284</v>
+      </c>
+      <c r="F422" t="n">
+        <v>20.01718476449281</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1755.74472327031</v>
+      </c>
+      <c r="B423" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D423" t="n">
+        <v>1.013396036461929</v>
+      </c>
+      <c r="F423" t="n">
+        <v>20.00437239052743</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>1837.948877666167</v>
+      </c>
+      <c r="B424" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D424" t="n">
+        <v>1.008834956260129</v>
+      </c>
+      <c r="F424" t="n">
+        <v>19.9990755369973</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1920.153032062024</v>
+      </c>
+      <c r="B425" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D425" t="n">
+        <v>1.005812560217769</v>
+      </c>
+      <c r="F425" t="n">
+        <v>19.99774064158896</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B426" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D426" t="n">
+        <v>1.003872635386206</v>
+      </c>
+      <c r="F426" t="n">
+        <v>19.99817462623767</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0</v>
+      </c>
+      <c r="C427" t="n">
+        <v>5</v>
+      </c>
+      <c r="E427" t="n">
+        <v>1</v>
+      </c>
+      <c r="G427" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.7040605092122287</v>
+      </c>
+      <c r="C428" t="n">
+        <v>4.990973188475365</v>
+      </c>
+      <c r="E428" t="n">
+        <v>1.0089952248353</v>
+      </c>
+      <c r="G428" t="n">
+        <v>20.61643205223884</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1.408121018424457</v>
+      </c>
+      <c r="C429" t="n">
+        <v>4.981954536329653</v>
+      </c>
+      <c r="E429" t="n">
+        <v>1.017950973557585</v>
+      </c>
+      <c r="G429" t="n">
+        <v>21.21740353947919</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>5.248989300959902</v>
+      </c>
+      <c r="C430" t="n">
+        <v>4.932876461940912</v>
+      </c>
+      <c r="E430" t="n">
+        <v>1.066231717139993</v>
+      </c>
+      <c r="G430" t="n">
+        <v>24.28797587611156</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>9.089857583495347</v>
+      </c>
+      <c r="C431" t="n">
+        <v>4.884041323848334</v>
+      </c>
+      <c r="E431" t="n">
+        <v>1.113381639443674</v>
+      </c>
+      <c r="G431" t="n">
+        <v>26.97760057561999</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>12.93072586603079</v>
+      </c>
+      <c r="C432" t="n">
+        <v>4.835449122033961</v>
+      </c>
+      <c r="E432" t="n">
+        <v>1.159440024494873</v>
+      </c>
+      <c r="G432" t="n">
+        <v>29.34877767279139</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>20.02067214020377</v>
+      </c>
+      <c r="C433" t="n">
+        <v>4.746389784664664</v>
+      </c>
+      <c r="E433" t="n">
+        <v>1.241701698941221</v>
+      </c>
+      <c r="G433" t="n">
+        <v>33.03283177199027</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>27.11061841437675</v>
+      </c>
+      <c r="C434" t="n">
+        <v>4.658158235881324</v>
+      </c>
+      <c r="E434" t="n">
+        <v>1.320577096909909</v>
+      </c>
+      <c r="G434" t="n">
+        <v>36.04197093819862</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>34.20056468854973</v>
+      </c>
+      <c r="C435" t="n">
+        <v>4.570754475684123</v>
+      </c>
+      <c r="E435" t="n">
+        <v>1.396240462008395</v>
+      </c>
+      <c r="G435" t="n">
+        <v>38.52761214737951</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>41.29051096272271</v>
+      </c>
+      <c r="C436" t="n">
+        <v>4.48417850407306</v>
+      </c>
+      <c r="E436" t="n">
+        <v>1.46885137475062</v>
+      </c>
+      <c r="G436" t="n">
+        <v>40.60408094956132</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>54.59850634551076</v>
+      </c>
+      <c r="C437" t="n">
+        <v>4.323908504263896</v>
+      </c>
+      <c r="E437" t="n">
+        <v>1.597384149028239</v>
+      </c>
+      <c r="G437" t="n">
+        <v>43.66679530618101</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>67.90650172829881</v>
+      </c>
+      <c r="C438" t="n">
+        <v>4.166554983285687</v>
+      </c>
+      <c r="E438" t="n">
+        <v>1.716479913256534</v>
+      </c>
+      <c r="G438" t="n">
+        <v>45.95503115875653</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>81.21449711108686</v>
+      </c>
+      <c r="C439" t="n">
+        <v>4.012117941138433</v>
+      </c>
+      <c r="E439" t="n">
+        <v>1.82683115973265</v>
+      </c>
+      <c r="G439" t="n">
+        <v>47.69696681064725</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>94.52249249387491</v>
+      </c>
+      <c r="C440" t="n">
+        <v>3.860597377822134</v>
+      </c>
+      <c r="E440" t="n">
+        <v>1.929032955874411</v>
+      </c>
+      <c r="G440" t="n">
+        <v>49.04100249200736</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>117.5688505825856</v>
+      </c>
+      <c r="C441" t="n">
+        <v>3.605097563847151</v>
+      </c>
+      <c r="E441" t="n">
+        <v>2.088221880903537</v>
+      </c>
+      <c r="G441" t="n">
+        <v>50.69791791429962</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>140.6152086712962</v>
+      </c>
+      <c r="C442" t="n">
+        <v>3.358344327532605</v>
+      </c>
+      <c r="E442" t="n">
+        <v>2.226794936963042</v>
+      </c>
+      <c r="G442" t="n">
+        <v>51.78407559572383</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>163.6615667600069</v>
+      </c>
+      <c r="C443" t="n">
+        <v>3.120337668878497</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2.346646156797184</v>
+      </c>
+      <c r="G443" t="n">
+        <v>52.48127052656233</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>186.7079248487176</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2.891077587884825</v>
+      </c>
+      <c r="E444" t="n">
+        <v>2.449382039666804</v>
+      </c>
+      <c r="G444" t="n">
+        <v>52.90213202348667</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>229.2992202925666</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2.490407308784474</v>
+      </c>
+      <c r="E445" t="n">
+        <v>2.598696748932874</v>
+      </c>
+      <c r="G445" t="n">
+        <v>53.1728377507107</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>271.8905157364155</v>
+      </c>
+      <c r="C446" t="n">
+        <v>2.119609782461609</v>
+      </c>
+      <c r="E446" t="n">
+        <v>2.701546430906982</v>
+      </c>
+      <c r="G446" t="n">
+        <v>53.01021051775407</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>314.4818111802645</v>
+      </c>
+      <c r="C447" t="n">
+        <v>1.77868500891623</v>
+      </c>
+      <c r="E447" t="n">
+        <v>2.763875837782854</v>
+      </c>
+      <c r="G447" t="n">
+        <v>52.54067764489479</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>357.0731066241135</v>
+      </c>
+      <c r="C448" t="n">
+        <v>1.467632988148339</v>
+      </c>
+      <c r="E448" t="n">
+        <v>2.790672186807475</v>
+      </c>
+      <c r="G448" t="n">
+        <v>51.83447098112721</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>432.070559210105</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.9925261167017473</v>
+      </c>
+      <c r="E449" t="n">
+        <v>2.764070836658549</v>
+      </c>
+      <c r="G449" t="n">
+        <v>50.11849728173874</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>507.0680117960965</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.6100438930643046</v>
+      </c>
+      <c r="E450" t="n">
+        <v>2.660064319008417</v>
+      </c>
+      <c r="G450" t="n">
+        <v>47.8641184795082</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>582.065464382088</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.320186317236011</v>
+      </c>
+      <c r="E451" t="n">
+        <v>2.49480988590047</v>
+      </c>
+      <c r="G451" t="n">
+        <v>45.03852634211164</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>657.0629169680794</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.1229533892168662</v>
+      </c>
+      <c r="E452" t="n">
+        <v>2.282180927631024</v>
+      </c>
+      <c r="G452" t="n">
+        <v>41.54440093051095</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>757.6282345804367</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.003853663361529903</v>
+      </c>
+      <c r="E453" t="n">
+        <v>1.943944803996858</v>
+      </c>
+      <c r="G453" t="n">
+        <v>35.49088340633159</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>769.6751215860731</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.0007567832472101146</v>
+      </c>
+      <c r="E454" t="n">
+        <v>1.900495148117068</v>
+      </c>
+      <c r="G454" t="n">
+        <v>34.6355562019282</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>773.1976434267085</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.0003028268524379104</v>
+      </c>
+      <c r="E455" t="n">
+        <v>1.887695340181717</v>
+      </c>
+      <c r="G455" t="n">
+        <v>34.37904710012738</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>776.7201652673439</v>
+      </c>
+      <c r="C456" t="n">
+        <v>5.320459777020324e-05</v>
+      </c>
+      <c r="E456" t="n">
+        <v>1.874855537716146</v>
+      </c>
+      <c r="G456" t="n">
+        <v>34.1196262606023</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>778.4981156847103</v>
+      </c>
+      <c r="C457" t="n">
+        <v>4.806494061134312e-06</v>
+      </c>
+      <c r="E457" t="n">
+        <v>1.868359920399894</v>
+      </c>
+      <c r="G457" t="n">
+        <v>33.9875680148053</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>779.5204371746975</v>
+      </c>
+      <c r="C458" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E458" t="n">
+        <v>1.864622669364391</v>
+      </c>
+      <c r="G458" t="n">
+        <v>33.9113564480005</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>780.1082720314416</v>
+      </c>
+      <c r="C459" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E459" t="n">
+        <v>1.862476381301416</v>
+      </c>
+      <c r="G459" t="n">
+        <v>33.86754378796945</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>780.6961068881858</v>
+      </c>
+      <c r="C460" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E460" t="n">
+        <v>1.860334710659296</v>
+      </c>
+      <c r="G460" t="n">
+        <v>33.82381888657395</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>781.8717766016741</v>
+      </c>
+      <c r="C461" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E461" t="n">
+        <v>1.856065182479298</v>
+      </c>
+      <c r="G461" t="n">
+        <v>33.73663256847377</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>783.0474463151625</v>
+      </c>
+      <c r="C462" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E462" t="n">
+        <v>1.851814032969632</v>
+      </c>
+      <c r="G462" t="n">
+        <v>33.64979772896609</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>784.2231160286508</v>
+      </c>
+      <c r="C463" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E463" t="n">
+        <v>1.847581206423329</v>
+      </c>
+      <c r="G463" t="n">
+        <v>33.56331456944214</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>795.9798131635337</v>
+      </c>
+      <c r="C464" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E464" t="n">
+        <v>1.806237891852934</v>
+      </c>
+      <c r="G464" t="n">
+        <v>32.71789524666208</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>807.7365102984165</v>
+      </c>
+      <c r="C465" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E465" t="n">
+        <v>1.766658229169221</v>
+      </c>
+      <c r="G465" t="n">
+        <v>31.90779786627821</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>819.4932074332994</v>
+      </c>
+      <c r="C466" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E466" t="n">
+        <v>1.728789017567959</v>
+      </c>
+      <c r="G466" t="n">
+        <v>31.13302744500537</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>866.2317817063876</v>
+      </c>
+      <c r="C467" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E467" t="n">
+        <v>1.594089755285326</v>
+      </c>
+      <c r="G467" t="n">
+        <v>28.39664531394641</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>912.9703559794757</v>
+      </c>
+      <c r="C468" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1.482243145883026</v>
+      </c>
+      <c r="G468" t="n">
+        <v>26.18885930302902</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>959.7089302525638</v>
+      </c>
+      <c r="C469" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E469" t="n">
+        <v>1.389938915830544</v>
+      </c>
+      <c r="G469" t="n">
+        <v>24.46248039931705</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>1006.447504525652</v>
+      </c>
+      <c r="C470" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E470" t="n">
+        <v>1.314218290255254</v>
+      </c>
+      <c r="G470" t="n">
+        <v>23.15317218081231</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>1067.372491388598</v>
+      </c>
+      <c r="C471" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E471" t="n">
+        <v>1.236073506278062</v>
+      </c>
+      <c r="G471" t="n">
+        <v>21.95399374128389</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>1128.297478251543</v>
+      </c>
+      <c r="C472" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E472" t="n">
+        <v>1.176533338572229</v>
+      </c>
+      <c r="G472" t="n">
+        <v>21.18687221183398</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>1189.222465114489</v>
+      </c>
+      <c r="C473" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E473" t="n">
+        <v>1.131515926610314</v>
+      </c>
+      <c r="G473" t="n">
+        <v>20.71035848982725</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>1250.147451977434</v>
+      </c>
+      <c r="C474" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E474" t="n">
+        <v>1.097717600886194</v>
+      </c>
+      <c r="G474" t="n">
+        <v>20.41791354638254</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>1311.07243884038</v>
+      </c>
+      <c r="C475" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E475" t="n">
+        <v>1.072470658669341</v>
+      </c>
+      <c r="G475" t="n">
+        <v>20.23937801893575</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>1416.508648649915</v>
+      </c>
+      <c r="C476" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E476" t="n">
+        <v>1.042996361094964</v>
+      </c>
+      <c r="G476" t="n">
+        <v>20.07752359345021</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>1501.837258895744</v>
+      </c>
+      <c r="C477" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E477" t="n">
+        <v>1.028099016804895</v>
+      </c>
+      <c r="G477" t="n">
+        <v>20.03032934073487</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>1587.165869141573</v>
+      </c>
+      <c r="C478" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E478" t="n">
+        <v>1.018345646868113</v>
+      </c>
+      <c r="G478" t="n">
+        <v>20.01673064216677</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>1672.494479387402</v>
+      </c>
+      <c r="C479" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E479" t="n">
+        <v>1.011976171337302</v>
+      </c>
+      <c r="G479" t="n">
+        <v>20.01043166950718</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>1757.823089633232</v>
+      </c>
+      <c r="C480" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E480" t="n">
+        <v>1.007814336299505</v>
+      </c>
+      <c r="G480" t="n">
+        <v>20.0038695439935</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>1843.151699879061</v>
+      </c>
+      <c r="C481" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1.005093445657038</v>
+      </c>
+      <c r="G481" t="n">
+        <v>20.00007003322718</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>1960.57737584673</v>
+      </c>
+      <c r="C482" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E482" t="n">
+        <v>1.002772943369805</v>
+      </c>
+      <c r="G482" t="n">
+        <v>19.99625446503842</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C483" t="n">
+        <v>-1.624875561589971e-06</v>
+      </c>
+      <c r="E483" t="n">
+        <v>1.002272111606147</v>
+      </c>
+      <c r="G483" t="n">
+        <v>19.99676977441182</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>

--- a/lab1/xlsx1.xlsx
+++ b/lab1/xlsx1.xlsx
@@ -1596,25 +1596,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="n">
-        <v>-87</v>
+        <v>-67</v>
       </c>
       <c r="D3" s="23" t="n">
-        <v>-29.3349609375</v>
+        <v>-28.556640625</v>
       </c>
       <c r="E3" s="23" t="n">
-        <v>42.746337890625</v>
+        <v>19.49755859375</v>
       </c>
       <c r="F3" s="24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="25" t="n">
-        <v>-2.968393804442563e-06</v>
+        <v>-3.838816025744913e-06</v>
       </c>
       <c r="H3" s="23" t="n">
-        <v>1.690700964274397e-16</v>
+        <v>2.875730382812088e-16</v>
       </c>
       <c r="I3" s="26" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="26" t="inlineStr">
         <is>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="K3" s="27" t="n">
-        <v>1.07715740488942e-11</v>
+        <v>-6.25191886838768e-07</v>
       </c>
       <c r="L3" s="23" t="n">
-        <v>-7.157165832962401e-18</v>
+        <v>6.601376951428897e-19</v>
       </c>
       <c r="M3" s="26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N3" s="24" t="inlineStr">
         <is>
@@ -1642,43 +1642,43 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>63</v>
+        <v>-84</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>62</v>
+        <v>-26.3349609375</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>64</v>
+        <v>45.746337890625</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>62.74817737586172</v>
+        <v>-2.4619867776325e-06</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>-0.9211483054951717</v>
+        <v>1.140704341725357e-16</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="J4" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K4" s="21" t="n">
-        <v>62.74818069496589</v>
+        <v>7.781478960835014e-11</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-7.157165714783092e-18</v>
       </c>
       <c r="M4" s="17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -1688,43 +1688,43 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>47</v>
+        <v>-20</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>58.390625</v>
+        <v>-8.609375</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>72.62890625</v>
+        <v>5.62890625</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>20</v>
       </c>
       <c r="G5" s="13" t="n">
-        <v>62.74818581233061</v>
+        <v>-2.391297336690755e-06</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>-0.921148305494944</v>
+        <v>1.072089147213005e-16</v>
       </c>
       <c r="I5" s="17" t="n">
         <v>60</v>
       </c>
       <c r="J5" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K5" s="21" t="n">
-        <v>62.74818118091078</v>
+        <v>4.912366350782826e-12</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>-0.9211483054953336</v>
+        <v>-7.157165834747625e-18</v>
       </c>
       <c r="M5" s="17" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -1734,43 +1734,43 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>54.556640625</v>
+        <v>-4.390625</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>75.9140625</v>
+        <v>1.9375</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G6" s="13" t="n">
-        <v>62.74818255354904</v>
+        <v>4.178359813206092e-06</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>-0.9211483054952851</v>
+        <v>3.420166111570298e-16</v>
       </c>
       <c r="I6" s="17" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J6" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K6" s="21" t="n">
-        <v>62.74818055391976</v>
+        <v>4.209478506362543e-13</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>-0.9211483054953368</v>
+        <v>-7.157165835186279e-18</v>
       </c>
       <c r="M6" s="17" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -1780,22 +1780,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>48.556640625</v>
+        <v>49.556640625</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>69.9140625</v>
+        <v>70.9140625</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>24</v>
       </c>
       <c r="G7" s="13" t="n">
-        <v>62.74818830718554</v>
+        <v>62.74818898234606</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>-0.921148305494467</v>
+        <v>-0.9211483054943059</v>
       </c>
       <c r="I7" s="17" t="n">
         <v>60</v>
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="K7" s="21" t="n">
-        <v>62.74818048728037</v>
+        <v>62.74818053261468</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>-0.9211483054953364</v>
+        <v>-0.9211483054953368</v>
       </c>
       <c r="M7" s="17" t="n">
         <v>27</v>
@@ -1826,43 +1826,43 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-9.62890625</v>
+        <v>52.556640625</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>4.609375</v>
+        <v>73.9140625</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="13" t="n">
-        <v>-3.093354954562215e-07</v>
+        <v>62.7481812032328</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>-5.2433940780526e-18</v>
+        <v>-0.9211483054953331</v>
       </c>
       <c r="I8" s="17" t="n">
         <v>60</v>
       </c>
       <c r="J8" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K8" s="21" t="n">
-        <v>3.279444744467755e-12</v>
+        <v>62.74811164166871</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>-7.157165835000459e-18</v>
+        <v>-0.9211483054237369</v>
       </c>
       <c r="M8" s="17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -1872,43 +1872,43 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>94</v>
+        <v>-46</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>55.556640625</v>
+        <v>-20.37109375</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>76.9140625</v>
+        <v>11.6650390625</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>24</v>
       </c>
       <c r="G9" s="13" t="n">
-        <v>62.74818322870668</v>
+        <v>4.583466422285978e-06</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>-0.9211483054952407</v>
+        <v>4.130060818256451e-16</v>
       </c>
       <c r="I9" s="17" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J9" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K9" s="21" t="n">
-        <v>62.74818044217523</v>
+        <v>9.773050517855522e-10</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>-0.9211483054953361</v>
+        <v>-7.157146741472656e-18</v>
       </c>
       <c r="M9" s="17" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -1918,25 +1918,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>-1.0625</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="13" t="n">
-        <v>5.014772939397757e-06</v>
+        <v>6.363978863914512e-06</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>4.958017417363283e-16</v>
+        <v>8.028473165342323e-16</v>
       </c>
       <c r="I10" s="17" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J10" s="17" t="inlineStr">
         <is>
@@ -1944,10 +1944,10 @@
         </is>
       </c>
       <c r="K10" s="21" t="n">
-        <v>2.419264696145523e-13</v>
+        <v>2.313970774251673e-13</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>-7.157165835187025e-18</v>
+        <v>-7.157165835187074e-18</v>
       </c>
       <c r="M10" s="17" t="n">
         <v>7</v>
@@ -1964,25 +1964,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>36</v>
+        <v>-94</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>-21.6650390625</v>
+        <v>-36.3349609375</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>10.37109375</v>
+        <v>35.746337890625</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" s="13" t="n">
-        <v>-7.73654639157577e-06</v>
+        <v>-1.546141679833886e-06</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1.189925905126751e-15</v>
+        <v>4.065392995312786e-17</v>
       </c>
       <c r="I11" s="17" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J11" s="17" t="inlineStr">
         <is>
@@ -1990,13 +1990,13 @@
         </is>
       </c>
       <c r="K11" s="21" t="n">
-        <v>4.824486089438183e-10</v>
+        <v>-3.309020116425315e-07</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>-7.157161184391982e-18</v>
+        <v>-4.967240032885815e-18</v>
       </c>
       <c r="M11" s="17" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
@@ -2010,43 +2010,43 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>-73</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>13.49755859375</v>
+        <v>-6.62890625</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>121.6195068359375</v>
+        <v>7.609375</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G12" s="13" t="n">
-        <v>62.74817898542442</v>
+        <v>-1.552056847096998e-06</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>-0.9211483054952931</v>
+        <v>4.102045725635102e-17</v>
       </c>
       <c r="I12" s="17" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J12" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K12" s="21" t="n">
-        <v>62.74818069486266</v>
+        <v>2.890499376430936e-13</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>-0.9211483054953372</v>
+        <v>-7.157165835187032e-18</v>
       </c>
       <c r="M12" s="17" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -2056,25 +2056,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>-50</v>
+        <v>-33</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>-11.556640625</v>
+        <v>-7.37109375</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>36.49755859375</v>
+        <v>24.6650390625</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>-2.614407981495967e-07</v>
+        <v>3.228860616002566e-06</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>-5.790137665056444e-18</v>
+        <v>2.013536226759627e-16</v>
       </c>
       <c r="I13" s="17" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" s="17" t="inlineStr">
         <is>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="K13" s="21" t="n">
-        <v>2.268192611895819e-13</v>
+        <v>2.248515458449986e-13</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>-7.157165835187116e-18</v>
+        <v>-7.157165835187032e-18</v>
       </c>
       <c r="M13" s="17" t="n">
         <v>11</v>
@@ -2102,22 +2102,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>53.37109375</v>
+        <v>58.390625</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>67.609375</v>
+        <v>72.62890625</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14" s="13" t="n">
-        <v>62.74818519365812</v>
+        <v>62.74818581233061</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>-0.9211483054950332</v>
+        <v>-0.921148305494944</v>
       </c>
       <c r="I14" s="17" t="n">
         <v>60</v>
@@ -2128,13 +2128,13 @@
         </is>
       </c>
       <c r="K14" s="21" t="n">
-        <v>62.74818069344179</v>
+        <v>62.74818118091078</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-0.9211483054953336</v>
       </c>
       <c r="M14" s="17" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
@@ -2148,25 +2148,25 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>1</v>
+        <v>-55</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>-0.5</v>
+        <v>-16.556640625</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1</v>
+        <v>31.49755859375</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>6.363978863914512e-06</v>
+        <v>2.156040332784837e-06</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>8.028473165342323e-16</v>
+        <v>8.581301310534708e-17</v>
       </c>
       <c r="I15" s="17" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J15" s="17" t="inlineStr">
         <is>
@@ -2174,13 +2174,13 @@
         </is>
       </c>
       <c r="K15" s="21" t="n">
-        <v>2.313970774251673e-13</v>
+        <v>3.945371268086361e-13</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-7.157165835187074e-18</v>
+        <v>-7.157165835186455e-18</v>
       </c>
       <c r="M15" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
@@ -2194,25 +2194,25 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>-78</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>8.49755859375</v>
+        <v>52.556640625</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>116.6195068359375</v>
+        <v>73.9140625</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G16" s="13" t="n">
-        <v>62.74818341039054</v>
+        <v>62.7481812032328</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>-0.9211483054952264</v>
+        <v>-0.9211483054953331</v>
       </c>
       <c r="I16" s="17" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J16" s="17" t="inlineStr">
         <is>
@@ -2220,13 +2220,13 @@
         </is>
       </c>
       <c r="K16" s="21" t="n">
-        <v>62.7481806697334</v>
+        <v>62.74811164166871</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-0.9211483054237369</v>
       </c>
       <c r="M16" s="17" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
@@ -2240,43 +2240,43 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>-4.62890625</v>
+        <v>58.9140625</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>9.609375</v>
+        <v>68.40625</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17" s="13" t="n">
-        <v>-2.017405280922433e-07</v>
+        <v>62.74818583398508</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>-6.343179207241361e-18</v>
+        <v>-0.9211483054949405</v>
       </c>
       <c r="I17" s="17" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J17" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K17" s="21" t="n">
-        <v>9.394071485909244e-13</v>
+        <v>62.74818046282726</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>-7.157165835176902e-18</v>
+        <v>-0.9211483054953362</v>
       </c>
       <c r="M17" s="17" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -2286,43 +2286,43 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>84</v>
+        <v>-31</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>58.37109375</v>
+        <v>-13.9140625</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>72.609375</v>
+        <v>7.443359375</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>22</v>
       </c>
       <c r="G18" s="13" t="n">
-        <v>62.74817876486222</v>
+        <v>-4.262104213725625e-06</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>-0.9211483054952812</v>
+        <v>3.56153519071062e-16</v>
       </c>
       <c r="I18" s="17" t="n">
         <v>60</v>
       </c>
       <c r="J18" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K18" s="21" t="n">
-        <v>62.74818130465284</v>
+        <v>3.555449099406983e-11</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>-0.9211483054953314</v>
+        <v>-7.157165810223397e-18</v>
       </c>
       <c r="M18" s="17" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -2332,25 +2332,25 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>62</v>
+        <v>60.609375</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>63.25</v>
+        <v>66.9375</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G19" s="13" t="n">
-        <v>62.74818435683085</v>
+        <v>62.74818222568926</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>-0.9211483054951358</v>
+        <v>-0.9211483054953019</v>
       </c>
       <c r="I19" s="17" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J19" s="17" t="inlineStr">
         <is>
@@ -2358,13 +2358,13 @@
         </is>
       </c>
       <c r="K19" s="21" t="n">
-        <v>62.74818089025926</v>
+        <v>62.74818068104754</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>-0.9211483054953366</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M19" s="17" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
@@ -2378,43 +2378,43 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>83</v>
+        <v>-4</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>57.37109375</v>
+        <v>-1.75</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>71.609375</v>
+        <v>1.0625</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G20" s="13" t="n">
-        <v>62.74818135790107</v>
+        <v>-5.014772930625356e-06</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>-0.9211483054953304</v>
+        <v>4.958018301819976e-16</v>
       </c>
       <c r="I20" s="17" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J20" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K20" s="21" t="n">
-        <v>62.74818069663296</v>
+        <v>2.510591919213315e-13</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>-0.9211483054953372</v>
+        <v>-7.157165835187037e-18</v>
       </c>
       <c r="M20" s="17" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -2424,43 +2424,43 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>58</v>
+        <v>-43</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>61.375</v>
+        <v>-17.37109375</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>65.59375</v>
+        <v>14.6650390625</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G21" s="13" t="n">
-        <v>62.74818639288118</v>
+        <v>-9.01357345801988e-06</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>-0.9211483054948497</v>
+        <v>1.617733044894491e-15</v>
       </c>
       <c r="I21" s="17" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J21" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K21" s="21" t="n">
-        <v>62.74818069481299</v>
+        <v>1.259036258654984e-09</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-7.157134143063765e-18</v>
       </c>
       <c r="M21" s="17" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -2470,22 +2470,22 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>-87</v>
+        <v>-97</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-29.3349609375</v>
+        <v>-39.3349609375</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>42.746337890625</v>
+        <v>32.746337890625</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>28</v>
       </c>
       <c r="G22" s="13" t="n">
-        <v>-2.968393804442563e-06</v>
+        <v>-2.052548496762024e-06</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1.690700964274397e-16</v>
+        <v>7.710195925653019e-17</v>
       </c>
       <c r="I22" s="17" t="n">
         <v>66</v>
@@ -2496,13 +2496,13 @@
         </is>
       </c>
       <c r="K22" s="21" t="n">
-        <v>1.07715740488942e-11</v>
+        <v>-6.16557833145452e-08</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>-7.157165832962401e-18</v>
+        <v>-7.081136568333826e-18</v>
       </c>
       <c r="M22" s="17" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
@@ -2516,43 +2516,43 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>-41</v>
+        <v>91</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-15.37109375</v>
+        <v>52.556640625</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>16.6650390625</v>
+        <v>73.9140625</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>24</v>
       </c>
       <c r="G23" s="13" t="n">
-        <v>6.160007413365463e-06</v>
+        <v>62.7481812032328</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>7.517566054160934e-16</v>
+        <v>-0.9211483054953331</v>
       </c>
       <c r="I23" s="17" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J23" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K23" s="21" t="n">
-        <v>3.296860624509214e-13</v>
+        <v>62.74811164166871</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>-7.157165835186835e-18</v>
+        <v>-0.9211483054237369</v>
       </c>
       <c r="M23" s="17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -2562,25 +2562,25 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>-83</v>
+        <v>-66</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>-25.3349609375</v>
+        <v>-27.556640625</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>46.746337890625</v>
+        <v>20.49755859375</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G24" s="13" t="n">
-        <v>2.91454948025456e-06</v>
+        <v>-2.637053575461264e-06</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1.627347814084684e-16</v>
+        <v>1.3192388907939e-16</v>
       </c>
       <c r="I24" s="17" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J24" s="17" t="inlineStr">
         <is>
@@ -2588,13 +2588,13 @@
         </is>
       </c>
       <c r="K24" s="21" t="n">
-        <v>6.080945808900123e-11</v>
+        <v>-1.359649992306141e-06</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>-7.157165761777197e-18</v>
+        <v>2.981580842500291e-17</v>
       </c>
       <c r="M24" s="17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
@@ -2608,25 +2608,25 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>-25</v>
+        <v>-54</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>-7.9140625</v>
+        <v>-15.556640625</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>13.443359375</v>
+        <v>32.49755859375</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G25" s="13" t="n">
-        <v>-2.111552434181964e-07</v>
+        <v>3.357802786796933e-06</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>-6.265433199604567e-18</v>
+        <v>2.183395950652332e-16</v>
       </c>
       <c r="I25" s="17" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J25" s="17" t="inlineStr">
         <is>
@@ -2634,13 +2634,13 @@
         </is>
       </c>
       <c r="K25" s="21" t="n">
-        <v>1.337422244503723e-12</v>
+        <v>7.392802898923346e-13</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>-7.157165835162337e-18</v>
+        <v>-7.15716583518174e-18</v>
       </c>
       <c r="M25" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
@@ -2654,43 +2654,43 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>-28</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>-10.9140625</v>
+        <v>60.9375</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>10.443359375</v>
+        <v>63.75</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G26" s="13" t="n">
-        <v>-2.236629562930083e-06</v>
+        <v>62.74817668755929</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>9.289309031639901e-17</v>
+        <v>-0.9211483054950959</v>
       </c>
       <c r="I26" s="17" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J26" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K26" s="21" t="n">
-        <v>3.21032758636895e-11</v>
+        <v>62.74818069501984</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>-7.157165814862456e-18</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M26" s="17" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -2700,43 +2700,43 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>60</v>
+        <v>-82</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>61.5</v>
+        <v>-24.3349609375</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>63.375</v>
+        <v>47.746337890625</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G27" s="13" t="n">
-        <v>62.74818785701954</v>
+        <v>4.794859279223932e-07</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>-0.9211483054945668</v>
+        <v>-2.559035046152547e-18</v>
       </c>
       <c r="I27" s="17" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J27" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K27" s="21" t="n">
-        <v>62.74818070255445</v>
+        <v>3.914314969679829e-13</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-7.157165835186504e-18</v>
       </c>
       <c r="M27" s="17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -2746,25 +2746,25 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-4.0859375</v>
+        <v>-11.443359375</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>5.40625</v>
+        <v>9.9140625</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G28" s="13" t="n">
-        <v>-4.175312473198429e-06</v>
+        <v>1.561471418104708e-06</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>3.415075566942376e-16</v>
+        <v>4.160667991214782e-17</v>
       </c>
       <c r="I28" s="17" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J28" s="17" t="inlineStr">
         <is>
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="K28" s="21" t="n">
-        <v>3.040724708112827e-13</v>
+        <v>6.829054496155888e-11</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>-7.157165835186906e-18</v>
+        <v>-7.157165742528312e-18</v>
       </c>
       <c r="M28" s="17" t="n">
         <v>7</v>
@@ -2792,25 +2792,25 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>-72</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>-33.556640625</v>
+        <v>-0.5</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>14.49755859375</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G29" s="13" t="n">
-        <v>-1.421335067783607e-06</v>
+        <v>6.363978863914512e-06</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>3.324671444646188e-17</v>
+        <v>8.028473165342323e-16</v>
       </c>
       <c r="I29" s="17" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J29" s="17" t="inlineStr">
         <is>
@@ -2818,10 +2818,10 @@
         </is>
       </c>
       <c r="K29" s="21" t="n">
-        <v>5.900389634290433e-09</v>
+        <v>2.313970774251673e-13</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>-7.156469596297199e-18</v>
+        <v>-7.157165835187074e-18</v>
       </c>
       <c r="M29" s="17" t="n">
         <v>7</v>
@@ -2838,25 +2838,25 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>5</v>
+        <v>-83</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>-2.59375</v>
+        <v>-25.3349609375</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>1.625</v>
+        <v>46.746337890625</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G30" s="13" t="n">
-        <v>7.322856159736851e-06</v>
+        <v>2.91454948025456e-06</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1.065327215026961e-15</v>
+        <v>1.627347814084684e-16</v>
       </c>
       <c r="I30" s="17" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="J30" s="17" t="inlineStr">
         <is>
@@ -2864,13 +2864,13 @@
         </is>
       </c>
       <c r="K30" s="21" t="n">
-        <v>2.923457971124919e-13</v>
+        <v>6.080945808900123e-11</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>-7.157165835186995e-18</v>
+        <v>-7.157165761777197e-18</v>
       </c>
       <c r="M30" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
@@ -2884,25 +2884,25 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>32</v>
+        <v>-84</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-6.443359375</v>
+        <v>-26.3349609375</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>14.9140625</v>
+        <v>45.746337890625</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G31" s="13" t="n">
-        <v>-4.867325639071824e-06</v>
+        <v>-2.4619867776325e-06</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>4.666600554765326e-16</v>
+        <v>1.140704341725357e-16</v>
       </c>
       <c r="I31" s="17" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J31" s="17" t="inlineStr">
         <is>
@@ -2910,13 +2910,13 @@
         </is>
       </c>
       <c r="K31" s="21" t="n">
-        <v>3.964486522467357e-12</v>
+        <v>7.781478960835014e-11</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>-7.157165834907366e-18</v>
+        <v>-7.157165714783092e-18</v>
       </c>
       <c r="M31" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
@@ -2930,22 +2930,22 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>-37</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-11.37109375</v>
+        <v>-16.6650390625</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>20.6650390625</v>
+        <v>15.37109375</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G32" s="13" t="n">
-        <v>-8.939595265949671e-06</v>
+        <v>-6.160007216122053e-06</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1.591170184946527e-15</v>
+        <v>7.517566676209768e-16</v>
       </c>
       <c r="I32" s="17" t="n">
         <v>62</v>
@@ -2956,10 +2956,10 @@
         </is>
       </c>
       <c r="K32" s="21" t="n">
-        <v>6.742968917704598e-12</v>
+        <v>3.651579631259329e-10</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>-7.157165834337324e-18</v>
+        <v>-7.157163171663496e-18</v>
       </c>
       <c r="M32" s="17" t="n">
         <v>7</v>
@@ -2976,43 +2976,43 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>69</v>
+        <v>-11</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>61.40625</v>
+        <v>-3.40625</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>65.625</v>
+        <v>6.0859375</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" s="13" t="n">
-        <v>62.74817903963999</v>
+        <v>6.461724038634161e-06</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>-0.9211483054952958</v>
+        <v>8.279203270773473e-16</v>
       </c>
       <c r="I33" s="17" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J33" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K33" s="21" t="n">
-        <v>62.74818069489217</v>
+        <v>4.212146348690735e-13</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-7.157165835186274e-18</v>
       </c>
       <c r="M33" s="17" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -3022,25 +3022,25 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>-68</v>
+        <v>-3</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-29.556640625</v>
+        <v>-0.75</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>18.49755859375</v>
+        <v>2.0625</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G34" s="13" t="n">
-        <v>3.385715051789246e-06</v>
+        <v>7.964639363865127e-06</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>2.221041319520103e-16</v>
+        <v>1.261552366459414e-15</v>
       </c>
       <c r="I34" s="17" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="J34" s="17" t="inlineStr">
         <is>
@@ -3048,10 +3048,10 @@
         </is>
       </c>
       <c r="K34" s="21" t="n">
-        <v>-2.491840504005714e-07</v>
+        <v>2.525378005870444e-13</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>-5.915309774554344e-18</v>
+        <v>-7.157165835187022e-18</v>
       </c>
       <c r="M34" s="17" t="n">
         <v>7</v>
@@ -3068,25 +3068,25 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>-94</v>
+        <v>-32</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-36.3349609375</v>
+        <v>-14.9140625</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>35.746337890625</v>
+        <v>6.443359375</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G35" s="13" t="n">
-        <v>-1.546141679833886e-06</v>
+        <v>4.867325515245075e-06</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>4.065392995312786e-17</v>
+        <v>4.666599438152672e-16</v>
       </c>
       <c r="I35" s="17" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J35" s="17" t="inlineStr">
         <is>
@@ -3094,13 +3094,13 @@
         </is>
       </c>
       <c r="K35" s="21" t="n">
-        <v>-3.309020116425315e-07</v>
+        <v>1.910951389325927e-11</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>-4.967240032885815e-18</v>
+        <v>-7.157165828054479e-18</v>
       </c>
       <c r="M35" s="17" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
@@ -3114,22 +3114,22 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>-16</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-4.609375</v>
+        <v>-9.62890625</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>9.62890625</v>
+        <v>4.609375</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G36" s="13" t="n">
-        <v>3.093354101493057e-07</v>
+        <v>-3.093354954562215e-07</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>-5.243400697892074e-18</v>
+        <v>-5.2433940780526e-18</v>
       </c>
       <c r="I36" s="17" t="n">
         <v>60</v>
@@ -3140,10 +3140,10 @@
         </is>
       </c>
       <c r="K36" s="21" t="n">
-        <v>9.509201564751668e-13</v>
+        <v>3.279444744467755e-12</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>-7.157165835176517e-18</v>
+        <v>-7.157165835000459e-18</v>
       </c>
       <c r="M36" s="17" t="n">
         <v>7</v>
@@ -3160,25 +3160,25 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>91</v>
+        <v>-79</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>52.556640625</v>
+        <v>7.49755859375</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>73.9140625</v>
+        <v>115.6195068359375</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G37" s="13" t="n">
-        <v>62.7481812032328</v>
+        <v>62.74818284703306</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>-0.9211483054953331</v>
+        <v>-0.9211483054952675</v>
       </c>
       <c r="I37" s="17" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J37" s="17" t="inlineStr">
         <is>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="K37" s="21" t="n">
-        <v>62.74811164166871</v>
+        <v>62.74818068632934</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>-0.9211483054237369</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M37" s="17" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
@@ -3206,43 +3206,43 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>59</v>
+        <v>-35</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>61.25</v>
+        <v>-9.37109375</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>64.0625</v>
+        <v>22.6650390625</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G38" s="13" t="n">
-        <v>62.74818848702489</v>
+        <v>-2.855367340004979e-06</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>-0.9211483054944254</v>
+        <v>1.559053127731701e-16</v>
       </c>
       <c r="I38" s="17" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J38" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K38" s="21" t="n">
-        <v>62.7481806950673</v>
+        <v>3.379650585166275e-11</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>-0.921148305495337</v>
+        <v>-7.157165812645942e-18</v>
       </c>
       <c r="M38" s="17" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -3252,43 +3252,43 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>-12</v>
+        <v>-78</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>-4.40625</v>
+        <v>8.49755859375</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>5.0859375</v>
+        <v>116.6195068359375</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>5.318518224144463e-06</v>
+        <v>62.74818341039054</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>5.585755083412532e-16</v>
+        <v>-0.9211483054952264</v>
       </c>
       <c r="I39" s="17" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J39" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K39" s="21" t="n">
-        <v>2.620665104943507e-13</v>
+        <v>62.7481806697334</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>-7.157165835187076e-18</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M39" s="17" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -3298,25 +3298,25 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>-35</v>
+        <v>-10</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-9.37109375</v>
+        <v>-2.40625</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>22.6650390625</v>
+        <v>7.0859375</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G40" s="13" t="n">
-        <v>-2.855367340004979e-06</v>
+        <v>-6.496542481010086e-06</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1.559053127731701e-16</v>
+        <v>8.369441767455958e-16</v>
       </c>
       <c r="I40" s="17" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J40" s="17" t="inlineStr">
         <is>
@@ -3324,10 +3324,10 @@
         </is>
       </c>
       <c r="K40" s="21" t="n">
-        <v>3.379650585166275e-11</v>
+        <v>6.718070981355434e-13</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>-7.157165812645942e-18</v>
+        <v>-7.157165835183083e-18</v>
       </c>
       <c r="M40" s="17" t="n">
         <v>7</v>
@@ -3344,43 +3344,43 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>-40</v>
+        <v>80</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-14.37109375</v>
+        <v>54.37109375</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>17.6650390625</v>
+        <v>68.609375</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G41" s="13" t="n">
-        <v>4.657444831412471e-06</v>
+        <v>62.74818260062109</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>4.266786394288368e-16</v>
+        <v>-0.9211483054952826</v>
       </c>
       <c r="I41" s="17" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J41" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K41" s="21" t="n">
-        <v>6.45330703642918e-13</v>
+        <v>62.74818069394575</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>-7.157165835183578e-18</v>
+        <v>-0.9211483054953372</v>
       </c>
       <c r="M41" s="17" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -3390,25 +3390,25 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>-26</v>
+        <v>-69</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>-8.9140625</v>
+        <v>-30.556640625</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>12.443359375</v>
+        <v>17.49755859375</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G42" s="13" t="n">
-        <v>-8.863133068063119e-07</v>
+        <v>2.183951992769273e-06</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>8.553867692714644e-18</v>
+        <v>8.823574065682852e-17</v>
       </c>
       <c r="I42" s="17" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J42" s="17" t="inlineStr">
         <is>
@@ -3416,10 +3416,10 @@
         </is>
       </c>
       <c r="K42" s="21" t="n">
-        <v>6.605780602209055e-13</v>
+        <v>-8.20286092753579e-08</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>-7.157165835183231e-18</v>
+        <v>-7.02259124263115e-18</v>
       </c>
       <c r="M42" s="17" t="n">
         <v>7</v>
@@ -3436,43 +3436,43 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>96</v>
+        <v>-14</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>38.3349609375</v>
+        <v>-6.40625</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>70.37109375</v>
+        <v>3.0859375</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G43" s="13" t="n">
-        <v>62.74818534195902</v>
+        <v>-4.018629445895966e-06</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>-0.9211483054950129</v>
+        <v>3.158305227765587e-16</v>
       </c>
       <c r="I43" s="17" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J43" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K43" s="21" t="n">
-        <v>62.748178609353</v>
+        <v>8.903585907418546e-13</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>-0.9211483054952716</v>
+        <v>-7.157165835178188e-18</v>
       </c>
       <c r="M43" s="17" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -3482,43 +3482,43 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-9.443359375</v>
+        <v>60.375</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>11.9140625</v>
+        <v>64.59375</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G44" s="13" t="n">
-        <v>2.911787541114761e-06</v>
+        <v>62.7481837797466</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1.624129416680897e-16</v>
+        <v>-0.9211483054951943</v>
       </c>
       <c r="I44" s="17" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J44" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K44" s="21" t="n">
-        <v>4.652080281869797e-13</v>
+        <v>62.74818069368141</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>-7.157165835185901e-18</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M44" s="17" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -3528,25 +3528,25 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>-28</v>
+        <v>-11</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-10.9140625</v>
+        <v>-3.40625</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>10.443359375</v>
+        <v>6.0859375</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G45" s="13" t="n">
-        <v>-2.236629562930083e-06</v>
+        <v>6.461724038634161e-06</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>9.289309031639901e-17</v>
+        <v>8.279203270773473e-16</v>
       </c>
       <c r="I45" s="17" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J45" s="17" t="inlineStr">
         <is>
@@ -3554,10 +3554,10 @@
         </is>
       </c>
       <c r="K45" s="21" t="n">
-        <v>3.21032758636895e-11</v>
+        <v>4.212146348690735e-13</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>-7.157165814862456e-18</v>
+        <v>-7.157165835186274e-18</v>
       </c>
       <c r="M45" s="17" t="n">
         <v>7</v>
@@ -3574,43 +3574,43 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>84</v>
+        <v>-95</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>58.37109375</v>
+        <v>-37.3349609375</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>72.609375</v>
+        <v>34.746337890625</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G46" s="13" t="n">
-        <v>62.74817876486222</v>
+        <v>8.8892384858829e-07</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>-0.9211483054952812</v>
+        <v>8.646538341644512e-18</v>
       </c>
       <c r="I46" s="17" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J46" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K46" s="21" t="n">
-        <v>62.74818130465284</v>
+        <v>-6.294110771930749e-07</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>-0.9211483054953314</v>
+        <v>7.660059075766039e-19</v>
       </c>
       <c r="M46" s="17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -3620,43 +3620,43 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>57.9140625</v>
+        <v>-4.0859375</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>67.40625</v>
+        <v>5.40625</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>20</v>
       </c>
       <c r="G47" s="13" t="n">
-        <v>62.748184690778</v>
+        <v>-4.175312473198429e-06</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>-0.9211483054950973</v>
+        <v>3.415075566942376e-16</v>
       </c>
       <c r="I47" s="17" t="n">
         <v>58</v>
       </c>
       <c r="J47" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K47" s="21" t="n">
-        <v>62.74818058277948</v>
+        <v>3.040724708112827e-13</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>-0.921148305495337</v>
+        <v>-7.157165835186906e-18</v>
       </c>
       <c r="M47" s="17" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -3666,25 +3666,25 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>-81</v>
+        <v>-43</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>-23.3349609375</v>
+        <v>-17.37109375</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>48.746337890625</v>
+        <v>14.6650390625</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G48" s="13" t="n">
-        <v>-1.955579790938937e-06</v>
+        <v>-9.01357345801988e-06</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>6.932869812777435e-17</v>
+        <v>1.617733044894491e-15</v>
       </c>
       <c r="I48" s="17" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J48" s="17" t="inlineStr">
         <is>
@@ -3692,13 +3692,13 @@
         </is>
       </c>
       <c r="K48" s="21" t="n">
-        <v>4.412134790081916e-12</v>
+        <v>1.259036258654984e-09</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>-7.157165834836438e-18</v>
+        <v>-7.157134143063765e-18</v>
       </c>
       <c r="M48" s="17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
@@ -3712,43 +3712,43 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>-68</v>
+        <v>51</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-29.556640625</v>
+        <v>58.59375</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>18.49755859375</v>
+        <v>68.0859375</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G49" s="13" t="n">
-        <v>3.385715051789246e-06</v>
+        <v>62.74818122634215</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>2.221041319520103e-16</v>
+        <v>-0.9211483054953329</v>
       </c>
       <c r="I49" s="17" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J49" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K49" s="21" t="n">
-        <v>-2.491840504005714e-07</v>
+        <v>62.74818061509209</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>-5.915309774554344e-18</v>
+        <v>-0.921148305495337</v>
       </c>
       <c r="M49" s="17" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -3758,25 +3758,25 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>-35</v>
+        <v>-84</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>-9.37109375</v>
+        <v>-26.3349609375</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>22.6650390625</v>
+        <v>45.746337890625</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G50" s="13" t="n">
-        <v>-2.855367340004979e-06</v>
+        <v>-2.4619867776325e-06</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1.559053127731701e-16</v>
+        <v>1.140704341725357e-16</v>
       </c>
       <c r="I50" s="17" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J50" s="17" t="inlineStr">
         <is>
@@ -3784,13 +3784,13 @@
         </is>
       </c>
       <c r="K50" s="21" t="n">
-        <v>3.379650585166275e-11</v>
+        <v>7.781478960835014e-11</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>-7.157165812645942e-18</v>
+        <v>-7.157165714783092e-18</v>
       </c>
       <c r="M50" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
@@ -3804,43 +3804,43 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>-9.443359375</v>
+        <v>61.625</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>11.9140625</v>
+        <v>63.5</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G51" s="13" t="n">
-        <v>2.911787541114761e-06</v>
+        <v>62.74818340223433</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1.624129416680897e-16</v>
+        <v>-0.921148305495227</v>
       </c>
       <c r="I51" s="17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J51" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K51" s="21" t="n">
-        <v>4.652080281869797e-13</v>
+        <v>62.74818069490848</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>-7.157165835185901e-18</v>
+        <v>-0.921148305495337</v>
       </c>
       <c r="M51" s="17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -3850,43 +3850,43 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>-5.0859375</v>
+        <v>60.375</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>4.40625</v>
+        <v>64.59375</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G52" s="13" t="n">
-        <v>-5.318518249206413e-06</v>
+        <v>62.7481837797466</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>5.585756093420298e-16</v>
+        <v>-0.9211483054951943</v>
       </c>
       <c r="I52" s="17" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J52" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K52" s="21" t="n">
-        <v>7.175249431154941e-13</v>
+        <v>62.74818069368141</v>
       </c>
       <c r="L52" s="1" t="n">
-        <v>-7.157165835182221e-18</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M52" s="17" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -3896,25 +3896,25 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>-26</v>
+        <v>-52</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>-8.9140625</v>
+        <v>-13.556640625</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>12.443359375</v>
+        <v>34.49755859375</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G53" s="13" t="n">
-        <v>-8.863133068063119e-07</v>
+        <v>-2.664965892806675e-06</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>8.553867692714644e-18</v>
+        <v>1.348837223298284e-16</v>
       </c>
       <c r="I53" s="17" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J53" s="17" t="inlineStr">
         <is>
@@ -3922,13 +3922,13 @@
         </is>
       </c>
       <c r="K53" s="21" t="n">
-        <v>6.605780602209055e-13</v>
+        <v>3.109820874781059e-12</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>-7.157165835183231e-18</v>
+        <v>-7.157165835020609e-18</v>
       </c>
       <c r="M53" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
@@ -3942,43 +3942,43 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>-5</v>
+        <v>76</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>-1.625</v>
+        <v>58.9140625</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>2.59375</v>
+        <v>68.40625</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G54" s="13" t="n">
-        <v>-7.322856118502688e-06</v>
+        <v>62.74818583398508</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1.065327334671836e-15</v>
+        <v>-0.9211483054949405</v>
       </c>
       <c r="I54" s="17" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J54" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K54" s="21" t="n">
-        <v>2.587276858049635e-13</v>
+        <v>62.74818046282726</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>-7.15716583518706e-18</v>
+        <v>-0.9211483054953362</v>
       </c>
       <c r="M54" s="17" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -3988,25 +3988,25 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>-7.0859375</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>2.40625</v>
+      </c>
+      <c r="F55" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>-5.62890625</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>8.609375</v>
-      </c>
-      <c r="F55" s="2" t="n">
-        <v>22</v>
-      </c>
       <c r="G55" s="13" t="n">
-        <v>2.391296526042559e-06</v>
+        <v>6.496542514380093e-06</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>1.072087941668215e-16</v>
+        <v>8.369440685578979e-16</v>
       </c>
       <c r="I55" s="17" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J55" s="17" t="inlineStr">
         <is>
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="K55" s="21" t="n">
-        <v>5.091001108105922e-13</v>
+        <v>6.913418507169752e-13</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>-7.157165835185453e-18</v>
+        <v>-7.157165835182755e-18</v>
       </c>
       <c r="M55" s="17" t="n">
         <v>7</v>
@@ -4034,25 +4034,25 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>-58</v>
+        <v>42</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>-19.556640625</v>
+        <v>-15.6650390625</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>28.49755859375</v>
+        <v>16.37109375</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>26</v>
       </c>
       <c r="G56" s="13" t="n">
-        <v>-1.449247160410378e-06</v>
+        <v>-7.662569634148807e-06</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>3.484919383842391e-17</v>
+        <v>1.16714237104492e-15</v>
       </c>
       <c r="I56" s="17" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J56" s="17" t="inlineStr">
         <is>
@@ -4060,13 +4060,13 @@
         </is>
       </c>
       <c r="K56" s="21" t="n">
-        <v>2.286984647053862e-13</v>
+        <v>2.755979329436503e-13</v>
       </c>
       <c r="L56" s="1" t="n">
-        <v>-7.157165835187099e-18</v>
+        <v>-7.157165835187032e-18</v>
       </c>
       <c r="M56" s="17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
@@ -4080,25 +4080,25 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>54</v>
+        <v>-78</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>59.0625</v>
+        <v>8.49755859375</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>65.390625</v>
+        <v>116.6195068359375</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G57" s="13" t="n">
-        <v>62.74818560593519</v>
+        <v>62.74818341039054</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>-0.921148305494975</v>
+        <v>-0.9211483054952264</v>
       </c>
       <c r="I57" s="17" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="J57" s="17" t="inlineStr">
         <is>
@@ -4106,13 +4106,13 @@
         </is>
       </c>
       <c r="K57" s="21" t="n">
-        <v>62.74818065545923</v>
+        <v>62.7481806697334</v>
       </c>
       <c r="L57" s="1" t="n">
         <v>-0.9211483054953371</v>
       </c>
       <c r="M57" s="17" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
@@ -4126,25 +4126,25 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>-96</v>
+        <v>-48</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>-38.3349609375</v>
+        <v>-22.37109375</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>33.746337890625</v>
+        <v>9.6650390625</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G58" s="13" t="n">
-        <v>3.323989345269852e-06</v>
+        <v>7.588591330999435e-06</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>2.138209076182761e-16</v>
+        <v>1.144577133691404e-15</v>
       </c>
       <c r="I58" s="17" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J58" s="17" t="inlineStr">
         <is>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="K58" s="21" t="n">
-        <v>-2.172206664309064e-07</v>
+        <v>3.085751027738655e-10</v>
       </c>
       <c r="L58" s="1" t="n">
-        <v>-6.21346752301863e-18</v>
+        <v>-7.157163933589473e-18</v>
       </c>
       <c r="M58" s="17" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N58" s="2" t="inlineStr">
         <is>
@@ -4172,43 +4172,43 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>61.25</v>
+        <v>-15.443359375</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>64.0625</v>
+        <v>5.9140625</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G59" s="13" t="n">
-        <v>62.74818848702489</v>
+        <v>-1.13916133883785e-06</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>-0.9211483054944254</v>
+        <v>1.879661552843499e-17</v>
       </c>
       <c r="I59" s="17" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J59" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K59" s="21" t="n">
-        <v>62.7481806950673</v>
+        <v>1.334794445081293e-11</v>
       </c>
       <c r="L59" s="1" t="n">
-        <v>-0.921148305495337</v>
+        <v>-7.157165831742775e-18</v>
       </c>
       <c r="M59" s="17" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -4218,25 +4218,25 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>-45</v>
+        <v>22</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>-19.37109375</v>
+        <v>-16.443359375</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>12.6650390625</v>
+        <v>4.9140625</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>24</v>
       </c>
       <c r="G60" s="13" t="n">
-        <v>-6.008448707456478e-06</v>
+        <v>-1.814320588112624e-06</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>7.148720056070687e-16</v>
+        <v>5.867803441170895e-17</v>
       </c>
       <c r="I60" s="17" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J60" s="17" t="inlineStr">
         <is>
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="K60" s="21" t="n">
-        <v>1.454825383930707e-09</v>
+        <v>6.537552524203688e-12</v>
       </c>
       <c r="L60" s="1" t="n">
-        <v>-7.15712351793277e-18</v>
+        <v>-7.157165834390055e-18</v>
       </c>
       <c r="M60" s="17" t="n">
         <v>7</v>
@@ -4264,43 +4264,43 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>-10.443359375</v>
+        <v>48.556640625</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>10.9140625</v>
+        <v>69.9140625</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>24</v>
       </c>
       <c r="G61" s="13" t="n">
-        <v>2.236628565193137e-06</v>
+        <v>62.74818830718554</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>9.289296082139698e-17</v>
+        <v>-0.921148305494467</v>
       </c>
       <c r="I61" s="17" t="n">
         <v>60</v>
       </c>
       <c r="J61" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K61" s="21" t="n">
-        <v>2.55432963878368e-13</v>
+        <v>62.74818048728037</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>-7.157165835187094e-18</v>
+        <v>-0.9211483054953364</v>
       </c>
       <c r="M61" s="17" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -4310,43 +4310,43 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>87</v>
+        <v>-51</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>48.556640625</v>
+        <v>-12.556640625</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>69.9140625</v>
+        <v>35.49755859375</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G62" s="13" t="n">
-        <v>62.74818830718554</v>
+        <v>-1.463203205839258e-06</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>-0.921148305494467</v>
+        <v>3.566211975635857e-17</v>
       </c>
       <c r="I62" s="17" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J62" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K62" s="21" t="n">
-        <v>62.74818048728037</v>
+        <v>3.498459077107356e-12</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>-0.9211483054953364</v>
+        <v>-7.157165834972753e-18</v>
       </c>
       <c r="M62" s="17" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -4356,43 +4356,43 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>48</v>
+        <v>-10</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>59.390625</v>
+        <v>-2.40625</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>73.62890625</v>
+        <v>7.0859375</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G63" s="13" t="n">
-        <v>62.74818321929276</v>
+        <v>-6.496542481010086e-06</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>-0.9211483054952415</v>
+        <v>8.369441767455958e-16</v>
       </c>
       <c r="I63" s="17" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J63" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K63" s="21" t="n">
-        <v>62.74817959843551</v>
+        <v>6.718070981355434e-13</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>-0.9211483054953191</v>
+        <v>-7.157165835183083e-18</v>
       </c>
       <c r="M63" s="17" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -4402,25 +4402,25 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>-27</v>
+        <v>33</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>-9.9140625</v>
+        <v>-24.6650390625</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>11.443359375</v>
+        <v>7.37109375</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G64" s="13" t="n">
-        <v>-1.561473109001707e-06</v>
+        <v>5.86049342168809e-06</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>4.160681361133599e-17</v>
+        <v>6.797504443685687e-16</v>
       </c>
       <c r="I64" s="17" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J64" s="17" t="inlineStr">
         <is>
@@ -4428,10 +4428,10 @@
         </is>
       </c>
       <c r="K64" s="21" t="n">
-        <v>3.467580579235874e-13</v>
+        <v>5.938293078010154e-11</v>
       </c>
       <c r="L64" s="1" t="n">
-        <v>-7.157165835186757e-18</v>
+        <v>-7.157165765193487e-18</v>
       </c>
       <c r="M64" s="17" t="n">
         <v>7</v>
@@ -4448,25 +4448,25 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>-25</v>
+        <v>-64</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>-7.9140625</v>
+        <v>-25.556640625</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>13.443359375</v>
+        <v>22.49755859375</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G65" s="13" t="n">
-        <v>-2.111552434181964e-07</v>
+        <v>-2.335287453574148e-07</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>-6.265433199604567e-18</v>
+        <v>-6.066450236674075e-18</v>
       </c>
       <c r="I65" s="17" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J65" s="17" t="inlineStr">
         <is>
@@ -4474,13 +4474,13 @@
         </is>
       </c>
       <c r="K65" s="21" t="n">
-        <v>1.337422244503723e-12</v>
+        <v>-9.452736831147844e-11</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>-7.157165835162337e-18</v>
+        <v>-7.157165655627402e-18</v>
       </c>
       <c r="M65" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
@@ -4494,25 +4494,25 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>27</v>
+        <v>-9</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>-11.443359375</v>
+        <v>-3.9375</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>9.9140625</v>
+        <v>2.390625</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G66" s="13" t="n">
-        <v>1.561471418104708e-06</v>
+        <v>5.492899984993879e-06</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>4.160667991214782e-17</v>
+        <v>5.962817896646402e-16</v>
       </c>
       <c r="I66" s="17" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J66" s="17" t="inlineStr">
         <is>
@@ -4520,10 +4520,10 @@
         </is>
       </c>
       <c r="K66" s="21" t="n">
-        <v>6.829054496155888e-11</v>
+        <v>4.296454666202792e-13</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>-7.157165742528312e-18</v>
+        <v>-7.157165835186182e-18</v>
       </c>
       <c r="M66" s="17" t="n">
         <v>7</v>
@@ -4540,25 +4540,25 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>34</v>
+        <v>-89</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>-23.6650390625</v>
+        <v>-31.3349609375</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>8.37109375</v>
+        <v>40.746337890625</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G67" s="13" t="n">
-        <v>-4.731423042688012e-06</v>
+        <v>1.901737557657296e-06</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>4.405701568965005e-16</v>
+        <v>6.517493182472938e-17</v>
       </c>
       <c r="I67" s="17" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J67" s="17" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="K67" s="21" t="n">
-        <v>1.255469129985543e-10</v>
+        <v>1.95373781167212e-12</v>
       </c>
       <c r="L67" s="1" t="n">
-        <v>-7.157165521074639e-18</v>
+        <v>-7.157165835127313e-18</v>
       </c>
       <c r="M67" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
@@ -4586,25 +4586,25 @@
         <v>66</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>38.3349609375</v>
+        <v>62</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>70.37109375</v>
+        <v>63.25</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G68" s="13" t="n">
-        <v>62.74818534195902</v>
+        <v>62.74818435683085</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>-0.9211483054950129</v>
+        <v>-0.9211483054951358</v>
       </c>
       <c r="I68" s="17" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J68" s="17" t="inlineStr">
         <is>
@@ -4612,13 +4612,13 @@
         </is>
       </c>
       <c r="K68" s="21" t="n">
-        <v>62.748178609353</v>
+        <v>62.74818089025926</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>-0.9211483054952716</v>
+        <v>-0.9211483054953366</v>
       </c>
       <c r="M68" s="17" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
@@ -4632,43 +4632,43 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>42.3349609375</v>
+        <v>-18.6650390625</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>74.37109375</v>
+        <v>13.37109375</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>26</v>
       </c>
       <c r="G69" s="13" t="n">
-        <v>62.74818842106314</v>
+        <v>5.934471604442169e-06</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>-0.9211483054944408</v>
+        <v>6.972018452688275e-16</v>
       </c>
       <c r="I69" s="17" t="n">
         <v>62</v>
       </c>
       <c r="J69" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K69" s="21" t="n">
-        <v>62.74818068990481</v>
+        <v>1.698887845211369e-09</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-7.157108126067606e-18</v>
       </c>
       <c r="M69" s="17" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -4678,25 +4678,25 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>39</v>
+        <v>-29</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>-18.6650390625</v>
+        <v>-11.9140625</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>13.37109375</v>
+        <v>9.443359375</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G70" s="13" t="n">
-        <v>5.934471604442169e-06</v>
+        <v>-2.911787731952895e-06</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>6.972018452688275e-16</v>
+        <v>1.624130162722967e-16</v>
       </c>
       <c r="I70" s="17" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J70" s="17" t="inlineStr">
         <is>
@@ -4704,10 +4704,10 @@
         </is>
       </c>
       <c r="K70" s="21" t="n">
-        <v>1.698887845211369e-09</v>
+        <v>7.515088938442892e-11</v>
       </c>
       <c r="L70" s="1" t="n">
-        <v>-7.157108126067606e-18</v>
+        <v>-7.157165722908845e-18</v>
       </c>
       <c r="M70" s="17" t="n">
         <v>7</v>
@@ -4724,25 +4724,25 @@
         <v>69</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>-81</v>
+        <v>35</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>-23.3349609375</v>
+        <v>-22.6650390625</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>48.746337890625</v>
+        <v>9.37109375</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G71" s="13" t="n">
-        <v>-1.955579790938937e-06</v>
+        <v>-6.233985386363251e-06</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>6.932869812777435e-17</v>
+        <v>7.700943661806244e-16</v>
       </c>
       <c r="I71" s="17" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J71" s="17" t="inlineStr">
         <is>
@@ -4750,13 +4750,13 @@
         </is>
       </c>
       <c r="K71" s="21" t="n">
-        <v>4.412134790081916e-12</v>
+        <v>2.536423571447252e-10</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>-7.157165834836438e-18</v>
+        <v>-7.157164550778444e-18</v>
       </c>
       <c r="M71" s="17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
@@ -4770,43 +4770,43 @@
         <v>70</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>-7.0859375</v>
+        <v>55.37109375</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>2.40625</v>
+        <v>69.609375</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G72" s="13" t="n">
-        <v>6.496542514380093e-06</v>
+        <v>62.74818654397605</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>8.369440685578979e-16</v>
+        <v>-0.9211483054948234</v>
       </c>
       <c r="I72" s="17" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J72" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K72" s="21" t="n">
-        <v>6.913418507169752e-13</v>
+        <v>62.74818069490524</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>-7.157165835182755e-18</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M72" s="17" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N72" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -4816,25 +4816,25 @@
         <v>71</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>-4.0859375</v>
+        <v>-16.443359375</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>5.40625</v>
+        <v>4.9140625</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G73" s="13" t="n">
-        <v>-4.175312473198429e-06</v>
+        <v>-1.814320588112624e-06</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>3.415075566942376e-16</v>
+        <v>5.867803441170895e-17</v>
       </c>
       <c r="I73" s="17" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J73" s="17" t="inlineStr">
         <is>
@@ -4842,10 +4842,10 @@
         </is>
       </c>
       <c r="K73" s="21" t="n">
-        <v>3.040724708112827e-13</v>
+        <v>6.537552524203688e-12</v>
       </c>
       <c r="L73" s="1" t="n">
-        <v>-7.157165835186906e-18</v>
+        <v>-7.157165834390055e-18</v>
       </c>
       <c r="M73" s="17" t="n">
         <v>7</v>
@@ -4862,25 +4862,25 @@
         <v>72</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>39</v>
+        <v>-50</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>-18.6650390625</v>
+        <v>-11.556640625</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>13.37109375</v>
+        <v>36.49755859375</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>26</v>
       </c>
       <c r="G74" s="13" t="n">
-        <v>5.934471604442169e-06</v>
+        <v>-2.614407981495967e-07</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>6.972018452688275e-16</v>
+        <v>-5.790137665056444e-18</v>
       </c>
       <c r="I74" s="17" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J74" s="17" t="inlineStr">
         <is>
@@ -4888,13 +4888,13 @@
         </is>
       </c>
       <c r="K74" s="21" t="n">
-        <v>1.698887845211369e-09</v>
+        <v>2.268192611895819e-13</v>
       </c>
       <c r="L74" s="1" t="n">
-        <v>-7.157108126067606e-18</v>
+        <v>-7.157165835187116e-18</v>
       </c>
       <c r="M74" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N74" s="2" t="inlineStr">
         <is>
@@ -4908,43 +4908,43 @@
         <v>73</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>-93</v>
+        <v>91</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>-35.3349609375</v>
+        <v>52.556640625</v>
       </c>
       <c r="E75" s="1" t="n">
-        <v>36.746337890625</v>
+        <v>73.9140625</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G75" s="13" t="n">
-        <v>3.830397005094998e-06</v>
+        <v>62.7481812032328</v>
       </c>
       <c r="H75" s="1" t="n">
-        <v>2.862816240471105e-16</v>
+        <v>-0.9211483054953331</v>
       </c>
       <c r="I75" s="17" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J75" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K75" s="21" t="n">
-        <v>2.389272826502014e-13</v>
+        <v>62.74811164166871</v>
       </c>
       <c r="L75" s="1" t="n">
-        <v>-7.157165835187054e-18</v>
+        <v>-0.9211483054237369</v>
       </c>
       <c r="M75" s="17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N75" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -4954,43 +4954,43 @@
         <v>74</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>-47</v>
+        <v>87</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>-21.37109375</v>
+        <v>48.556640625</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>10.6650390625</v>
+        <v>69.9140625</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>24</v>
       </c>
       <c r="G76" s="13" t="n">
-        <v>6.086029475960478e-06</v>
+        <v>62.74818830718554</v>
       </c>
       <c r="H76" s="1" t="n">
-        <v>7.336378750722994e-16</v>
+        <v>-0.921148305494467</v>
       </c>
       <c r="I76" s="17" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J76" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K76" s="21" t="n">
-        <v>5.745224142718795e-10</v>
+        <v>62.74818048728037</v>
       </c>
       <c r="L76" s="1" t="n">
-        <v>-7.157159238833165e-18</v>
+        <v>-0.9211483054953364</v>
       </c>
       <c r="M76" s="17" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -5000,43 +5000,43 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>-9</v>
+        <v>92</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>-3.9375</v>
+        <v>53.556640625</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>2.390625</v>
+        <v>74.9140625</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G77" s="13" t="n">
-        <v>5.492899984993879e-06</v>
+        <v>62.74817207380315</v>
       </c>
       <c r="H77" s="1" t="n">
-        <v>5.962817896646402e-16</v>
+        <v>-0.9211483054942211</v>
       </c>
       <c r="I77" s="17" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J77" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K77" s="21" t="n">
-        <v>4.296454666202792e-13</v>
+        <v>62.74818069520497</v>
       </c>
       <c r="L77" s="1" t="n">
-        <v>-7.157165835186182e-18</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M77" s="17" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -5046,22 +5046,22 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>-61</v>
+        <v>-52</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>-22.556640625</v>
+        <v>-13.556640625</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>25.49755859375</v>
+        <v>34.49755859375</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>26</v>
       </c>
       <c r="G78" s="13" t="n">
-        <v>3.371758743749721e-06</v>
+        <v>-2.664965892806675e-06</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>2.202179443603421e-16</v>
+        <v>1.348837223298284e-16</v>
       </c>
       <c r="I78" s="17" t="n">
         <v>64</v>
@@ -5072,10 +5072,10 @@
         </is>
       </c>
       <c r="K78" s="21" t="n">
-        <v>2.248938445343754e-13</v>
+        <v>3.109820874781059e-12</v>
       </c>
       <c r="L78" s="1" t="n">
-        <v>-7.157165835187031e-18</v>
+        <v>-7.157165835020609e-18</v>
       </c>
       <c r="M78" s="17" t="n">
         <v>11</v>
@@ -5092,25 +5092,25 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>-4.9140625</v>
+        <v>-4.40625</v>
       </c>
       <c r="E79" s="1" t="n">
-        <v>16.443359375</v>
+        <v>5.0859375</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G79" s="13" t="n">
-        <v>1.81431945855138e-06</v>
+        <v>5.318518224144463e-06</v>
       </c>
       <c r="H79" s="1" t="n">
-        <v>5.867791980044278e-17</v>
+        <v>5.585755083412532e-16</v>
       </c>
       <c r="I79" s="17" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J79" s="17" t="inlineStr">
         <is>
@@ -5118,10 +5118,10 @@
         </is>
       </c>
       <c r="K79" s="21" t="n">
-        <v>1.202852199447725e-11</v>
+        <v>2.620665104943507e-13</v>
       </c>
       <c r="L79" s="1" t="n">
-        <v>-7.15716583240052e-18</v>
+        <v>-7.157165835187076e-18</v>
       </c>
       <c r="M79" s="17" t="n">
         <v>7</v>
@@ -5138,25 +5138,25 @@
         <v>78</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>41</v>
+        <v>-97</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>-16.6650390625</v>
+        <v>-39.3349609375</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>15.37109375</v>
+        <v>32.746337890625</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G80" s="13" t="n">
-        <v>-6.160007216122053e-06</v>
+        <v>-2.052548496762024e-06</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>7.517566676209768e-16</v>
+        <v>7.710195925653019e-17</v>
       </c>
       <c r="I80" s="17" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J80" s="17" t="inlineStr">
         <is>
@@ -5164,13 +5164,13 @@
         </is>
       </c>
       <c r="K80" s="21" t="n">
-        <v>3.651579631259329e-10</v>
+        <v>-6.16557833145452e-08</v>
       </c>
       <c r="L80" s="1" t="n">
-        <v>-7.157163171663496e-18</v>
+        <v>-7.081136568333826e-18</v>
       </c>
       <c r="M80" s="17" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
@@ -5184,25 +5184,25 @@
         <v>79</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>-26</v>
+        <v>-45</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>-8.9140625</v>
+        <v>-19.37109375</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>12.443359375</v>
+        <v>12.6650390625</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G81" s="13" t="n">
-        <v>-8.863133068063119e-07</v>
+        <v>-6.008448707456478e-06</v>
       </c>
       <c r="H81" s="1" t="n">
-        <v>8.553867692714644e-18</v>
+        <v>7.148720056070687e-16</v>
       </c>
       <c r="I81" s="17" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J81" s="17" t="inlineStr">
         <is>
@@ -5210,10 +5210,10 @@
         </is>
       </c>
       <c r="K81" s="21" t="n">
-        <v>6.605780602209055e-13</v>
+        <v>1.454825383930707e-09</v>
       </c>
       <c r="L81" s="1" t="n">
-        <v>-7.157165835183231e-18</v>
+        <v>-7.15712351793277e-18</v>
       </c>
       <c r="M81" s="17" t="n">
         <v>7</v>
@@ -5276,43 +5276,43 @@
         <v>81</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>-76</v>
+        <v>-9</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>10.49755859375</v>
+        <v>-3.9375</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>118.6195068359375</v>
+        <v>2.390625</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G83" s="13" t="n">
-        <v>62.74818453710569</v>
+        <v>5.492899984993879e-06</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>-0.9211483054951155</v>
+        <v>5.962817896646402e-16</v>
       </c>
       <c r="I83" s="17" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J83" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K83" s="21" t="n">
-        <v>62.74818069504539</v>
+        <v>4.296454666202792e-13</v>
       </c>
       <c r="L83" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-7.157165835186182e-18</v>
       </c>
       <c r="M83" s="17" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -5322,25 +5322,25 @@
         <v>82</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44</v>
+        <v>-64</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>-13.6650390625</v>
+        <v>-25.556640625</v>
       </c>
       <c r="E84" s="1" t="n">
-        <v>18.37109375</v>
+        <v>22.49755859375</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>26</v>
       </c>
       <c r="G84" s="13" t="n">
-        <v>7.511011262425425e-06</v>
+        <v>-2.335287453574148e-07</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1.121148570296399e-15</v>
+        <v>-6.066450236674075e-18</v>
       </c>
       <c r="I84" s="17" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J84" s="17" t="inlineStr">
         <is>
@@ -5348,13 +5348,13 @@
         </is>
       </c>
       <c r="K84" s="21" t="n">
-        <v>1.085555396133686e-12</v>
+        <v>-9.452736831147844e-11</v>
       </c>
       <c r="L84" s="1" t="n">
-        <v>-7.157165835172255e-18</v>
+        <v>-7.157165655627402e-18</v>
       </c>
       <c r="M84" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
@@ -5368,43 +5368,43 @@
         <v>83</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>71</v>
+        <v>-55</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>59.609375</v>
+        <v>-16.556640625</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>65.9375</v>
+        <v>31.49755859375</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G85" s="13" t="n">
-        <v>62.7481756529883</v>
+        <v>2.156040332784837e-06</v>
       </c>
       <c r="H85" s="1" t="n">
-        <v>-0.9211483054949552</v>
+        <v>8.581301310534708e-17</v>
       </c>
       <c r="I85" s="17" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J85" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K85" s="21" t="n">
-        <v>62.74818067903946</v>
+        <v>3.945371268086361e-13</v>
       </c>
       <c r="L85" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-7.157165835186455e-18</v>
       </c>
       <c r="M85" s="17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -5414,25 +5414,25 @@
         <v>84</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>-49</v>
+        <v>-39</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>-10.556640625</v>
+        <v>-13.37109375</v>
       </c>
       <c r="E86" s="1" t="n">
-        <v>37.49755859375</v>
+        <v>18.6650390625</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G86" s="13" t="n">
-        <v>9.403217560770477e-07</v>
+        <v>-5.934470432502189e-06</v>
       </c>
       <c r="H86" s="1" t="n">
-        <v>1.052692580662935e-17</v>
+        <v>6.972016738238618e-16</v>
       </c>
       <c r="I86" s="17" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J86" s="17" t="inlineStr">
         <is>
@@ -5440,13 +5440,13 @@
         </is>
       </c>
       <c r="K86" s="21" t="n">
-        <v>2.346551613501226e-13</v>
+        <v>1.3593112727031e-12</v>
       </c>
       <c r="L86" s="1" t="n">
-        <v>-7.157165835187043e-18</v>
+        <v>-7.15716583516131e-18</v>
       </c>
       <c r="M86" s="17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
@@ -5460,43 +5460,43 @@
         <v>85</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>-41</v>
+        <v>90</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>-15.37109375</v>
+        <v>51.556640625</v>
       </c>
       <c r="E87" s="1" t="n">
-        <v>16.6650390625</v>
+        <v>72.9140625</v>
       </c>
       <c r="F87" s="2" t="n">
         <v>24</v>
       </c>
       <c r="G87" s="13" t="n">
-        <v>6.160007413365463e-06</v>
+        <v>62.74819033266255</v>
       </c>
       <c r="H87" s="1" t="n">
-        <v>7.517566054160934e-16</v>
+        <v>-0.9211483054939424</v>
       </c>
       <c r="I87" s="17" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J87" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K87" s="21" t="n">
-        <v>3.296860624509214e-13</v>
+        <v>62.74818069296104</v>
       </c>
       <c r="L87" s="1" t="n">
-        <v>-7.157165835186835e-18</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M87" s="17" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -5506,25 +5506,25 @@
         <v>86</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>-53</v>
+        <v>35</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>-14.556640625</v>
+        <v>-22.6650390625</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>33.49755859375</v>
+        <v>9.37109375</v>
       </c>
       <c r="F88" s="2" t="n">
         <v>26</v>
       </c>
       <c r="G88" s="13" t="n">
-        <v>-3.866728163261202e-06</v>
+        <v>-6.233985386363251e-06</v>
       </c>
       <c r="H88" s="1" t="n">
-        <v>2.91874602713076e-16</v>
+        <v>7.700943661806244e-16</v>
       </c>
       <c r="I88" s="17" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J88" s="17" t="inlineStr">
         <is>
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="K88" s="21" t="n">
-        <v>1.590844715806676e-12</v>
+        <v>2.536423571447252e-10</v>
       </c>
       <c r="L88" s="1" t="n">
-        <v>-7.157165835149734e-18</v>
+        <v>-7.157164550778444e-18</v>
       </c>
       <c r="M88" s="17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
@@ -5552,43 +5552,43 @@
         <v>87</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>81</v>
+        <v>-95</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>55.37109375</v>
+        <v>-37.3349609375</v>
       </c>
       <c r="E89" s="1" t="n">
-        <v>69.609375</v>
+        <v>34.746337890625</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G89" s="13" t="n">
-        <v>62.74818654397605</v>
+        <v>8.8892384858829e-07</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>-0.9211483054948234</v>
+        <v>8.646538341644512e-18</v>
       </c>
       <c r="I89" s="17" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J89" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K89" s="21" t="n">
-        <v>62.74818069490524</v>
+        <v>-6.294110771930749e-07</v>
       </c>
       <c r="L89" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>7.660059075766039e-19</v>
       </c>
       <c r="M89" s="17" t="n">
         <v>23</v>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -5598,25 +5598,25 @@
         <v>88</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>98</v>
+        <v>-77</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>40.3349609375</v>
+        <v>9.49755859375</v>
       </c>
       <c r="E90" s="1" t="n">
-        <v>72.37109375</v>
+        <v>117.6195068359375</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G90" s="13" t="n">
-        <v>62.74818233683443</v>
+        <v>62.74818397374746</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>-0.9211483054952967</v>
+        <v>-0.9211483054951757</v>
       </c>
       <c r="I90" s="17" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J90" s="17" t="inlineStr">
         <is>
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="K90" s="21" t="n">
-        <v>62.74818342049432</v>
+        <v>62.74818069482322</v>
       </c>
       <c r="L90" s="1" t="n">
-        <v>-0.9211483054952255</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M90" s="17" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
@@ -5644,43 +5644,43 @@
         <v>89</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>57.37109375</v>
+        <v>-1.375</v>
       </c>
       <c r="E91" s="1" t="n">
-        <v>71.609375</v>
+        <v>0.5</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G91" s="13" t="n">
-        <v>62.74818135790107</v>
+        <v>6.045779924477112e-06</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>-0.9211483054953304</v>
+        <v>7.23871877693319e-16</v>
       </c>
       <c r="I91" s="17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J91" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K91" s="21" t="n">
-        <v>62.74818069663296</v>
+        <v>2.374812069877698e-13</v>
       </c>
       <c r="L91" s="1" t="n">
-        <v>-0.9211483054953372</v>
+        <v>-7.157165835187068e-18</v>
       </c>
       <c r="M91" s="17" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -5690,25 +5690,25 @@
         <v>90</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>-31</v>
+        <v>-7</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>-13.9140625</v>
+        <v>-1.9375</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>7.443359375</v>
+        <v>4.390625</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G92" s="13" t="n">
-        <v>-4.262104213725625e-06</v>
+        <v>-4.178359793219809e-06</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>3.56153519071062e-16</v>
+        <v>3.420166829766351e-16</v>
       </c>
       <c r="I92" s="17" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J92" s="17" t="inlineStr">
         <is>
@@ -5716,10 +5716,10 @@
         </is>
       </c>
       <c r="K92" s="21" t="n">
-        <v>3.555449099406983e-11</v>
+        <v>3.514887574600811e-13</v>
       </c>
       <c r="L92" s="1" t="n">
-        <v>-7.157165810223397e-18</v>
+        <v>-7.157165835186792e-18</v>
       </c>
       <c r="M92" s="17" t="n">
         <v>7</v>
@@ -5736,25 +5736,25 @@
         <v>91</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>30</v>
+        <v>-56</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>-8.443359375</v>
+        <v>-17.556640625</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>12.9140625</v>
+        <v>30.49755859375</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G93" s="13" t="n">
-        <v>3.586944407224688e-06</v>
+        <v>9.542778387358012e-07</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>2.50166205514318e-16</v>
+        <v>1.105574945211775e-17</v>
       </c>
       <c r="I93" s="17" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J93" s="17" t="inlineStr">
         <is>
@@ -5762,13 +5762,13 @@
         </is>
       </c>
       <c r="K93" s="21" t="n">
-        <v>9.151727365490307e-13</v>
+        <v>2.759987939714707e-13</v>
       </c>
       <c r="L93" s="1" t="n">
-        <v>-7.157165835177546e-18</v>
+        <v>-7.157165835187028e-18</v>
       </c>
       <c r="M93" s="17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N93" s="2" t="inlineStr">
         <is>
@@ -5782,22 +5782,22 @@
         <v>92</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>-3.0859375</v>
+        <v>-6.40625</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>6.40625</v>
+        <v>3.0859375</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G94" s="13" t="n">
-        <v>4.018629474823853e-06</v>
+        <v>-4.018629445895966e-06</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>3.158304551397931e-16</v>
+        <v>3.158305227765587e-16</v>
       </c>
       <c r="I94" s="17" t="n">
         <v>58</v>
@@ -5808,10 +5808,10 @@
         </is>
       </c>
       <c r="K94" s="21" t="n">
-        <v>4.912858819793555e-13</v>
+        <v>8.903585907418546e-13</v>
       </c>
       <c r="L94" s="1" t="n">
-        <v>-7.157165835185606e-18</v>
+        <v>-7.157165835178188e-18</v>
       </c>
       <c r="M94" s="17" t="n">
         <v>7</v>
@@ -5828,43 +5828,43 @@
         <v>93</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>-77</v>
+        <v>-12</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>9.49755859375</v>
+        <v>-4.40625</v>
       </c>
       <c r="E95" s="1" t="n">
-        <v>117.6195068359375</v>
+        <v>5.0859375</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G95" s="13" t="n">
-        <v>62.74818397374746</v>
+        <v>5.318518224144463e-06</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>-0.9211483054951757</v>
+        <v>5.585755083412532e-16</v>
       </c>
       <c r="I95" s="17" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J95" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K95" s="21" t="n">
-        <v>62.74818069482322</v>
+        <v>2.620665104943507e-13</v>
       </c>
       <c r="L95" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-7.157165835187076e-18</v>
       </c>
       <c r="M95" s="17" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N95" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -5874,43 +5874,43 @@
         <v>94</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>-91</v>
+        <v>86</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>-33.3349609375</v>
+        <v>47.556640625</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>38.746337890625</v>
+        <v>68.9140625</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G96" s="13" t="n">
-        <v>-1.039735037773916e-06</v>
+        <v>62.74817782744181</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1.44638224916376e-17</v>
+        <v>-0.9211483054952134</v>
       </c>
       <c r="I96" s="17" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J96" s="17" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
       <c r="K96" s="21" t="n">
-        <v>4.509206374095842e-13</v>
+        <v>62.74818061286374</v>
       </c>
       <c r="L96" s="1" t="n">
-        <v>-7.157165835186062e-18</v>
+        <v>-0.921148305495337</v>
       </c>
       <c r="M96" s="17" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N96" s="2" t="inlineStr">
         <is>
-          <t>lokalne</t>
+          <t>globalne</t>
         </is>
       </c>
     </row>
@@ -5920,25 +5920,25 @@
         <v>95</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>-66</v>
+        <v>-34</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>-27.556640625</v>
+        <v>-8.37109375</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>20.49755859375</v>
+        <v>23.6650390625</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G97" s="13" t="n">
-        <v>-2.637053575461264e-06</v>
+        <v>-4.357929816693938e-06</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>1.3192388907939e-16</v>
+        <v>3.726739191043558e-16</v>
       </c>
       <c r="I97" s="17" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J97" s="17" t="inlineStr">
         <is>
@@ -5946,10 +5946,10 @@
         </is>
       </c>
       <c r="K97" s="21" t="n">
-        <v>-1.359649992306141e-06</v>
+        <v>7.328615136741669e-11</v>
       </c>
       <c r="L97" s="1" t="n">
-        <v>2.981580842500291e-17</v>
+        <v>-7.157165728427987e-18</v>
       </c>
       <c r="M97" s="17" t="n">
         <v>7</v>
@@ -5966,22 +5966,22 @@
         <v>96</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>-40</v>
+        <v>-43</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>-14.37109375</v>
+        <v>-17.37109375</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>17.6650390625</v>
+        <v>14.6650390625</v>
       </c>
       <c r="F98" s="2" t="n">
         <v>24</v>
       </c>
       <c r="G98" s="13" t="n">
-        <v>4.657444831412471e-06</v>
+        <v>-9.01357345801988e-06</v>
       </c>
       <c r="H98" s="1" t="n">
-        <v>4.266786394288368e-16</v>
+        <v>1.617733044894491e-15</v>
       </c>
       <c r="I98" s="17" t="n">
         <v>62</v>
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="K98" s="21" t="n">
-        <v>6.45330703642918e-13</v>
+        <v>1.259036258654984e-09</v>
       </c>
       <c r="L98" s="1" t="n">
-        <v>-7.157165835183578e-18</v>
+        <v>-7.157134143063765e-18</v>
       </c>
       <c r="M98" s="17" t="n">
         <v>7</v>
@@ -6012,25 +6012,25 @@
         <v>97</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>57.9140625</v>
+        <v>62</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>67.40625</v>
+        <v>64</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G99" s="13" t="n">
-        <v>62.748184690778</v>
+        <v>62.74817737586172</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>-0.9211483054950973</v>
+        <v>-0.9211483054951717</v>
       </c>
       <c r="I99" s="17" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J99" s="17" t="inlineStr">
         <is>
@@ -6038,13 +6038,13 @@
         </is>
       </c>
       <c r="K99" s="21" t="n">
-        <v>62.74818058277948</v>
+        <v>62.74818069496589</v>
       </c>
       <c r="L99" s="1" t="n">
-        <v>-0.921148305495337</v>
+        <v>-0.9211483054953371</v>
       </c>
       <c r="M99" s="17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
@@ -6058,25 +6058,25 @@
         <v>98</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>61.40625</v>
+        <v>48.556640625</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>65.625</v>
+        <v>69.9140625</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G100" s="13" t="n">
-        <v>62.74817903963999</v>
+        <v>62.74818830718554</v>
       </c>
       <c r="H100" s="1" t="n">
-        <v>-0.9211483054952958</v>
+        <v>-0.921148305494467</v>
       </c>
       <c r="I100" s="17" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J100" s="17" t="inlineStr">
         <is>
@@ -6084,13 +6084,13 @@
         </is>
       </c>
       <c r="K100" s="21" t="n">
-        <v>62.74818069489217</v>
+        <v>62.74818048728037</v>
       </c>
       <c r="L100" s="1" t="n">
-        <v>-0.9211483054953371</v>
+        <v>-0.9211483054953364</v>
       </c>
       <c r="M100" s="17" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
@@ -6104,43 +6104,43 @@
         <v>99</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>76</v>
+        <v>-25</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>58.9140625</v>
+        <v>-7.9140625</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>68.40625</v>
+        <v>13.443359375</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G101" s="13" t="n">
-        <v>62.74818583398508</v>
+        <v>-2.111552434181964e-07</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>-0.9211483054949405</v>
+        <v>-6.265433199604567e-18</v>
       </c>
       <c r="I101" s="17" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J101" s="17" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
       <c r="K101" s="21" t="n">
-        <v>62.74818046282726</v>
+        <v>1.337422244503723e-12</v>
       </c>
       <c r="L101" s="1" t="n">
-        <v>-0.9211483054953362</v>
+        <v>-7.157165835162337e-18</v>
       </c>
       <c r="M101" s="17" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N101" s="2" t="inlineStr">
         <is>
-          <t>globalne</t>
+          <t>lokalne</t>
         </is>
       </c>
     </row>
@@ -6150,25 +6150,25 @@
         <v>100</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>-46</v>
+        <v>-52</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>-20.37109375</v>
+        <v>-13.556640625</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>11.6650390625</v>
+        <v>34.49755859375</v>
       </c>
       <c r="F102" s="4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G102" s="14" t="n">
-        <v>4.583466422285978e-06</v>
+        <v>-2.664965892806675e-06</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>4.130060818256451e-16</v>
+        <v>1.348837223298284e-16</v>
       </c>
       <c r="I102" s="18" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J102" s="18" t="inlineStr">
         <is>
@@ -6176,13 +6176,13 @@
         </is>
       </c>
       <c r="K102" s="22" t="n">
-        <v>9.773050517855522e-10</v>
+        <v>3.109820874781059e-12</v>
       </c>
       <c r="L102" s="3" t="n">
-        <v>-7.157146741472656e-18</v>
+        <v>-7.157165835020609e-18</v>
       </c>
       <c r="M102" s="18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N102" s="4" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A2"/>
@@ -12228,6 +12228,3184 @@
         <v>20.0027454392775</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.8409496109340183</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.990973426933204</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.008988871854754</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20.61559874578514</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.681899221868037</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.981955012813959</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.01793223069065</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21.21497078522772</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>6.138438739555893</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.934277328351711</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.064701500066186</v>
+      </c>
+      <c r="F145" t="n">
+        <v>24.18554305467275</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>10.59497825724375</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.886828881651292</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.110244265390404</v>
+      </c>
+      <c r="F146" t="n">
+        <v>26.77948894712974</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>15.05151777493161</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.839609672695234</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.154606711230207</v>
+      </c>
+      <c r="F147" t="n">
+        <v>29.05924503862631</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>23.25043070066528</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.753337010503995</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.233265825521134</v>
+      </c>
+      <c r="F148" t="n">
+        <v>32.57481462292541</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>31.44934362639895</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.667840243664756</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.308317558944887</v>
+      </c>
+      <c r="F149" t="n">
+        <v>35.43226977351459</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>39.64825655213262</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.583119372177674</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.379963986616424</v>
+      </c>
+      <c r="F150" t="n">
+        <v>37.78041256840326</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>47.8471694778663</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.499174396042751</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.448389993028215</v>
+      </c>
+      <c r="F151" t="n">
+        <v>39.73145092360551</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>63.23029040911011</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.343767114736372</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.568641446110442</v>
+      </c>
+      <c r="F152" t="n">
+        <v>42.58510232443351</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>78.61341134035393</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.191091196985923</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.679076875261241</v>
+      </c>
+      <c r="F153" t="n">
+        <v>44.69364603630402</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>93.99653227159776</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.041146642791404</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.78049266121987</v>
+      </c>
+      <c r="F154" t="n">
+        <v>46.27897507399852</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>109.3796532028416</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3.893933452152814</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.873571162791235</v>
+      </c>
+      <c r="F155" t="n">
+        <v>47.48502357313741</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>135.988419677524</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3.645741606578731</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.016571327430198</v>
+      </c>
+      <c r="F156" t="n">
+        <v>48.93693341754182</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>162.5971861522063</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3.405721981694168</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.138974398736305</v>
+      </c>
+      <c r="F157" t="n">
+        <v>49.85348552880124</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>189.2059526268887</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3.173874577499124</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.242916600102465</v>
+      </c>
+      <c r="F158" t="n">
+        <v>50.40754371361011</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>215.8147191015711</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2.950199393993599</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.330199094642493</v>
+      </c>
+      <c r="F159" t="n">
+        <v>50.70589017822629</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>265.1137255800245</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2.557385021233341</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.452908530036138</v>
+      </c>
+      <c r="F160" t="n">
+        <v>50.79223992938875</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>314.4127320584781</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2.192622849091156</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.53179751191838</v>
+      </c>
+      <c r="F161" t="n">
+        <v>50.48484457181061</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>363.7117385369316</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.855912877567042</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.573379503960412</v>
+      </c>
+      <c r="F162" t="n">
+        <v>49.89992912511838</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>413.0107450153851</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.547255106661001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.583038064231167</v>
+      </c>
+      <c r="F163" t="n">
+        <v>49.10226925862712</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>489.4013437290549</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.124390191874911</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2.545273747950348</v>
+      </c>
+      <c r="F164" t="n">
+        <v>47.5236786977437</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>565.7919424427247</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7688803684775081</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.455755697601226</v>
+      </c>
+      <c r="F165" t="n">
+        <v>45.57574218933235</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>642.1825411563944</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.4807256364687917</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.325912892115686</v>
+      </c>
+      <c r="F166" t="n">
+        <v>43.25187358407284</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>718.5731398700642</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.2599259958487622</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2.165342696690067</v>
+      </c>
+      <c r="F167" t="n">
+        <v>40.51539138154926</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>815.4942815487397</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.0767257197711264</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.930125105389745</v>
+      </c>
+      <c r="F168" t="n">
+        <v>36.34243504936676</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>912.4154232274151</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.001949997739607566</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.673010612872435</v>
+      </c>
+      <c r="F169" t="n">
+        <v>31.18211732331628</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>924.0257683243552</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.0002646169178788894</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.641344163218475</v>
+      </c>
+      <c r="F170" t="n">
+        <v>30.48346914143776</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>926.7932305953824</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9.251993950891056e-05</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.633776507409074</v>
+      </c>
+      <c r="F171" t="n">
+        <v>30.31399193217312</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>929.5606928664096</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8.823318307108465e-06</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.626202410827826</v>
+      </c>
+      <c r="F172" t="n">
+        <v>30.14339056975994</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>931.0087457901423</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.622238599573341</v>
+      </c>
+      <c r="F173" t="n">
+        <v>30.05373880521003</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>931.8413762210101</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.619963659982799</v>
+      </c>
+      <c r="F174" t="n">
+        <v>30.00223310325888</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>932.674006651878</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.617696149360047</v>
+      </c>
+      <c r="F175" t="n">
+        <v>29.95091955846906</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>934.3392675136138</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.613183310276759</v>
+      </c>
+      <c r="F176" t="n">
+        <v>29.84886775460587</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>936.0045283753495</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.608699946000214</v>
+      </c>
+      <c r="F177" t="n">
+        <v>29.74758181402031</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>937.6697892370853</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.604245913068919</v>
+      </c>
+      <c r="F178" t="n">
+        <v>29.64706002933218</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>954.3223978544432</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.561260045561274</v>
+      </c>
+      <c r="F179" t="n">
+        <v>28.68309162418475</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>970.9750064718012</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.521031051250995</v>
+      </c>
+      <c r="F180" t="n">
+        <v>27.79296785892389</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>987.6276150891591</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.483424140687124</v>
+      </c>
+      <c r="F181" t="n">
+        <v>26.97429839343554</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1032.529293812926</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.393591686246383</v>
+      </c>
+      <c r="F182" t="n">
+        <v>25.09055693741076</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1077.430972536692</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.319178787219805</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23.63729059269827</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1122.332651260458</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.257962899489375</v>
+      </c>
+      <c r="F184" t="n">
+        <v>22.54498471222026</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1175.132499389958</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.200732593002563</v>
+      </c>
+      <c r="F185" t="n">
+        <v>21.64927631939791</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1227.932347519458</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.15610272267665</v>
+      </c>
+      <c r="F186" t="n">
+        <v>21.06044446584271</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1280.732195648958</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.121169483021601</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20.67700907453198</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1333.532043778459</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.093851576993558</v>
+      </c>
+      <c r="F188" t="n">
+        <v>20.42917990752407</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1397.691061216219</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.068557886693013</v>
+      </c>
+      <c r="F189" t="n">
+        <v>20.2420298959766</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1461.850078653979</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.049817879879377</v>
+      </c>
+      <c r="F190" t="n">
+        <v>20.12627287573982</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1526.009096091739</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.036096084665677</v>
+      </c>
+      <c r="F191" t="n">
+        <v>20.05811722001047</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1590.168113529499</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.026166163507127</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20.0233960572308</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1654.32713096726</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.01900245320147</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20.00936793818201</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1759.309323818305</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.011348987752823</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20.00481135501986</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1864.29151666935</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.006883068552752</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20.00498853800849</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1969.273709520395</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.004225572338174</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20.0038232812892</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-1.509783576222916e-06</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.003629473403333</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20.00287452690102</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.5530838384956669</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.990972974484379</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.009002192865803</v>
+      </c>
+      <c r="G199" t="n">
+        <v>20.61735055985472</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.106167676991334</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4.981954108734802</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.017971587385145</v>
+      </c>
+      <c r="G200" t="n">
+        <v>21.22009045063943</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>4.227295009682589</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.931189405140608</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.0680742950525</v>
+      </c>
+      <c r="G201" t="n">
+        <v>24.41098394451911</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>7.348422342373844</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.880684666733902</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.11716772003815</v>
+      </c>
+      <c r="G202" t="n">
+        <v>27.21587352072163</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>10.4695496750651</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.830439893496144</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.165283226665103</v>
+      </c>
+      <c r="G203" t="n">
+        <v>29.69734155840597</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>16.25350471150709</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.738015447816081</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.251951251349224</v>
+      </c>
+      <c r="G204" t="n">
+        <v>33.58602802900963</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>22.03745974794908</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.646483777104849</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.335529942184641</v>
+      </c>
+      <c r="G205" t="n">
+        <v>36.77997453451788</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>27.82141478439107</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.555844881362656</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.416160597564608</v>
+      </c>
+      <c r="G206" t="n">
+        <v>39.43370423833509</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>33.60536982083305</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.466098760589502</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.493972755931193</v>
+      </c>
+      <c r="G207" t="n">
+        <v>41.66405131412034</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>44.46955062539692</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.299939233983012</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.632903518437018</v>
+      </c>
+      <c r="G208" t="n">
+        <v>44.98539752815603</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>55.33373142996079</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.136929530437466</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.762964513065286</v>
+      </c>
+      <c r="G209" t="n">
+        <v>47.49748838141891</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>66.19791223452465</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.977069649952865</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.884722613083985</v>
+      </c>
+      <c r="G210" t="n">
+        <v>49.43604772385294</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>77.06209303908852</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.820359592529209</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.998666380924</v>
+      </c>
+      <c r="G211" t="n">
+        <v>50.9548240374415</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>95.90564177338189</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.556020924871512</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2.178987018283632</v>
+      </c>
+      <c r="G212" t="n">
+        <v>52.87550587575751</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>114.7491905076753</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.301158094167408</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.33896971965186</v>
+      </c>
+      <c r="G213" t="n">
+        <v>54.18390962154582</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>133.5927392419686</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.055771100416895</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.480197436391341</v>
+      </c>
+      <c r="G214" t="n">
+        <v>55.07253409136097</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>152.436287976262</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.819859943619974</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.604020820654053</v>
+      </c>
+      <c r="G215" t="n">
+        <v>55.66104405168598</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>187.1937303341963</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.409574298380464</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.790551835076483</v>
+      </c>
+      <c r="G216" t="n">
+        <v>56.19294682320586</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>221.9511726921307</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.031528117038143</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.928021768580461</v>
+      </c>
+      <c r="G217" t="n">
+        <v>56.24745408172926</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>256.7086150500651</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.68572139959301</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3.021550829027424</v>
+      </c>
+      <c r="G218" t="n">
+        <v>55.96353937589496</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>291.4660574079994</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.372154146045066</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3.075496858152982</v>
+      </c>
+      <c r="G219" t="n">
+        <v>55.41857898774609</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>358.9990089997646</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.8550747403700243</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3.080864790872677</v>
+      </c>
+      <c r="G220" t="n">
+        <v>53.74678495740628</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>426.5319605915297</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.4597046030727993</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.97472667908668</v>
+      </c>
+      <c r="G221" t="n">
+        <v>51.35135743118339</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>494.0649121832948</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.1860437341533911</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2.777096623435324</v>
+      </c>
+      <c r="G222" t="n">
+        <v>48.15957568029649</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>561.59786377506</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.03409213361179971</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2.505762151514297</v>
+      </c>
+      <c r="G223" t="n">
+        <v>43.97034509888925</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>607.2126221761484</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.0003246110982174301</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2.289540827593891</v>
+      </c>
+      <c r="G224" t="n">
+        <v>40.38928797493633</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>609.8152522301314</v>
+      </c>
+      <c r="C225" t="n">
+        <v>7.241952143147936e-05</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.276494165131875</v>
+      </c>
+      <c r="G225" t="n">
+        <v>40.16366938049081</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>611.3117645112196</v>
+      </c>
+      <c r="C226" t="n">
+        <v>9.262529842940386e-06</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2.268961702775589</v>
+      </c>
+      <c r="G226" t="n">
+        <v>40.03271491689033</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>612.1722590728494</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2.2646207386296</v>
+      </c>
+      <c r="G227" t="n">
+        <v>39.95702330534969</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>612.6670434457882</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.262124802232387</v>
+      </c>
+      <c r="G228" t="n">
+        <v>39.9134439167885</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>613.1618278187269</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.259632968168386</v>
+      </c>
+      <c r="G229" t="n">
+        <v>39.86991178216414</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>614.1513965646045</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2.254661581602864</v>
+      </c>
+      <c r="G230" t="n">
+        <v>39.7829896981392</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>615.1409653104821</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E231" t="n">
+        <v>2.249706546533962</v>
+      </c>
+      <c r="G231" t="n">
+        <v>39.69625761578607</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>616.1305340563597</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2.244767829072911</v>
+      </c>
+      <c r="G232" t="n">
+        <v>39.60971612961497</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>626.0262215151354</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.196263975108796</v>
+      </c>
+      <c r="G233" t="n">
+        <v>38.7550232667891</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>635.9219089739111</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2.149349174978651</v>
+      </c>
+      <c r="G234" t="n">
+        <v>37.92009385806525</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>645.8175964326867</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2.103990044933062</v>
+      </c>
+      <c r="G235" t="n">
+        <v>37.1054384340627</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>693.4929500815289</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.905476433325982</v>
+      </c>
+      <c r="G236" t="n">
+        <v>33.48559468888733</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>741.168303730371</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.738099123177689</v>
+      </c>
+      <c r="G237" t="n">
+        <v>30.38080481445374</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>788.8436573792131</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.598320375109325</v>
+      </c>
+      <c r="G238" t="n">
+        <v>27.79568148001173</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>843.0048497443764</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.469484465067143</v>
+      </c>
+      <c r="G239" t="n">
+        <v>25.46332323149679</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>897.1660421095397</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.366952333852383</v>
+      </c>
+      <c r="G240" t="n">
+        <v>23.71589256301748</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>951.327234474703</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.285611168129877</v>
+      </c>
+      <c r="G241" t="n">
+        <v>22.46136184225524</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1005.488426839866</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.221436801207495</v>
+      </c>
+      <c r="G242" t="n">
+        <v>21.59494853455611</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1072.040474609874</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.161395555194535</v>
+      </c>
+      <c r="G243" t="n">
+        <v>20.91701623755693</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1138.592522379882</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.117299200237463</v>
+      </c>
+      <c r="G244" t="n">
+        <v>20.52432458684277</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1205.144570149889</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.085089800240109</v>
+      </c>
+      <c r="G245" t="n">
+        <v>20.30380905968864</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1271.696617919897</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.061646285516967</v>
+      </c>
+      <c r="G246" t="n">
+        <v>20.18084065632963</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1370.138023796937</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.0380872975708</v>
+      </c>
+      <c r="G247" t="n">
+        <v>20.07992125825865</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1468.579429673978</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.023091186015005</v>
+      </c>
+      <c r="G248" t="n">
+        <v>20.01833500333782</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1546.897786166378</v>
+      </c>
+      <c r="C249" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.015509000834282</v>
+      </c>
+      <c r="G249" t="n">
+        <v>20.00518158165238</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1625.216142658777</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.01052352651692</v>
+      </c>
+      <c r="G250" t="n">
+        <v>20.00784350371704</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1703.534499151177</v>
+      </c>
+      <c r="C251" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.007171699824748</v>
+      </c>
+      <c r="G251" t="n">
+        <v>20.0074841196267</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1781.852855643577</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.004852162288132</v>
+      </c>
+      <c r="G252" t="n">
+        <v>20.00188338391537</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1860.171212135976</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.003255073197708</v>
+      </c>
+      <c r="G253" t="n">
+        <v>19.99840470449675</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1971.156167844916</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.001786652813672</v>
+      </c>
+      <c r="G254" t="n">
+        <v>19.99483214460343</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-3.037710479586017e-07</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.001542523748516</v>
+      </c>
+      <c r="G255" t="n">
+        <v>19.99544214675205</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0</v>
+      </c>
+      <c r="B256" t="n">
+        <v>5</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.8934086268539385</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4.990973529516955</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.008986428409915</v>
+      </c>
+      <c r="F257" t="n">
+        <v>20.61527927900455</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1.786817253707877</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4.98195521779589</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.017925034805639</v>
+      </c>
+      <c r="F258" t="n">
+        <v>21.21403936730948</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>6.4708773240163</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4.934785215864527</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.064146625704287</v>
+      </c>
+      <c r="F259" t="n">
+        <v>24.14833589842135</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>11.15493739432472</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4.887839584214432</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.109108211136645</v>
+      </c>
+      <c r="F260" t="n">
+        <v>26.70760299792155</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>15.83899746463315</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4.841118322828315</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.152858549367046</v>
+      </c>
+      <c r="F261" t="n">
+        <v>28.95425541614319</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>24.44581435397607</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4.755854342968057</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.230224134686863</v>
+      </c>
+      <c r="F262" t="n">
+        <v>32.40907744579356</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>33.05263124331899</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4.671347903009186</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.303907868041796</v>
+      </c>
+      <c r="F263" t="n">
+        <v>35.21196050214482</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>41.65944813266191</v>
+      </c>
+      <c r="B264" t="n">
+        <v>4.587599002951852</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.37412199590739</v>
+      </c>
+      <c r="F264" t="n">
+        <v>37.51074894351068</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>50.26626502200484</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4.504607642796057</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.441060630776547</v>
+      </c>
+      <c r="F265" t="n">
+        <v>39.41687370350397</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>66.4129427430198</v>
+      </c>
+      <c r="B266" t="n">
+        <v>4.350956728964897</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.558387960638926</v>
+      </c>
+      <c r="F266" t="n">
+        <v>42.19607895107126</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>82.55962046403475</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4.199971978399749</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.665781738413662</v>
+      </c>
+      <c r="F267" t="n">
+        <v>44.24094204774179</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>98.7062981850497</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.051653391100613</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.764075779342636</v>
+      </c>
+      <c r="F268" t="n">
+        <v>45.77106969521412</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>114.8529759060647</v>
+      </c>
+      <c r="B269" t="n">
+        <v>3.906000967067488</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.853983690327267</v>
+      </c>
+      <c r="F269" t="n">
+        <v>46.92876860725654</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>142.7716026062278</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.660449159411821</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.991409213956905</v>
+      </c>
+      <c r="F270" t="n">
+        <v>48.30962291766775</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>170.6902293063908</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.422868272482402</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2.10829550618599</v>
+      </c>
+      <c r="F271" t="n">
+        <v>49.16814402828486</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>198.6088560065539</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.19325830627923</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2.206862347596608</v>
+      </c>
+      <c r="F272" t="n">
+        <v>49.67394052168504</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>226.527482706717</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2.971619260802305</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2.288976860512224</v>
+      </c>
+      <c r="F273" t="n">
+        <v>49.93166769363287</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>278.3137287052485</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2.58160632253567</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2.402932849133522</v>
+      </c>
+      <c r="F274" t="n">
+        <v>49.958429679403</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>330.0999747037799</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2.219018549093735</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2.474110879426628</v>
+      </c>
+      <c r="F275" t="n">
+        <v>49.60633588353573</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>381.8862207023114</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1.883855940476501</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.509202549015848</v>
+      </c>
+      <c r="F276" t="n">
+        <v>48.98790535692064</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>433.6724667008428</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1.576118496683968</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2.513704981871316</v>
+      </c>
+      <c r="F277" t="n">
+        <v>48.16598791162765</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>510.3528247356186</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1.170818075589587</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2.473768906843886</v>
+      </c>
+      <c r="F278" t="n">
+        <v>46.64565219119208</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>587.0331827703943</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.8256473009538371</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2.389202662083144</v>
+      </c>
+      <c r="F279" t="n">
+        <v>44.80523492154396</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>663.7135408051701</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.5406061727767182</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2.270034420329485</v>
+      </c>
+      <c r="F280" t="n">
+        <v>42.64324265138597</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>740.3938988399458</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.3156946910582302</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2.124625128245727</v>
+      </c>
+      <c r="F281" t="n">
+        <v>40.13514835027565</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>836.0102829035267</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.1194782664430722</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.917159802750123</v>
+      </c>
+      <c r="F282" t="n">
+        <v>36.45109387623037</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>931.6266669671076</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.01675611680734353</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.691485203327936</v>
+      </c>
+      <c r="F283" t="n">
+        <v>32.01661086844891</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>955.5307629830028</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.005684059863947176</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.633400745200772</v>
+      </c>
+      <c r="F284" t="n">
+        <v>30.76819211098516</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>979.434858998898</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.0004553951067651519</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.574912690873139</v>
+      </c>
+      <c r="F285" t="n">
+        <v>29.45510440328091</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>981.7256682004213</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.0002611435478686314</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.569292104276514</v>
+      </c>
+      <c r="F286" t="n">
+        <v>29.32575741650716</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>984.0164774019446</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.0001205578651267511</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.563669257465051</v>
+      </c>
+      <c r="F287" t="n">
+        <v>29.19577809928246</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>986.3072866034679</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3.363805853951241e-05</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.558044258884469</v>
+      </c>
+      <c r="F288" t="n">
+        <v>29.06516167572948</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>988.2476918195783</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1.994098511632555e-06</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.553278062335216</v>
+      </c>
+      <c r="F289" t="n">
+        <v>28.95402292343112</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>989.3634248188418</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.550539657169765</v>
+      </c>
+      <c r="F290" t="n">
+        <v>28.89001890986394</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>990.4791578181054</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.547809938204079</v>
+      </c>
+      <c r="F291" t="n">
+        <v>28.82622189235188</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>991.5948908173689</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.545092432035145</v>
+      </c>
+      <c r="F292" t="n">
+        <v>28.76277154518727</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>993.8263568158959</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1.539693816846688</v>
+      </c>
+      <c r="F293" t="n">
+        <v>28.63690655401047</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>996.0578228144229</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.534343497905942</v>
+      </c>
+      <c r="F294" t="n">
+        <v>28.51241822621817</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>998.28928881295</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1.529041145469674</v>
+      </c>
+      <c r="F295" t="n">
+        <v>28.38930042499004</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1020.60394879822</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1.478522401471743</v>
+      </c>
+      <c r="F296" t="n">
+        <v>27.23080805619834</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1042.91860878349</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.432401495177042</v>
+      </c>
+      <c r="F297" t="n">
+        <v>26.20063591879184</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1065.23326876876</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.390377427840503</v>
+      </c>
+      <c r="F298" t="n">
+        <v>25.29105072347254</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1109.934359106011</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.317449450254635</v>
+      </c>
+      <c r="F299" t="n">
+        <v>23.79919556593513</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1154.635449443261</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.257566444322465</v>
+      </c>
+      <c r="F300" t="n">
+        <v>22.68457789126532</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1199.336539780512</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1.208504753081407</v>
+      </c>
+      <c r="F301" t="n">
+        <v>21.86955605606778</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1244.037630117763</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1.168438478455136</v>
+      </c>
+      <c r="F302" t="n">
+        <v>21.28562466440017</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1313.497386989929</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1.1204571182762</v>
+      </c>
+      <c r="F303" t="n">
+        <v>20.70391108876871</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1382.957143862096</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.08570208630203</v>
+      </c>
+      <c r="F304" t="n">
+        <v>20.37407141291423</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1452.416900734262</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1.0607611132368</v>
+      </c>
+      <c r="F305" t="n">
+        <v>20.19181651258813</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1521.876657606429</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.043029214033629</v>
+      </c>
+      <c r="F306" t="n">
+        <v>20.09488329058409</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1591.336414478595</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.030471736322768</v>
+      </c>
+      <c r="F307" t="n">
+        <v>20.04564204694942</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1673.540568874452</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.020234361943284</v>
+      </c>
+      <c r="F308" t="n">
+        <v>20.01718476449281</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1755.74472327031</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.013396036461929</v>
+      </c>
+      <c r="F309" t="n">
+        <v>20.00437239052743</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1837.948877666167</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.008834956260129</v>
+      </c>
+      <c r="F310" t="n">
+        <v>19.9990755369973</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1920.153032062024</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1.005812560217769</v>
+      </c>
+      <c r="F311" t="n">
+        <v>19.99774064158896</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-1.568597586192134e-06</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1.003872635386206</v>
+      </c>
+      <c r="F312" t="n">
+        <v>19.99817462623767</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>5</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+      <c r="G313" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.8917499666242285</v>
+      </c>
+      <c r="C314" t="n">
+        <v>4.990973526178418</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1.008986505742159</v>
+      </c>
+      <c r="G314" t="n">
+        <v>20.6152893810204</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1.783499933248457</v>
+      </c>
+      <c r="C315" t="n">
+        <v>4.981955211124855</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1.017925262438357</v>
+      </c>
+      <c r="G315" t="n">
+        <v>21.21406880970258</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>6.460433916439262</v>
+      </c>
+      <c r="C316" t="n">
+        <v>4.934769388485744</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1.06416391826728</v>
+      </c>
+      <c r="G316" t="n">
+        <v>24.1494959732635</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>11.13736789963007</v>
+      </c>
+      <c r="C317" t="n">
+        <v>4.887808087019015</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1.109143603028273</v>
+      </c>
+      <c r="G317" t="n">
+        <v>26.70984368427506</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>15.81430188282087</v>
+      </c>
+      <c r="C318" t="n">
+        <v>4.84107130670737</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1.152912994206899</v>
+      </c>
+      <c r="G318" t="n">
+        <v>28.95752736335955</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>24.40835865448147</v>
+      </c>
+      <c r="C319" t="n">
+        <v>4.75577590594795</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1.230318788980774</v>
+      </c>
+      <c r="G319" t="n">
+        <v>32.41423970529875</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>33.00241542614206</v>
+      </c>
+      <c r="C320" t="n">
+        <v>4.671238613441179</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.304045006888933</v>
+      </c>
+      <c r="G320" t="n">
+        <v>35.21881991258292</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>41.59647219780265</v>
+      </c>
+      <c r="C321" t="n">
+        <v>4.587459429187206</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1.374303576897196</v>
+      </c>
+      <c r="G321" t="n">
+        <v>37.51914227465764</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>50.19052896946324</v>
+      </c>
+      <c r="C322" t="n">
+        <v>4.504438353186033</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1.441288323607221</v>
+      </c>
+      <c r="G322" t="n">
+        <v>39.42666201929434</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>66.31331741119391</v>
+      </c>
+      <c r="C323" t="n">
+        <v>4.35073276039477</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1.558706152784024</v>
+      </c>
+      <c r="G323" t="n">
+        <v>42.20817609103443</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>82.43610585292457</v>
+      </c>
+      <c r="C324" t="n">
+        <v>4.19969534744421</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1.666193935837951</v>
+      </c>
+      <c r="G324" t="n">
+        <v>44.25501156083083</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>98.55889429465523</v>
+      </c>
+      <c r="C325" t="n">
+        <v>4.051326114334353</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1.764584323862496</v>
+      </c>
+      <c r="G325" t="n">
+        <v>45.78684645484594</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>114.6816827363859</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3.905625061065199</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1.854589953786515</v>
+      </c>
+      <c r="G326" t="n">
+        <v>46.94603828091287</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>142.5593332679459</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.659991068567629</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1.992186875830348</v>
+      </c>
+      <c r="G327" t="n">
+        <v>48.32908016782005</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>170.4369837995059</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3.422334214471011</v>
+      </c>
+      <c r="E328" t="n">
+        <v>2.109242373789144</v>
+      </c>
+      <c r="G328" t="n">
+        <v>49.18938154154824</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>198.3146343310659</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3.192654498775347</v>
+      </c>
+      <c r="E329" t="n">
+        <v>2.207973661040269</v>
+      </c>
+      <c r="G329" t="n">
+        <v>49.69665260277887</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>226.192284862626</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2.970951921480636</v>
+      </c>
+      <c r="E330" t="n">
+        <v>2.290245844006601</v>
+      </c>
+      <c r="G330" t="n">
+        <v>49.95561501340102</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>277.9005261842584</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2.580852144272369</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2.404467745890801</v>
+      </c>
+      <c r="G331" t="n">
+        <v>49.98417627685828</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>329.6087675058909</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2.2181968038004</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2.475878634454756</v>
+      </c>
+      <c r="G332" t="n">
+        <v>49.6334141543737</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>381.3170088275233</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1.88298590006473</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2.511164787754546</v>
+      </c>
+      <c r="G333" t="n">
+        <v>49.01596350920362</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>433.0252501491557</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1.575219433065357</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2.515820037455794</v>
+      </c>
+      <c r="G334" t="n">
+        <v>48.1947339958442</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>509.6980797623128</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1.169382343607234</v>
+      </c>
+      <c r="E335" t="n">
+        <v>2.475939487481829</v>
+      </c>
+      <c r="G335" t="n">
+        <v>46.6725357005258</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>586.3709093754698</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.8238869859576632</v>
+      </c>
+      <c r="E336" t="n">
+        <v>2.391221476462658</v>
+      </c>
+      <c r="G336" t="n">
+        <v>44.82880796593891</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>663.0437389886267</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.5387333601166451</v>
+      </c>
+      <c r="E337" t="n">
+        <v>2.271735529551512</v>
+      </c>
+      <c r="G337" t="n">
+        <v>42.66192471802287</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>739.7165686017837</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3139214660841796</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2.125878890462351</v>
+      </c>
+      <c r="G338" t="n">
+        <v>40.14703535874379</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>835.3734723084062</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1180486304570885</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1.917609335969112</v>
+      </c>
+      <c r="G339" t="n">
+        <v>36.44889670818603</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>931.0303760150288</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.01609781521977165</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1.691025682277932</v>
+      </c>
+      <c r="G340" t="n">
+        <v>31.99400993875391</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>954.9446019416844</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.005285427096344671</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1.632705854603294</v>
+      </c>
+      <c r="G341" t="n">
+        <v>30.73918429343204</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>978.85882786834</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.0003431652472786171</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1.573981200164908</v>
+      </c>
+      <c r="G342" t="n">
+        <v>29.41903136116575</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>981.1506078529778</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.000177764405437641</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1.568337916724337</v>
+      </c>
+      <c r="G343" t="n">
+        <v>29.28897097044433</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>983.4423878376157</v>
+      </c>
+      <c r="C344" t="n">
+        <v>6.627496635945217e-05</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1.562692372671675</v>
+      </c>
+      <c r="G344" t="n">
+        <v>29.1582715969278</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>985.7341678222535</v>
+      </c>
+      <c r="C345" t="n">
+        <v>8.696930044055281e-06</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1.557044677313728</v>
+      </c>
+      <c r="G345" t="n">
+        <v>29.02692838639674</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>987.3689208604596</v>
+      </c>
+      <c r="C346" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1.553017640525868</v>
+      </c>
+      <c r="G346" t="n">
+        <v>28.93295339488857</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>988.3089038574283</v>
+      </c>
+      <c r="C347" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1.550707760637262</v>
+      </c>
+      <c r="G347" t="n">
+        <v>28.87900882709268</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>989.2488868543969</v>
+      </c>
+      <c r="C348" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1.548406582242219</v>
+      </c>
+      <c r="G348" t="n">
+        <v>28.82531048375006</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>991.1288528483341</v>
+      </c>
+      <c r="C349" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1.543830185344958</v>
+      </c>
+      <c r="G349" t="n">
+        <v>28.71864993389806</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>993.0088188422712</v>
+      </c>
+      <c r="C350" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1.539288261724664</v>
+      </c>
+      <c r="G350" t="n">
+        <v>28.61296838859383</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>994.8887848362084</v>
+      </c>
+      <c r="C351" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1.534780613542201</v>
+      </c>
+      <c r="G351" t="n">
+        <v>28.50826224842455</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>1013.688444775581</v>
+      </c>
+      <c r="C352" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1.491508725561569</v>
+      </c>
+      <c r="G352" t="n">
+        <v>27.5132724869109</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1032.488104714953</v>
+      </c>
+      <c r="C353" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.451423245427792</v>
+      </c>
+      <c r="G353" t="n">
+        <v>26.61075460701843</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>1051.287764654325</v>
+      </c>
+      <c r="C354" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1.414341081634001</v>
+      </c>
+      <c r="G354" t="n">
+        <v>25.79625215312073</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1094.823394039581</v>
+      </c>
+      <c r="C355" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1.339071924332083</v>
+      </c>
+      <c r="G355" t="n">
+        <v>24.22107498083392</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1138.359023424837</v>
+      </c>
+      <c r="C356" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1.276825682035449</v>
+      </c>
+      <c r="G356" t="n">
+        <v>23.02509353622372</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1181.894652810093</v>
+      </c>
+      <c r="C357" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1.225488764645802</v>
+      </c>
+      <c r="G357" t="n">
+        <v>22.13655347994745</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1225.430282195349</v>
+      </c>
+      <c r="C358" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1.183292086102621</v>
+      </c>
+      <c r="G358" t="n">
+        <v>21.48983509171794</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1295.906899339297</v>
+      </c>
+      <c r="C359" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1.130733307859287</v>
+      </c>
+      <c r="G359" t="n">
+        <v>20.81745813421348</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1366.383516483244</v>
+      </c>
+      <c r="C360" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1.093034560401276</v>
+      </c>
+      <c r="G360" t="n">
+        <v>20.44476517794374</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1436.860133627192</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1.066105151819275</v>
+      </c>
+      <c r="G361" t="n">
+        <v>20.24354578825123</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1507.33675077114</v>
+      </c>
+      <c r="C362" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1.046916167718603</v>
+      </c>
+      <c r="G362" t="n">
+        <v>20.13517919804023</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1577.813367915088</v>
+      </c>
+      <c r="C363" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1.033266708132555</v>
+      </c>
+      <c r="G363" t="n">
+        <v>20.07586908732154</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>1648.289985059036</v>
+      </c>
+      <c r="C364" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1.02357142624914</v>
+      </c>
+      <c r="G364" t="n">
+        <v>20.04267860145278</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1718.766602202983</v>
+      </c>
+      <c r="C365" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E365" t="n">
+        <v>1.016692985954865</v>
+      </c>
+      <c r="G365" t="n">
+        <v>20.02385048482351</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>1814.876007888263</v>
+      </c>
+      <c r="C366" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1.010489528256281</v>
+      </c>
+      <c r="G366" t="n">
+        <v>20.01128783107284</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>1910.985413573542</v>
+      </c>
+      <c r="C367" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1.00662955746928</v>
+      </c>
+      <c r="G367" t="n">
+        <v>20.00559830036828</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C368" t="n">
+        <v>-2.224701920156748e-06</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1.004324583570995</v>
+      </c>
+      <c r="G368" t="n">
+        <v>20.0027454392775</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>

--- a/lab1/xlsx1.xlsx
+++ b/lab1/xlsx1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\agh\Optymalizacja\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85645C02-921F-4840-8785-30554B34441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A05AE4-5FE9-4A33-B157-7071E3D21019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -185,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -781,19 +780,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -895,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -985,11 +971,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1012,14 +1003,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1028,47 +1016,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1138,15 +1123,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Wykres!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Metoda oparta na inperpolacji Lagrange'a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Metoda Lagrange'a</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1162,7 +1139,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>[2]Wykres!$A$4:$A$30</c:f>
+              <c:f>[1]Wykres!$A$4:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1252,7 +1229,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Wykres!$C$3:$C$30</c:f>
+              <c:f>[1]Wykres!$C$3:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1280,7 +1257,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Wykres!$B$2</c:f>
+              <c:f>[1]Wykres!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1294,7 +1271,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[2]Wykres!$A$4:$A$30</c:f>
+              <c:f>[1]Wykres!$A$4:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1384,7 +1361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Wykres!$B$3:$B$30</c:f>
+              <c:f>[1]Wykres!$B$3:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2285,7 +2262,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4394,7 +4370,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4568,7 +4543,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>183905</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -4706,19 +4681,6 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Symulacja"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
@@ -4778,6 +4740,7 @@
           <cell r="B6">
             <v>47.2136</v>
           </cell>
+          <cell r="C6"/>
         </row>
         <row r="7">
           <cell r="A7">
@@ -4786,6 +4749,7 @@
           <cell r="B7">
             <v>29.17961</v>
           </cell>
+          <cell r="C7"/>
         </row>
         <row r="8">
           <cell r="A8">
@@ -4794,6 +4758,7 @@
           <cell r="B8">
             <v>18.034009999999999</v>
           </cell>
+          <cell r="C8"/>
         </row>
         <row r="9">
           <cell r="A9">
@@ -4802,6 +4767,7 @@
           <cell r="B9">
             <v>11.145619999999999</v>
           </cell>
+          <cell r="C9"/>
         </row>
         <row r="10">
           <cell r="A10">
@@ -4810,6 +4776,7 @@
           <cell r="B10">
             <v>6.8883700000000001</v>
           </cell>
+          <cell r="C10"/>
         </row>
         <row r="11">
           <cell r="A11">
@@ -4818,6 +4785,7 @@
           <cell r="B11">
             <v>4.25725</v>
           </cell>
+          <cell r="C11"/>
         </row>
         <row r="12">
           <cell r="A12">
@@ -4826,6 +4794,7 @@
           <cell r="B12">
             <v>2.6311200000000001</v>
           </cell>
+          <cell r="C12"/>
         </row>
         <row r="13">
           <cell r="A13">
@@ -4834,6 +4803,7 @@
           <cell r="B13">
             <v>1.6261220000000001</v>
           </cell>
+          <cell r="C13"/>
         </row>
         <row r="14">
           <cell r="A14">
@@ -4842,6 +4812,7 @@
           <cell r="B14">
             <v>1.0049999999999999</v>
           </cell>
+          <cell r="C14"/>
         </row>
         <row r="15">
           <cell r="A15">
@@ -4850,6 +4821,7 @@
           <cell r="B15">
             <v>0.62112400000000001</v>
           </cell>
+          <cell r="C15"/>
         </row>
         <row r="16">
           <cell r="A16">
@@ -4858,6 +4830,7 @@
           <cell r="B16">
             <v>0.38387569999999999</v>
           </cell>
+          <cell r="C16"/>
         </row>
         <row r="17">
           <cell r="A17">
@@ -4866,6 +4839,7 @@
           <cell r="B17">
             <v>0.23724870000000001</v>
           </cell>
+          <cell r="C17"/>
         </row>
         <row r="18">
           <cell r="A18">
@@ -4874,6 +4848,7 @@
           <cell r="B18">
             <v>0.14662739999999999</v>
           </cell>
+          <cell r="C18"/>
         </row>
         <row r="19">
           <cell r="A19">
@@ -4882,6 +4857,7 @@
           <cell r="B19">
             <v>9.0620699999999998E-2</v>
           </cell>
+          <cell r="C19"/>
         </row>
         <row r="20">
           <cell r="A20">
@@ -4890,6 +4866,7 @@
           <cell r="B20">
             <v>5.60067E-2</v>
           </cell>
+          <cell r="C20"/>
         </row>
         <row r="21">
           <cell r="A21">
@@ -4898,6 +4875,7 @@
           <cell r="B21">
             <v>3.4613999999999999E-2</v>
           </cell>
+          <cell r="C21"/>
         </row>
         <row r="22">
           <cell r="A22">
@@ -4906,6 +4884,7 @@
           <cell r="B22">
             <v>2.139274E-2</v>
           </cell>
+          <cell r="C22"/>
         </row>
         <row r="23">
           <cell r="A23">
@@ -4914,6 +4893,7 @@
           <cell r="B23">
             <v>1.322127E-2</v>
           </cell>
+          <cell r="C23"/>
         </row>
         <row r="24">
           <cell r="A24">
@@ -4922,6 +4902,7 @@
           <cell r="B24">
             <v>8.1714800000000001E-3</v>
           </cell>
+          <cell r="C24"/>
         </row>
         <row r="25">
           <cell r="A25">
@@ -4930,6 +4911,7 @@
           <cell r="B25">
             <v>5.0497909999999997E-3</v>
           </cell>
+          <cell r="C25"/>
         </row>
         <row r="26">
           <cell r="A26">
@@ -4938,6 +4920,7 @@
           <cell r="B26">
             <v>3.1216909999999998E-3</v>
           </cell>
+          <cell r="C26"/>
         </row>
         <row r="27">
           <cell r="A27">
@@ -4946,6 +4929,7 @@
           <cell r="B27">
             <v>1.9281019999999999E-3</v>
           </cell>
+          <cell r="C27"/>
         </row>
         <row r="28">
           <cell r="A28">
@@ -4954,6 +4938,7 @@
           <cell r="B28">
             <v>1.1935870000000001E-3</v>
           </cell>
+          <cell r="C28"/>
         </row>
         <row r="29">
           <cell r="A29">
@@ -4962,6 +4947,7 @@
           <cell r="B29">
             <v>7.3451500000000004E-4</v>
           </cell>
+          <cell r="C29"/>
         </row>
         <row r="30">
           <cell r="A30">
@@ -4970,6 +4956,7 @@
           <cell r="B30">
             <v>4.5907199999999998E-4</v>
           </cell>
+          <cell r="C30"/>
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
@@ -5266,7 +5253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A267" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5278,26 +5265,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="68" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="60" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -5342,11 +5329,11 @@
       <c r="N2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="22">
@@ -5390,7 +5377,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -5432,7 +5419,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -5474,7 +5461,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -5516,7 +5503,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -5558,7 +5545,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -5600,7 +5587,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -5642,7 +5629,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -5684,7 +5671,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -5726,7 +5713,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -5768,7 +5755,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -5810,7 +5797,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -5852,7 +5839,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -5894,7 +5881,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -5936,7 +5923,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -5978,7 +5965,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -6020,7 +6007,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -6062,7 +6049,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -6104,7 +6091,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -6146,7 +6133,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -6188,7 +6175,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -6230,7 +6217,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -6272,7 +6259,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -6314,7 +6301,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -6356,7 +6343,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -6398,7 +6385,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -6440,7 +6427,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -6482,7 +6469,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -6524,7 +6511,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -6566,7 +6553,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -6608,7 +6595,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -6650,7 +6637,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -6692,7 +6679,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -6734,7 +6721,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -6776,7 +6763,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -6818,7 +6805,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -6860,7 +6847,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="1">
         <v>37</v>
       </c>
@@ -6902,7 +6889,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -6944,7 +6931,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -6986,7 +6973,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -7028,7 +7015,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -7070,7 +7057,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -7112,7 +7099,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -7154,7 +7141,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="1">
         <v>44</v>
       </c>
@@ -7196,7 +7183,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -7238,7 +7225,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -7280,7 +7267,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -7322,7 +7309,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -7364,7 +7351,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -7406,7 +7393,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -7448,7 +7435,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="1">
         <v>51</v>
       </c>
@@ -7490,7 +7477,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -7532,7 +7519,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -7574,7 +7561,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -7616,7 +7603,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -7658,7 +7645,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -7700,7 +7687,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -7742,7 +7729,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -7784,7 +7771,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -7826,7 +7813,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="1">
         <v>60</v>
       </c>
@@ -7868,7 +7855,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="1">
         <v>61</v>
       </c>
@@ -7910,7 +7897,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="1">
         <v>62</v>
       </c>
@@ -7952,7 +7939,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -7994,7 +7981,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -8036,7 +8023,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -8078,7 +8065,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -8120,7 +8107,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="64"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -8162,7 +8149,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -8204,7 +8191,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -8246,7 +8233,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="64"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -8288,7 +8275,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="64"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -8330,7 +8317,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -8372,7 +8359,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="64"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -8414,7 +8401,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="64"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -8456,7 +8443,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="64"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -8498,7 +8485,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="64"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -8540,7 +8527,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="64"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -8582,7 +8569,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="64"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -8624,7 +8611,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="64"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -8666,7 +8653,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="64"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -8708,7 +8695,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="64"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -8750,7 +8737,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="64"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -8792,7 +8779,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -8834,7 +8821,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -8876,7 +8863,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="64"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -8918,7 +8905,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -8960,7 +8947,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -9002,7 +8989,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="64"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -9044,7 +9031,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="64"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -9086,7 +9073,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="64"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -9128,7 +9115,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="64"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -9170,7 +9157,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="64"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -9212,7 +9199,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="64"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -9254,7 +9241,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="64"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -9296,7 +9283,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="64"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -9338,7 +9325,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -9380,7 +9367,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="64"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="1">
         <v>97</v>
       </c>
@@ -9422,7 +9409,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="64"/>
+      <c r="A100" s="65"/>
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -9464,7 +9451,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="64"/>
+      <c r="A101" s="65"/>
       <c r="B101" s="1">
         <v>99</v>
       </c>
@@ -9506,7 +9493,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="65"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="3">
         <v>100</v>
       </c>
@@ -9548,7 +9535,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="69" t="s">
+      <c r="A103" s="70" t="s">
         <v>29</v>
       </c>
       <c r="B103" s="5">
@@ -9592,7 +9579,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="64"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="1">
         <v>2</v>
       </c>
@@ -9634,7 +9621,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="64"/>
+      <c r="A105" s="65"/>
       <c r="B105" s="1">
         <v>3</v>
       </c>
@@ -9676,7 +9663,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="64"/>
+      <c r="A106" s="65"/>
       <c r="B106" s="1">
         <v>4</v>
       </c>
@@ -9718,7 +9705,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="64"/>
+      <c r="A107" s="65"/>
       <c r="B107" s="1">
         <v>5</v>
       </c>
@@ -9760,7 +9747,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="64"/>
+      <c r="A108" s="65"/>
       <c r="B108" s="1">
         <v>6</v>
       </c>
@@ -9802,7 +9789,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="64"/>
+      <c r="A109" s="65"/>
       <c r="B109" s="1">
         <v>7</v>
       </c>
@@ -9844,7 +9831,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="64"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="1">
         <v>8</v>
       </c>
@@ -9886,7 +9873,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="64"/>
+      <c r="A111" s="65"/>
       <c r="B111" s="1">
         <v>9</v>
       </c>
@@ -9928,7 +9915,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="64"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="1">
         <v>10</v>
       </c>
@@ -9970,7 +9957,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="64"/>
+      <c r="A113" s="65"/>
       <c r="B113" s="1">
         <v>11</v>
       </c>
@@ -10012,7 +9999,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="64"/>
+      <c r="A114" s="65"/>
       <c r="B114" s="1">
         <v>12</v>
       </c>
@@ -10054,7 +10041,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
+      <c r="A115" s="65"/>
       <c r="B115" s="1">
         <v>13</v>
       </c>
@@ -10096,7 +10083,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
+      <c r="A116" s="65"/>
       <c r="B116" s="1">
         <v>14</v>
       </c>
@@ -10138,7 +10125,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="64"/>
+      <c r="A117" s="65"/>
       <c r="B117" s="1">
         <v>15</v>
       </c>
@@ -10180,7 +10167,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="64"/>
+      <c r="A118" s="65"/>
       <c r="B118" s="1">
         <v>16</v>
       </c>
@@ -10222,7 +10209,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="64"/>
+      <c r="A119" s="65"/>
       <c r="B119" s="1">
         <v>17</v>
       </c>
@@ -10264,7 +10251,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="64"/>
+      <c r="A120" s="65"/>
       <c r="B120" s="1">
         <v>18</v>
       </c>
@@ -10306,7 +10293,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="64"/>
+      <c r="A121" s="65"/>
       <c r="B121" s="1">
         <v>19</v>
       </c>
@@ -10348,7 +10335,7 @@
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="64"/>
+      <c r="A122" s="65"/>
       <c r="B122" s="1">
         <v>20</v>
       </c>
@@ -10390,7 +10377,7 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="64"/>
+      <c r="A123" s="65"/>
       <c r="B123" s="1">
         <v>21</v>
       </c>
@@ -10432,7 +10419,7 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="64"/>
+      <c r="A124" s="65"/>
       <c r="B124" s="1">
         <v>22</v>
       </c>
@@ -10474,7 +10461,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="64"/>
+      <c r="A125" s="65"/>
       <c r="B125" s="1">
         <v>23</v>
       </c>
@@ -10516,7 +10503,7 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="64"/>
+      <c r="A126" s="65"/>
       <c r="B126" s="1">
         <v>24</v>
       </c>
@@ -10558,7 +10545,7 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="64"/>
+      <c r="A127" s="65"/>
       <c r="B127" s="1">
         <v>25</v>
       </c>
@@ -10600,7 +10587,7 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="64"/>
+      <c r="A128" s="65"/>
       <c r="B128" s="1">
         <v>26</v>
       </c>
@@ -10642,7 +10629,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="64"/>
+      <c r="A129" s="65"/>
       <c r="B129" s="1">
         <v>27</v>
       </c>
@@ -10684,7 +10671,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="64"/>
+      <c r="A130" s="65"/>
       <c r="B130" s="1">
         <v>28</v>
       </c>
@@ -10726,7 +10713,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="64"/>
+      <c r="A131" s="65"/>
       <c r="B131" s="1">
         <v>29</v>
       </c>
@@ -10768,7 +10755,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="64"/>
+      <c r="A132" s="65"/>
       <c r="B132" s="1">
         <v>30</v>
       </c>
@@ -10810,7 +10797,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="64"/>
+      <c r="A133" s="65"/>
       <c r="B133" s="1">
         <v>31</v>
       </c>
@@ -10852,7 +10839,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="64"/>
+      <c r="A134" s="65"/>
       <c r="B134" s="1">
         <v>32</v>
       </c>
@@ -10894,7 +10881,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="64"/>
+      <c r="A135" s="65"/>
       <c r="B135" s="1">
         <v>33</v>
       </c>
@@ -10936,7 +10923,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="64"/>
+      <c r="A136" s="65"/>
       <c r="B136" s="1">
         <v>34</v>
       </c>
@@ -10978,7 +10965,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="64"/>
+      <c r="A137" s="65"/>
       <c r="B137" s="1">
         <v>35</v>
       </c>
@@ -11020,7 +11007,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="64"/>
+      <c r="A138" s="65"/>
       <c r="B138" s="1">
         <v>36</v>
       </c>
@@ -11062,7 +11049,7 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="64"/>
+      <c r="A139" s="65"/>
       <c r="B139" s="1">
         <v>37</v>
       </c>
@@ -11104,7 +11091,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="64"/>
+      <c r="A140" s="65"/>
       <c r="B140" s="1">
         <v>38</v>
       </c>
@@ -11146,7 +11133,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="64"/>
+      <c r="A141" s="65"/>
       <c r="B141" s="1">
         <v>39</v>
       </c>
@@ -11188,7 +11175,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="64"/>
+      <c r="A142" s="65"/>
       <c r="B142" s="1">
         <v>40</v>
       </c>
@@ -11230,7 +11217,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="64"/>
+      <c r="A143" s="65"/>
       <c r="B143" s="1">
         <v>41</v>
       </c>
@@ -11272,7 +11259,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="64"/>
+      <c r="A144" s="65"/>
       <c r="B144" s="1">
         <v>42</v>
       </c>
@@ -11314,7 +11301,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="64"/>
+      <c r="A145" s="65"/>
       <c r="B145" s="1">
         <v>43</v>
       </c>
@@ -11356,7 +11343,7 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="64"/>
+      <c r="A146" s="65"/>
       <c r="B146" s="1">
         <v>44</v>
       </c>
@@ -11398,7 +11385,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="64"/>
+      <c r="A147" s="65"/>
       <c r="B147" s="1">
         <v>45</v>
       </c>
@@ -11440,7 +11427,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="64"/>
+      <c r="A148" s="65"/>
       <c r="B148" s="1">
         <v>46</v>
       </c>
@@ -11482,7 +11469,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="64"/>
+      <c r="A149" s="65"/>
       <c r="B149" s="1">
         <v>47</v>
       </c>
@@ -11524,7 +11511,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="64"/>
+      <c r="A150" s="65"/>
       <c r="B150" s="1">
         <v>48</v>
       </c>
@@ -11566,7 +11553,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="64"/>
+      <c r="A151" s="65"/>
       <c r="B151" s="1">
         <v>49</v>
       </c>
@@ -11608,7 +11595,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="64"/>
+      <c r="A152" s="65"/>
       <c r="B152" s="1">
         <v>50</v>
       </c>
@@ -11650,7 +11637,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="64"/>
+      <c r="A153" s="65"/>
       <c r="B153" s="1">
         <v>51</v>
       </c>
@@ -11692,7 +11679,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="64"/>
+      <c r="A154" s="65"/>
       <c r="B154" s="1">
         <v>52</v>
       </c>
@@ -11734,7 +11721,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="64"/>
+      <c r="A155" s="65"/>
       <c r="B155" s="1">
         <v>53</v>
       </c>
@@ -11776,7 +11763,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="64"/>
+      <c r="A156" s="65"/>
       <c r="B156" s="1">
         <v>54</v>
       </c>
@@ -11818,7 +11805,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="64"/>
+      <c r="A157" s="65"/>
       <c r="B157" s="1">
         <v>55</v>
       </c>
@@ -11860,7 +11847,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="64"/>
+      <c r="A158" s="65"/>
       <c r="B158" s="1">
         <v>56</v>
       </c>
@@ -11902,7 +11889,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="64"/>
+      <c r="A159" s="65"/>
       <c r="B159" s="1">
         <v>57</v>
       </c>
@@ -11944,7 +11931,7 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="64"/>
+      <c r="A160" s="65"/>
       <c r="B160" s="1">
         <v>58</v>
       </c>
@@ -11986,7 +11973,7 @@
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="64"/>
+      <c r="A161" s="65"/>
       <c r="B161" s="1">
         <v>59</v>
       </c>
@@ -12028,7 +12015,7 @@
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="64"/>
+      <c r="A162" s="65"/>
       <c r="B162" s="1">
         <v>60</v>
       </c>
@@ -12070,7 +12057,7 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="64"/>
+      <c r="A163" s="65"/>
       <c r="B163" s="1">
         <v>61</v>
       </c>
@@ -12112,7 +12099,7 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="64"/>
+      <c r="A164" s="65"/>
       <c r="B164" s="1">
         <v>62</v>
       </c>
@@ -12154,7 +12141,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="64"/>
+      <c r="A165" s="65"/>
       <c r="B165" s="1">
         <v>63</v>
       </c>
@@ -12196,7 +12183,7 @@
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="64"/>
+      <c r="A166" s="65"/>
       <c r="B166" s="1">
         <v>64</v>
       </c>
@@ -12238,7 +12225,7 @@
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="64"/>
+      <c r="A167" s="65"/>
       <c r="B167" s="1">
         <v>65</v>
       </c>
@@ -12280,7 +12267,7 @@
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="64"/>
+      <c r="A168" s="65"/>
       <c r="B168" s="1">
         <v>66</v>
       </c>
@@ -12322,7 +12309,7 @@
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="64"/>
+      <c r="A169" s="65"/>
       <c r="B169" s="1">
         <v>67</v>
       </c>
@@ -12364,7 +12351,7 @@
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="64"/>
+      <c r="A170" s="65"/>
       <c r="B170" s="1">
         <v>68</v>
       </c>
@@ -12406,7 +12393,7 @@
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="64"/>
+      <c r="A171" s="65"/>
       <c r="B171" s="1">
         <v>69</v>
       </c>
@@ -12448,7 +12435,7 @@
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="64"/>
+      <c r="A172" s="65"/>
       <c r="B172" s="1">
         <v>70</v>
       </c>
@@ -12490,7 +12477,7 @@
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="64"/>
+      <c r="A173" s="65"/>
       <c r="B173" s="1">
         <v>71</v>
       </c>
@@ -12532,7 +12519,7 @@
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="64"/>
+      <c r="A174" s="65"/>
       <c r="B174" s="1">
         <v>72</v>
       </c>
@@ -12574,7 +12561,7 @@
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="64"/>
+      <c r="A175" s="65"/>
       <c r="B175" s="1">
         <v>73</v>
       </c>
@@ -12616,7 +12603,7 @@
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="64"/>
+      <c r="A176" s="65"/>
       <c r="B176" s="1">
         <v>74</v>
       </c>
@@ -12658,7 +12645,7 @@
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="64"/>
+      <c r="A177" s="65"/>
       <c r="B177" s="1">
         <v>75</v>
       </c>
@@ -12700,7 +12687,7 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="64"/>
+      <c r="A178" s="65"/>
       <c r="B178" s="1">
         <v>76</v>
       </c>
@@ -12742,7 +12729,7 @@
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="64"/>
+      <c r="A179" s="65"/>
       <c r="B179" s="1">
         <v>77</v>
       </c>
@@ -12784,7 +12771,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="64"/>
+      <c r="A180" s="65"/>
       <c r="B180" s="1">
         <v>78</v>
       </c>
@@ -12826,7 +12813,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="64"/>
+      <c r="A181" s="65"/>
       <c r="B181" s="1">
         <v>79</v>
       </c>
@@ -12868,7 +12855,7 @@
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="64"/>
+      <c r="A182" s="65"/>
       <c r="B182" s="1">
         <v>80</v>
       </c>
@@ -12910,7 +12897,7 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="64"/>
+      <c r="A183" s="65"/>
       <c r="B183" s="1">
         <v>81</v>
       </c>
@@ -12952,7 +12939,7 @@
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="64"/>
+      <c r="A184" s="65"/>
       <c r="B184" s="1">
         <v>82</v>
       </c>
@@ -12994,7 +12981,7 @@
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="64"/>
+      <c r="A185" s="65"/>
       <c r="B185" s="1">
         <v>83</v>
       </c>
@@ -13036,7 +13023,7 @@
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" s="64"/>
+      <c r="A186" s="65"/>
       <c r="B186" s="1">
         <v>84</v>
       </c>
@@ -13078,7 +13065,7 @@
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="64"/>
+      <c r="A187" s="65"/>
       <c r="B187" s="1">
         <v>85</v>
       </c>
@@ -13120,7 +13107,7 @@
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="64"/>
+      <c r="A188" s="65"/>
       <c r="B188" s="1">
         <v>86</v>
       </c>
@@ -13162,7 +13149,7 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="64"/>
+      <c r="A189" s="65"/>
       <c r="B189" s="1">
         <v>87</v>
       </c>
@@ -13204,7 +13191,7 @@
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="64"/>
+      <c r="A190" s="65"/>
       <c r="B190" s="1">
         <v>88</v>
       </c>
@@ -13246,7 +13233,7 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="64"/>
+      <c r="A191" s="65"/>
       <c r="B191" s="1">
         <v>89</v>
       </c>
@@ -13288,7 +13275,7 @@
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="64"/>
+      <c r="A192" s="65"/>
       <c r="B192" s="1">
         <v>90</v>
       </c>
@@ -13330,7 +13317,7 @@
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A193" s="64"/>
+      <c r="A193" s="65"/>
       <c r="B193" s="1">
         <v>91</v>
       </c>
@@ -13372,7 +13359,7 @@
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194" s="64"/>
+      <c r="A194" s="65"/>
       <c r="B194" s="1">
         <v>92</v>
       </c>
@@ -13414,7 +13401,7 @@
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="64"/>
+      <c r="A195" s="65"/>
       <c r="B195" s="1">
         <v>93</v>
       </c>
@@ -13456,7 +13443,7 @@
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="64"/>
+      <c r="A196" s="65"/>
       <c r="B196" s="1">
         <v>94</v>
       </c>
@@ -13498,7 +13485,7 @@
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="64"/>
+      <c r="A197" s="65"/>
       <c r="B197" s="1">
         <v>95</v>
       </c>
@@ -13540,7 +13527,7 @@
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="64"/>
+      <c r="A198" s="65"/>
       <c r="B198" s="1">
         <v>96</v>
       </c>
@@ -13582,7 +13569,7 @@
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="64"/>
+      <c r="A199" s="65"/>
       <c r="B199" s="1">
         <v>97</v>
       </c>
@@ -13624,7 +13611,7 @@
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="64"/>
+      <c r="A200" s="65"/>
       <c r="B200" s="1">
         <v>98</v>
       </c>
@@ -13666,7 +13653,7 @@
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="64"/>
+      <c r="A201" s="65"/>
       <c r="B201" s="1">
         <v>99</v>
       </c>
@@ -13708,7 +13695,7 @@
       </c>
     </row>
     <row r="202" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="65"/>
+      <c r="A202" s="66"/>
       <c r="B202" s="27">
         <v>100</v>
       </c>
@@ -13750,7 +13737,7 @@
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A203" s="63" t="s">
+      <c r="A203" s="64" t="s">
         <v>30</v>
       </c>
       <c r="B203" s="22">
@@ -13794,7 +13781,7 @@
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A204" s="64"/>
+      <c r="A204" s="65"/>
       <c r="B204" s="1">
         <v>2</v>
       </c>
@@ -13836,7 +13823,7 @@
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="64"/>
+      <c r="A205" s="65"/>
       <c r="B205" s="1">
         <v>3</v>
       </c>
@@ -13878,7 +13865,7 @@
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A206" s="64"/>
+      <c r="A206" s="65"/>
       <c r="B206" s="1">
         <v>4</v>
       </c>
@@ -13920,7 +13907,7 @@
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207" s="64"/>
+      <c r="A207" s="65"/>
       <c r="B207" s="1">
         <v>5</v>
       </c>
@@ -13962,7 +13949,7 @@
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="64"/>
+      <c r="A208" s="65"/>
       <c r="B208" s="1">
         <v>6</v>
       </c>
@@ -14004,7 +13991,7 @@
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A209" s="64"/>
+      <c r="A209" s="65"/>
       <c r="B209" s="1">
         <v>7</v>
       </c>
@@ -14046,7 +14033,7 @@
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A210" s="64"/>
+      <c r="A210" s="65"/>
       <c r="B210" s="1">
         <v>8</v>
       </c>
@@ -14088,7 +14075,7 @@
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A211" s="64"/>
+      <c r="A211" s="65"/>
       <c r="B211" s="1">
         <v>9</v>
       </c>
@@ -14130,7 +14117,7 @@
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" s="64"/>
+      <c r="A212" s="65"/>
       <c r="B212" s="1">
         <v>10</v>
       </c>
@@ -14172,7 +14159,7 @@
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A213" s="64"/>
+      <c r="A213" s="65"/>
       <c r="B213" s="1">
         <v>11</v>
       </c>
@@ -14214,7 +14201,7 @@
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A214" s="64"/>
+      <c r="A214" s="65"/>
       <c r="B214" s="1">
         <v>12</v>
       </c>
@@ -14256,7 +14243,7 @@
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A215" s="64"/>
+      <c r="A215" s="65"/>
       <c r="B215" s="1">
         <v>13</v>
       </c>
@@ -14298,7 +14285,7 @@
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A216" s="64"/>
+      <c r="A216" s="65"/>
       <c r="B216" s="1">
         <v>14</v>
       </c>
@@ -14340,7 +14327,7 @@
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A217" s="64"/>
+      <c r="A217" s="65"/>
       <c r="B217" s="1">
         <v>15</v>
       </c>
@@ -14382,7 +14369,7 @@
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A218" s="64"/>
+      <c r="A218" s="65"/>
       <c r="B218" s="1">
         <v>16</v>
       </c>
@@ -14424,7 +14411,7 @@
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A219" s="64"/>
+      <c r="A219" s="65"/>
       <c r="B219" s="1">
         <v>17</v>
       </c>
@@ -14466,7 +14453,7 @@
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A220" s="64"/>
+      <c r="A220" s="65"/>
       <c r="B220" s="1">
         <v>18</v>
       </c>
@@ -14508,7 +14495,7 @@
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A221" s="64"/>
+      <c r="A221" s="65"/>
       <c r="B221" s="1">
         <v>19</v>
       </c>
@@ -14550,7 +14537,7 @@
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A222" s="64"/>
+      <c r="A222" s="65"/>
       <c r="B222" s="1">
         <v>20</v>
       </c>
@@ -14592,7 +14579,7 @@
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A223" s="64"/>
+      <c r="A223" s="65"/>
       <c r="B223" s="1">
         <v>21</v>
       </c>
@@ -14634,7 +14621,7 @@
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A224" s="64"/>
+      <c r="A224" s="65"/>
       <c r="B224" s="1">
         <v>22</v>
       </c>
@@ -14676,7 +14663,7 @@
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A225" s="64"/>
+      <c r="A225" s="65"/>
       <c r="B225" s="1">
         <v>23</v>
       </c>
@@ -14718,7 +14705,7 @@
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="64"/>
+      <c r="A226" s="65"/>
       <c r="B226" s="1">
         <v>24</v>
       </c>
@@ -14760,7 +14747,7 @@
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" s="64"/>
+      <c r="A227" s="65"/>
       <c r="B227" s="1">
         <v>25</v>
       </c>
@@ -14802,7 +14789,7 @@
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A228" s="64"/>
+      <c r="A228" s="65"/>
       <c r="B228" s="1">
         <v>26</v>
       </c>
@@ -14844,7 +14831,7 @@
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="64"/>
+      <c r="A229" s="65"/>
       <c r="B229" s="1">
         <v>27</v>
       </c>
@@ -14886,7 +14873,7 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="64"/>
+      <c r="A230" s="65"/>
       <c r="B230" s="1">
         <v>28</v>
       </c>
@@ -14928,7 +14915,7 @@
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="64"/>
+      <c r="A231" s="65"/>
       <c r="B231" s="1">
         <v>29</v>
       </c>
@@ -14970,7 +14957,7 @@
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="64"/>
+      <c r="A232" s="65"/>
       <c r="B232" s="1">
         <v>30</v>
       </c>
@@ -15012,7 +14999,7 @@
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A233" s="64"/>
+      <c r="A233" s="65"/>
       <c r="B233" s="1">
         <v>31</v>
       </c>
@@ -15054,7 +15041,7 @@
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A234" s="64"/>
+      <c r="A234" s="65"/>
       <c r="B234" s="1">
         <v>32</v>
       </c>
@@ -15096,7 +15083,7 @@
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A235" s="64"/>
+      <c r="A235" s="65"/>
       <c r="B235" s="1">
         <v>33</v>
       </c>
@@ -15138,7 +15125,7 @@
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236" s="64"/>
+      <c r="A236" s="65"/>
       <c r="B236" s="1">
         <v>34</v>
       </c>
@@ -15180,7 +15167,7 @@
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A237" s="64"/>
+      <c r="A237" s="65"/>
       <c r="B237" s="1">
         <v>35</v>
       </c>
@@ -15222,7 +15209,7 @@
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A238" s="64"/>
+      <c r="A238" s="65"/>
       <c r="B238" s="1">
         <v>36</v>
       </c>
@@ -15264,7 +15251,7 @@
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A239" s="64"/>
+      <c r="A239" s="65"/>
       <c r="B239" s="1">
         <v>37</v>
       </c>
@@ -15306,7 +15293,7 @@
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A240" s="64"/>
+      <c r="A240" s="65"/>
       <c r="B240" s="1">
         <v>38</v>
       </c>
@@ -15348,7 +15335,7 @@
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A241" s="64"/>
+      <c r="A241" s="65"/>
       <c r="B241" s="1">
         <v>39</v>
       </c>
@@ -15390,7 +15377,7 @@
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A242" s="64"/>
+      <c r="A242" s="65"/>
       <c r="B242" s="1">
         <v>40</v>
       </c>
@@ -15432,7 +15419,7 @@
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A243" s="64"/>
+      <c r="A243" s="65"/>
       <c r="B243" s="1">
         <v>41</v>
       </c>
@@ -15474,7 +15461,7 @@
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A244" s="64"/>
+      <c r="A244" s="65"/>
       <c r="B244" s="1">
         <v>42</v>
       </c>
@@ -15516,7 +15503,7 @@
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A245" s="64"/>
+      <c r="A245" s="65"/>
       <c r="B245" s="1">
         <v>43</v>
       </c>
@@ -15558,7 +15545,7 @@
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A246" s="64"/>
+      <c r="A246" s="65"/>
       <c r="B246" s="1">
         <v>44</v>
       </c>
@@ -15600,7 +15587,7 @@
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A247" s="64"/>
+      <c r="A247" s="65"/>
       <c r="B247" s="1">
         <v>45</v>
       </c>
@@ -15642,7 +15629,7 @@
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A248" s="64"/>
+      <c r="A248" s="65"/>
       <c r="B248" s="1">
         <v>46</v>
       </c>
@@ -15684,7 +15671,7 @@
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A249" s="64"/>
+      <c r="A249" s="65"/>
       <c r="B249" s="1">
         <v>47</v>
       </c>
@@ -15726,7 +15713,7 @@
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A250" s="64"/>
+      <c r="A250" s="65"/>
       <c r="B250" s="1">
         <v>48</v>
       </c>
@@ -15768,7 +15755,7 @@
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A251" s="64"/>
+      <c r="A251" s="65"/>
       <c r="B251" s="1">
         <v>49</v>
       </c>
@@ -15810,7 +15797,7 @@
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A252" s="64"/>
+      <c r="A252" s="65"/>
       <c r="B252" s="1">
         <v>50</v>
       </c>
@@ -15852,7 +15839,7 @@
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A253" s="64"/>
+      <c r="A253" s="65"/>
       <c r="B253" s="1">
         <v>51</v>
       </c>
@@ -15894,7 +15881,7 @@
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A254" s="64"/>
+      <c r="A254" s="65"/>
       <c r="B254" s="1">
         <v>52</v>
       </c>
@@ -15936,7 +15923,7 @@
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A255" s="64"/>
+      <c r="A255" s="65"/>
       <c r="B255" s="1">
         <v>53</v>
       </c>
@@ -15978,7 +15965,7 @@
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A256" s="64"/>
+      <c r="A256" s="65"/>
       <c r="B256" s="1">
         <v>54</v>
       </c>
@@ -16020,7 +16007,7 @@
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A257" s="64"/>
+      <c r="A257" s="65"/>
       <c r="B257" s="1">
         <v>55</v>
       </c>
@@ -16062,7 +16049,7 @@
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A258" s="64"/>
+      <c r="A258" s="65"/>
       <c r="B258" s="1">
         <v>56</v>
       </c>
@@ -16104,7 +16091,7 @@
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A259" s="64"/>
+      <c r="A259" s="65"/>
       <c r="B259" s="1">
         <v>57</v>
       </c>
@@ -16146,7 +16133,7 @@
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A260" s="64"/>
+      <c r="A260" s="65"/>
       <c r="B260" s="1">
         <v>58</v>
       </c>
@@ -16188,7 +16175,7 @@
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A261" s="64"/>
+      <c r="A261" s="65"/>
       <c r="B261" s="1">
         <v>59</v>
       </c>
@@ -16230,7 +16217,7 @@
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A262" s="64"/>
+      <c r="A262" s="65"/>
       <c r="B262" s="1">
         <v>60</v>
       </c>
@@ -16272,7 +16259,7 @@
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A263" s="64"/>
+      <c r="A263" s="65"/>
       <c r="B263" s="1">
         <v>61</v>
       </c>
@@ -16314,7 +16301,7 @@
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A264" s="64"/>
+      <c r="A264" s="65"/>
       <c r="B264" s="1">
         <v>62</v>
       </c>
@@ -16356,7 +16343,7 @@
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A265" s="64"/>
+      <c r="A265" s="65"/>
       <c r="B265" s="1">
         <v>63</v>
       </c>
@@ -16398,7 +16385,7 @@
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A266" s="64"/>
+      <c r="A266" s="65"/>
       <c r="B266" s="1">
         <v>64</v>
       </c>
@@ -16440,7 +16427,7 @@
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A267" s="64"/>
+      <c r="A267" s="65"/>
       <c r="B267" s="1">
         <v>65</v>
       </c>
@@ -16482,7 +16469,7 @@
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A268" s="64"/>
+      <c r="A268" s="65"/>
       <c r="B268" s="1">
         <v>66</v>
       </c>
@@ -16524,7 +16511,7 @@
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A269" s="64"/>
+      <c r="A269" s="65"/>
       <c r="B269" s="1">
         <v>67</v>
       </c>
@@ -16566,7 +16553,7 @@
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A270" s="64"/>
+      <c r="A270" s="65"/>
       <c r="B270" s="1">
         <v>68</v>
       </c>
@@ -16608,7 +16595,7 @@
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A271" s="64"/>
+      <c r="A271" s="65"/>
       <c r="B271" s="1">
         <v>69</v>
       </c>
@@ -16650,7 +16637,7 @@
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A272" s="64"/>
+      <c r="A272" s="65"/>
       <c r="B272" s="1">
         <v>70</v>
       </c>
@@ -16692,7 +16679,7 @@
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A273" s="64"/>
+      <c r="A273" s="65"/>
       <c r="B273" s="1">
         <v>71</v>
       </c>
@@ -16734,7 +16721,7 @@
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A274" s="64"/>
+      <c r="A274" s="65"/>
       <c r="B274" s="1">
         <v>72</v>
       </c>
@@ -16776,7 +16763,7 @@
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A275" s="64"/>
+      <c r="A275" s="65"/>
       <c r="B275" s="1">
         <v>73</v>
       </c>
@@ -16818,7 +16805,7 @@
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A276" s="64"/>
+      <c r="A276" s="65"/>
       <c r="B276" s="1">
         <v>74</v>
       </c>
@@ -16860,7 +16847,7 @@
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A277" s="64"/>
+      <c r="A277" s="65"/>
       <c r="B277" s="1">
         <v>75</v>
       </c>
@@ -16902,7 +16889,7 @@
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A278" s="64"/>
+      <c r="A278" s="65"/>
       <c r="B278" s="1">
         <v>76</v>
       </c>
@@ -16944,7 +16931,7 @@
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A279" s="64"/>
+      <c r="A279" s="65"/>
       <c r="B279" s="1">
         <v>77</v>
       </c>
@@ -16986,7 +16973,7 @@
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A280" s="64"/>
+      <c r="A280" s="65"/>
       <c r="B280" s="1">
         <v>78</v>
       </c>
@@ -17028,7 +17015,7 @@
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A281" s="64"/>
+      <c r="A281" s="65"/>
       <c r="B281" s="1">
         <v>79</v>
       </c>
@@ -17070,7 +17057,7 @@
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A282" s="64"/>
+      <c r="A282" s="65"/>
       <c r="B282" s="1">
         <v>80</v>
       </c>
@@ -17112,7 +17099,7 @@
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A283" s="64"/>
+      <c r="A283" s="65"/>
       <c r="B283" s="1">
         <v>81</v>
       </c>
@@ -17154,7 +17141,7 @@
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A284" s="64"/>
+      <c r="A284" s="65"/>
       <c r="B284" s="1">
         <v>82</v>
       </c>
@@ -17196,7 +17183,7 @@
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A285" s="64"/>
+      <c r="A285" s="65"/>
       <c r="B285" s="1">
         <v>83</v>
       </c>
@@ -17238,7 +17225,7 @@
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A286" s="64"/>
+      <c r="A286" s="65"/>
       <c r="B286" s="1">
         <v>84</v>
       </c>
@@ -17280,7 +17267,7 @@
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A287" s="64"/>
+      <c r="A287" s="65"/>
       <c r="B287" s="1">
         <v>85</v>
       </c>
@@ -17322,7 +17309,7 @@
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A288" s="64"/>
+      <c r="A288" s="65"/>
       <c r="B288" s="1">
         <v>86</v>
       </c>
@@ -17364,7 +17351,7 @@
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A289" s="64"/>
+      <c r="A289" s="65"/>
       <c r="B289" s="1">
         <v>87</v>
       </c>
@@ -17406,7 +17393,7 @@
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A290" s="64"/>
+      <c r="A290" s="65"/>
       <c r="B290" s="1">
         <v>88</v>
       </c>
@@ -17448,7 +17435,7 @@
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A291" s="64"/>
+      <c r="A291" s="65"/>
       <c r="B291" s="1">
         <v>89</v>
       </c>
@@ -17490,7 +17477,7 @@
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A292" s="64"/>
+      <c r="A292" s="65"/>
       <c r="B292" s="1">
         <v>90</v>
       </c>
@@ -17532,7 +17519,7 @@
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A293" s="64"/>
+      <c r="A293" s="65"/>
       <c r="B293" s="1">
         <v>91</v>
       </c>
@@ -17574,7 +17561,7 @@
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A294" s="64"/>
+      <c r="A294" s="65"/>
       <c r="B294" s="1">
         <v>92</v>
       </c>
@@ -17616,7 +17603,7 @@
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A295" s="64"/>
+      <c r="A295" s="65"/>
       <c r="B295" s="1">
         <v>93</v>
       </c>
@@ -17658,7 +17645,7 @@
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A296" s="64"/>
+      <c r="A296" s="65"/>
       <c r="B296" s="1">
         <v>94</v>
       </c>
@@ -17700,7 +17687,7 @@
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A297" s="64"/>
+      <c r="A297" s="65"/>
       <c r="B297" s="1">
         <v>95</v>
       </c>
@@ -17742,7 +17729,7 @@
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A298" s="64"/>
+      <c r="A298" s="65"/>
       <c r="B298" s="1">
         <v>96</v>
       </c>
@@ -17784,7 +17771,7 @@
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A299" s="64"/>
+      <c r="A299" s="65"/>
       <c r="B299" s="1">
         <v>97</v>
       </c>
@@ -17826,7 +17813,7 @@
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A300" s="64"/>
+      <c r="A300" s="65"/>
       <c r="B300" s="1">
         <v>98</v>
       </c>
@@ -17868,7 +17855,7 @@
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A301" s="64"/>
+      <c r="A301" s="65"/>
       <c r="B301" s="1">
         <v>99</v>
       </c>
@@ -17910,7 +17897,7 @@
       </c>
     </row>
     <row r="302" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="65"/>
+      <c r="A302" s="66"/>
       <c r="B302" s="3">
         <v>100</v>
       </c>
@@ -17952,11 +17939,11 @@
       </c>
     </row>
     <row r="303" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="66" t="s">
+      <c r="A303" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B303" s="67"/>
-      <c r="C303" s="67"/>
+      <c r="B303" s="68"/>
+      <c r="C303" s="68"/>
       <c r="D303" s="41">
         <v>-100</v>
       </c>
@@ -17994,8 +17981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18006,45 +17993,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="72" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="39" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -18056,25 +18043,27 @@
       <c r="J2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="57" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="79">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="B3" s="81">
         <f>(AVERAGE('Tabela 1'!E3:E102)-AVERAGE('Tabela 1'!D3:D102))</f>
         <v>17.533510742187499</v>
       </c>
-      <c r="C3" s="81">
+      <c r="C3" s="83">
         <f>AVERAGE('Tabela 1'!F3:F102)</f>
         <v>20.3</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="26">
         <f>AVERAGEIFS('Tabela 1'!G3:G102, 'Tabela 1'!J3:J102, "lokalne")</f>
@@ -18110,11 +18099,11 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="54" t="s">
-        <v>19</v>
+      <c r="A4" s="80"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="20">
         <f>AVERAGEIFS('Tabela 1'!G3:G102,'Tabela 1'!J3:J102,"globalne")</f>
@@ -18150,22 +18139,22 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="57" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="27" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="28">
         <v>0</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="27" t="s">
         <v>31</v>
       </c>
@@ -18174,17 +18163,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
+      <c r="A6" s="79">
+        <v>1.5</v>
+      </c>
       <c r="B6" s="73">
         <f>(AVERAGE('Tabela 1'!E103:F202)-AVERAGE('Tabela 1'!D103:D202))</f>
         <v>17.215000000000003</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="83">
         <f>AVERAGE('Tabela 1'!F103:F202)</f>
         <v>14.96</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="26">
         <f>AVERAGEIFS('Tabela 1'!G103:G202,'Tabela 1'!J103:J202,"lokalne")</f>
@@ -18220,11 +18211,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="74"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="54" t="s">
-        <v>19</v>
+      <c r="C7" s="84"/>
+      <c r="D7" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="20">
         <f>AVERAGEIFS('Tabela 1'!G103:G202,'Tabela 1'!J103:J202,"globalne")</f>
@@ -18260,22 +18251,22 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="75"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
       <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="3" t="s">
         <v>31</v>
       </c>
@@ -18284,17 +18275,19 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="79">
+        <v>1.5</v>
+      </c>
       <c r="B9" s="73">
         <f>(AVERAGE('Tabela 1'!E203:F302)-AVERAGE('Tabela 1'!D203:D302))</f>
         <v>43.842187500000001</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="79">
         <f>AVERAGE('Tabela 1'!F203:F302)</f>
         <v>13.5</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>18</v>
+      <c r="D9" s="53" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="26">
         <f>AVERAGEIFS('Tabela 1'!G203:G302,'Tabela 1'!J203:J302,"lokalne")</f>
@@ -18312,17 +18305,29 @@
         <f>COUNTIF('Tabela 1'!J203:J302, "lokalne")</f>
         <v>59</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="I9" s="11">
+        <f>AVERAGEIFS('Tabela 1'!K203:K302,'Tabela 1'!N203:N302,"lokalne")</f>
+        <v>-5.1111102974571103E-7</v>
+      </c>
+      <c r="J9" s="5">
+        <f>AVERAGEIFS('Tabela 1'!L203:L302,'Tabela 1'!N203:N302,"lokalne")</f>
+        <v>9.0921651011679924E-17</v>
+      </c>
+      <c r="K9" s="26">
+        <f>AVERAGEIFS('Tabela 1'!M203:M302,'Tabela 1'!N203:N302,"lokalne")</f>
+        <v>4.8305084745762707</v>
+      </c>
+      <c r="L9" s="6">
+        <f>COUNTIF('Tabela 1'!N203:N302, "lokalne")</f>
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="74"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="54" t="s">
-        <v>19</v>
+      <c r="C10" s="80"/>
+      <c r="D10" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="20">
         <f>AVERAGEIFS('Tabela 1'!G203:G302,'Tabela 1'!J203:J302,"globalne")</f>
@@ -18340,28 +18345,40 @@
         <f>COUNTIF('Tabela 1'!J203:J302, "globalne")</f>
         <v>41</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
+      <c r="I10" s="12">
+        <f>AVERAGEIFS('Tabela 1'!K203:K302,'Tabela 1'!N203:N302,"globalne")</f>
+        <v>62.748180822497467</v>
+      </c>
+      <c r="J10" s="20">
+        <f>AVERAGEIFS('Tabela 1'!L203:L302,'Tabela 1'!N203:N302,"globalne")</f>
+        <v>-0.92114830549511062</v>
+      </c>
+      <c r="K10" s="20">
+        <f>AVERAGEIFS('Tabela 1'!M203:M302,'Tabela 1'!N203:N302,"globalne")</f>
+        <v>19.390243902439025</v>
+      </c>
+      <c r="L10" s="2">
+        <f>COUNTIF('Tabela 1'!N203:N302, "globalne")</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="75"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="55" t="s">
+      <c r="C11" s="77"/>
+      <c r="D11" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
       <c r="K11" s="3" t="s">
         <v>31</v>
       </c>
@@ -18371,6 +18388,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A1:A2"/>
@@ -18383,14 +18408,6 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -18401,7 +18418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -18412,20 +18429,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="92"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="60" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18712,16 +18729,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="72" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -18787,24 +18804,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="88" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
+      <c r="A2" s="93"/>
       <c r="B2" s="50" t="s">
         <v>26</v>
       </c>
